--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T225"/>
+  <dimension ref="A1:T227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N97" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O97" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P97" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T97" t="n">
         <v>16</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="N98" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O98" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P98" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1406</v>
+        <v>438</v>
       </c>
       <c r="T98" t="n">
         <v>16</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N99" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O99" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P99" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1188</v>
+        <v>1094</v>
       </c>
       <c r="T99" t="n">
         <v>16</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N100" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O100" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P100" t="n">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1500</v>
+        <v>1406</v>
       </c>
       <c r="T100" t="n">
         <v>16</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44257</v>
+        <v>44222</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N101" t="n">
-        <v>26500</v>
+        <v>19000</v>
       </c>
       <c r="O101" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="P101" t="n">
-        <v>26750</v>
+        <v>19000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1672</v>
+        <v>1188</v>
       </c>
       <c r="T101" t="n">
         <v>16</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N102" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O102" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P102" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1312</v>
+        <v>1500</v>
       </c>
       <c r="T102" t="n">
         <v>16</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N103" t="n">
-        <v>8000</v>
+        <v>26500</v>
       </c>
       <c r="O103" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="P103" t="n">
-        <v>8500</v>
+        <v>26750</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>531</v>
+        <v>1672</v>
       </c>
       <c r="T103" t="n">
         <v>16</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N104" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O104" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="P104" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>469</v>
+        <v>1312</v>
       </c>
       <c r="T104" t="n">
         <v>16</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N105" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O105" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P105" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1531</v>
+        <v>531</v>
       </c>
       <c r="T105" t="n">
         <v>16</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N106" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O106" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P106" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1250</v>
+        <v>469</v>
       </c>
       <c r="T106" t="n">
         <v>16</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -8927,13 +8927,13 @@
         <v>800</v>
       </c>
       <c r="N107" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O107" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P107" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1406</v>
+        <v>1531</v>
       </c>
       <c r="T107" t="n">
         <v>16</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N108" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O108" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P108" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9022,11 +9022,11 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T108" t="n">
         <v>16</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -9084,16 +9084,16 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N109" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O109" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P109" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1531</v>
+        <v>1406</v>
       </c>
       <c r="T109" t="n">
         <v>16</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N110" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O110" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P110" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T110" t="n">
         <v>16</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="N111" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O111" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P111" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T111" t="n">
         <v>16</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44321</v>
+        <v>44194</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M112" t="n">
         <v>400</v>
       </c>
       <c r="N112" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O112" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P112" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1344</v>
+        <v>1250</v>
       </c>
       <c r="T112" t="n">
         <v>16</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="N113" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O113" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P113" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T113" t="n">
         <v>16</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N114" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O114" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P114" t="n">
-        <v>9500</v>
+        <v>21500</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>594</v>
+        <v>1344</v>
       </c>
       <c r="T114" t="n">
         <v>16</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -9564,16 +9564,16 @@
         </is>
       </c>
       <c r="M115" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N115" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O115" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="P115" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>438</v>
+        <v>1188</v>
       </c>
       <c r="T115" t="n">
         <v>16</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N116" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O116" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P116" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>844</v>
+        <v>594</v>
       </c>
       <c r="T116" t="n">
         <v>16</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N117" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O117" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P117" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>688</v>
+        <v>438</v>
       </c>
       <c r="T117" t="n">
         <v>16</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -9800,21 +9800,21 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N118" t="n">
         <v>13000</v>
       </c>
       <c r="O118" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P118" t="n">
         <v>13500</v>
       </c>
-      <c r="P118" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q118" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="T118" t="n">
         <v>16</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N119" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O119" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P119" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>922</v>
+        <v>688</v>
       </c>
       <c r="T119" t="n">
         <v>16</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N120" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P120" t="n">
-        <v>8000</v>
+        <v>13250</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>500</v>
+        <v>828</v>
       </c>
       <c r="T120" t="n">
         <v>16</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N121" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="O121" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P121" t="n">
-        <v>7000</v>
+        <v>14750</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10062,11 +10062,11 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>438</v>
+        <v>922</v>
       </c>
       <c r="T121" t="n">
         <v>16</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O122" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P122" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T122" t="n">
         <v>16</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N123" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O123" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P123" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>938</v>
+        <v>438</v>
       </c>
       <c r="T123" t="n">
         <v>16</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N124" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="O124" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P124" t="n">
-        <v>14750</v>
+        <v>17500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10302,11 +10302,11 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>922</v>
+        <v>1094</v>
       </c>
       <c r="T124" t="n">
         <v>16</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M125" t="n">
         <v>400</v>
       </c>
       <c r="N125" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O125" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P125" t="n">
-        <v>24500</v>
+        <v>15000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1531</v>
+        <v>938</v>
       </c>
       <c r="T125" t="n">
         <v>16</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N126" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="O126" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P126" t="n">
-        <v>20000</v>
+        <v>14750</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1250</v>
+        <v>922</v>
       </c>
       <c r="T126" t="n">
         <v>16</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -10527,13 +10527,13 @@
         <v>400</v>
       </c>
       <c r="N127" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O127" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P127" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>719</v>
+        <v>1531</v>
       </c>
       <c r="T127" t="n">
         <v>16</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N128" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O128" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P128" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T128" t="n">
         <v>16</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N129" t="n">
-        <v>24500</v>
+        <v>11000</v>
       </c>
       <c r="O129" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P129" t="n">
-        <v>24750</v>
+        <v>11500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1547</v>
+        <v>719</v>
       </c>
       <c r="T129" t="n">
         <v>16</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N130" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O130" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P130" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T130" t="n">
         <v>16</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N131" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="O131" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P131" t="n">
-        <v>22000</v>
+        <v>24750</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1375</v>
+        <v>1547</v>
       </c>
       <c r="T131" t="n">
         <v>16</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N132" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O132" t="n">
         <v>24000</v>
       </c>
       <c r="P132" t="n">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1469</v>
+        <v>1500</v>
       </c>
       <c r="T132" t="n">
         <v>16</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="N133" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O133" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P133" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1312</v>
+        <v>1375</v>
       </c>
       <c r="T133" t="n">
         <v>16</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N134" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="O134" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P134" t="n">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>719</v>
+        <v>1469</v>
       </c>
       <c r="T134" t="n">
         <v>16</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N135" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O135" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P135" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T135" t="n">
         <v>16</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N136" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O136" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P136" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>438</v>
+        <v>719</v>
       </c>
       <c r="T136" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N137" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O137" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P137" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1406</v>
+        <v>500</v>
       </c>
       <c r="T137" t="n">
         <v>16</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N138" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O138" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P138" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11422,11 +11422,11 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N139" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O139" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P139" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1562</v>
+        <v>1406</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N140" t="n">
         <v>19000</v>
       </c>
       <c r="O140" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P140" t="n">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1219</v>
+        <v>1188</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N141" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O141" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P141" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1062</v>
+        <v>1562</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N142" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O142" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P142" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1531</v>
+        <v>1219</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N143" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O143" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P143" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1250</v>
+        <v>1062</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -11884,7 +11884,7 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N144" t="n">
         <v>24000</v>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S144" t="n">
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44313</v>
+        <v>44209</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N145" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O145" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P145" t="n">
-        <v>23500</v>
+        <v>20000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1469</v>
+        <v>1250</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N146" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O146" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P146" t="n">
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1312</v>
+        <v>1531</v>
       </c>
       <c r="T146" t="n">
         <v>16</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12127,13 +12127,13 @@
         <v>800</v>
       </c>
       <c r="N147" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="O147" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P147" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1094</v>
+        <v>1469</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N148" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O148" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P148" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>938</v>
+        <v>1312</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N149" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O149" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P149" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12302,11 +12302,11 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1219</v>
+        <v>1094</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N150" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O150" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P150" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>844</v>
+        <v>938</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N151" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O151" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P151" t="n">
-        <v>11000</v>
+        <v>19500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>688</v>
+        <v>1219</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N152" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O152" t="n">
         <v>14000</v>
       </c>
-      <c r="O152" t="n">
-        <v>15000</v>
-      </c>
       <c r="P152" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>906</v>
+        <v>844</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N153" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O153" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P153" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T153" t="n">
         <v>16</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N154" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="O154" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P154" t="n">
-        <v>27000</v>
+        <v>14500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1688</v>
+        <v>906</v>
       </c>
       <c r="T154" t="n">
         <v>16</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M155" t="n">
         <v>200</v>
       </c>
       <c r="N155" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O155" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="P155" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1625</v>
+        <v>750</v>
       </c>
       <c r="T155" t="n">
         <v>16</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N156" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O156" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P156" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1375</v>
+        <v>1688</v>
       </c>
       <c r="T156" t="n">
         <v>16</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="O157" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="P157" t="n">
-        <v>23500</v>
+        <v>26000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1469</v>
+        <v>1625</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N158" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O158" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P158" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1312</v>
+        <v>1375</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N159" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O159" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P159" t="n">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1344</v>
+        <v>1469</v>
       </c>
       <c r="T159" t="n">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N160" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O160" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P160" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1125</v>
+        <v>1312</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N161" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O161" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P161" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>781</v>
+        <v>1344</v>
       </c>
       <c r="T161" t="n">
         <v>16</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N162" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O162" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P162" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>562</v>
+        <v>1125</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N163" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O163" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P163" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>547</v>
+        <v>781</v>
       </c>
       <c r="T163" t="n">
         <v>16</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N164" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O164" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="P164" t="n">
-        <v>25500</v>
+        <v>9000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1594</v>
+        <v>562</v>
       </c>
       <c r="T164" t="n">
         <v>16</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N165" t="n">
-        <v>21000</v>
+        <v>8500</v>
       </c>
       <c r="O165" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P165" t="n">
-        <v>21000</v>
+        <v>8750</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1312</v>
+        <v>547</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -13647,13 +13647,13 @@
         <v>700</v>
       </c>
       <c r="N166" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O166" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="P166" t="n">
-        <v>22500</v>
+        <v>25500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1406</v>
+        <v>1594</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N167" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O167" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P167" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1188</v>
+        <v>1312</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N168" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O168" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P168" t="n">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1344</v>
+        <v>1406</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44245</v>
+        <v>44305</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13967,13 +13967,13 @@
         <v>600</v>
       </c>
       <c r="N170" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O170" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="P170" t="n">
-        <v>24250</v>
+        <v>21500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1516</v>
+        <v>1344</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44202</v>
+        <v>44305</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O171" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P171" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N172" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O172" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P172" t="n">
-        <v>20000</v>
+        <v>24250</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1250</v>
+        <v>1516</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O173" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="P173" t="n">
-        <v>17250</v>
+        <v>24500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1078</v>
+        <v>1531</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N174" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O174" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P174" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>719</v>
+        <v>1250</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N175" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O175" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="P175" t="n">
-        <v>8000</v>
+        <v>17250</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>500</v>
+        <v>1078</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N176" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O176" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P176" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O177" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="P177" t="n">
-        <v>12250</v>
+        <v>8000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>766</v>
+        <v>500</v>
       </c>
       <c r="T177" t="n">
         <v>16</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N178" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O178" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P178" t="n">
-        <v>8000</v>
+        <v>21500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>500</v>
+        <v>1344</v>
       </c>
       <c r="T178" t="n">
         <v>16</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N179" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O179" t="n">
-        <v>27000</v>
+        <v>12500</v>
       </c>
       <c r="P179" t="n">
-        <v>26500</v>
+        <v>12250</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14702,11 +14702,11 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1656</v>
+        <v>766</v>
       </c>
       <c r="T179" t="n">
         <v>16</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N180" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O180" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P180" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14782,11 +14782,11 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1375</v>
+        <v>500</v>
       </c>
       <c r="T180" t="n">
         <v>16</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="N181" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="O181" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="P181" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14862,11 +14862,11 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1562</v>
+        <v>1656</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N182" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="O182" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="P182" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14942,11 +14942,11 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1531</v>
+        <v>1375</v>
       </c>
       <c r="T182" t="n">
         <v>16</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N183" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O183" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P183" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="N184" t="n">
-        <v>12000</v>
+        <v>24500</v>
       </c>
       <c r="O184" t="n">
-        <v>12500</v>
+        <v>24500</v>
       </c>
       <c r="P184" t="n">
-        <v>12250</v>
+        <v>24500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>766</v>
+        <v>1531</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N185" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O185" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P185" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N186" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O186" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="P186" t="n">
-        <v>24500</v>
+        <v>12250</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15262,11 +15262,11 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1531</v>
+        <v>766</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M187" t="n">
         <v>300</v>
       </c>
       <c r="N187" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O187" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P187" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15342,11 +15342,11 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N188" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O188" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P188" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1469</v>
+        <v>1531</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N189" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O189" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P189" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15502,11 +15502,11 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N190" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O190" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="P190" t="n">
-        <v>15500</v>
+        <v>23500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>969</v>
+        <v>1469</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N191" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O191" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P191" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>750</v>
+        <v>1188</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N192" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O192" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P192" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1344</v>
+        <v>969</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N193" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O193" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P193" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1188</v>
+        <v>750</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15884,7 +15884,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N194" t="n">
         <v>21000</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15964,7 +15964,7 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N195" t="n">
         <v>19000</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N196" t="n">
-        <v>26500</v>
+        <v>21000</v>
       </c>
       <c r="O196" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="P196" t="n">
-        <v>26750</v>
+        <v>21500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1672</v>
+        <v>1344</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N197" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O197" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P197" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1312</v>
+        <v>1188</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N198" t="n">
-        <v>12000</v>
+        <v>26500</v>
       </c>
       <c r="O198" t="n">
-        <v>12500</v>
+        <v>27000</v>
       </c>
       <c r="P198" t="n">
-        <v>12250</v>
+        <v>26750</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>766</v>
+        <v>1672</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N199" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O199" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P199" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N200" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O200" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="P200" t="n">
-        <v>17250</v>
+        <v>12250</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1078</v>
+        <v>766</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N201" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O201" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P201" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N202" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O202" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="P202" t="n">
-        <v>20000</v>
+        <v>17250</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1250</v>
+        <v>1078</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N203" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O203" t="n">
         <v>25000</v>
       </c>
-      <c r="O203" t="n">
-        <v>26000</v>
-      </c>
       <c r="P203" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16622,11 +16622,11 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1594</v>
+        <v>1531</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N204" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O204" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P204" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16702,11 +16702,11 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1312</v>
+        <v>1250</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N205" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O205" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="P205" t="n">
-        <v>11500</v>
+        <v>25500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>719</v>
+        <v>1594</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44230</v>
+        <v>44272</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N206" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O206" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P206" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N207" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O207" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P207" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1250</v>
+        <v>719</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17004,13 +17004,13 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N208" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="O208" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="P208" t="n">
         <v>24500</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44355</v>
+        <v>44230</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N209" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O209" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P209" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>844</v>
+        <v>1250</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44355</v>
+        <v>44232</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N210" t="n">
-        <v>11000</v>
+        <v>24500</v>
       </c>
       <c r="O210" t="n">
-        <v>11000</v>
+        <v>24500</v>
       </c>
       <c r="P210" t="n">
-        <v>11000</v>
+        <v>24500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>688</v>
+        <v>1531</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N211" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O211" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P211" t="n">
-        <v>21500</v>
+        <v>13500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1344</v>
+        <v>844</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N212" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="O212" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="P212" t="n">
-        <v>23500</v>
+        <v>11000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1469</v>
+        <v>688</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M213" t="n">
         <v>200</v>
       </c>
       <c r="N213" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O213" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P213" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N214" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="O214" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P214" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1094</v>
+        <v>1469</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N215" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O215" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P215" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N216" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O216" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P216" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17662,11 +17662,11 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1406</v>
+        <v>1094</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N217" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O217" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P217" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>594</v>
+        <v>938</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N218" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O218" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="P218" t="n">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17822,11 +17822,11 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>438</v>
+        <v>1406</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N219" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O219" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P219" t="n">
-        <v>24500</v>
+        <v>9500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17902,11 +17902,11 @@
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1531</v>
+        <v>594</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N220" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O220" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P220" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1250</v>
+        <v>438</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N221" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O221" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P221" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1094</v>
+        <v>1531</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44334</v>
+        <v>44208</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N222" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O222" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P222" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18142,11 +18142,11 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1094</v>
+        <v>1250</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N223" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O223" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P223" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M224" t="n">
         <v>800</v>
       </c>
       <c r="N224" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O224" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="P224" t="n">
-        <v>12250</v>
+        <v>17500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>766</v>
+        <v>1094</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,68 +18327,228 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E225" t="n">
+        <v>10</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>400</v>
+      </c>
+      <c r="N225" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O225" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P225" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S225" t="n">
+        <v>938</v>
+      </c>
+      <c r="T225" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>4</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E225" t="n">
-        <v>10</v>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G225" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I225" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="E226" t="n">
+        <v>10</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>800</v>
+      </c>
+      <c r="N226" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O226" t="n">
+        <v>12500</v>
+      </c>
+      <c r="P226" t="n">
+        <v>12250</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S226" t="n">
+        <v>766</v>
+      </c>
+      <c r="T226" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>4</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E227" t="n">
+        <v>10</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>1a plateado</t>
         </is>
       </c>
-      <c r="M225" t="n">
+      <c r="M227" t="n">
         <v>600</v>
       </c>
-      <c r="N225" t="n">
+      <c r="N227" t="n">
         <v>13500</v>
       </c>
-      <c r="O225" t="n">
+      <c r="O227" t="n">
         <v>14000</v>
       </c>
-      <c r="P225" t="n">
+      <c r="P227" t="n">
         <v>13750</v>
       </c>
-      <c r="Q225" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R225" t="inlineStr">
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S225" t="n">
+      <c r="S227" t="n">
         <v>859</v>
       </c>
-      <c r="T225" t="n">
+      <c r="T227" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T227"/>
+  <dimension ref="A1:T229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N64" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O64" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P64" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T64" t="n">
         <v>16</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N65" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="O65" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="P65" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>1188</v>
+        <v>406</v>
       </c>
       <c r="T65" t="n">
         <v>16</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N66" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O66" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P66" t="n">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1344</v>
+        <v>1469</v>
       </c>
       <c r="T66" t="n">
         <v>16</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5727,13 +5727,13 @@
         <v>300</v>
       </c>
       <c r="N67" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O67" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P67" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1125</v>
+        <v>1188</v>
       </c>
       <c r="T67" t="n">
         <v>16</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N68" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O68" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P68" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5822,11 +5822,11 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1531</v>
+        <v>1344</v>
       </c>
       <c r="T68" t="n">
         <v>16</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44239</v>
+        <v>44308</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O69" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P69" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5902,11 +5902,11 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="T69" t="n">
         <v>16</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P70" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5982,11 +5982,11 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S70" t="n">
-        <v>594</v>
+        <v>1531</v>
       </c>
       <c r="T70" t="n">
         <v>16</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N71" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O71" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P71" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6062,11 +6062,11 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S71" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T71" t="n">
         <v>16</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N72" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O72" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1344</v>
+        <v>594</v>
       </c>
       <c r="T72" t="n">
         <v>16</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N73" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P73" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>1125</v>
+        <v>438</v>
       </c>
       <c r="T73" t="n">
         <v>16</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6284,16 +6284,16 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N74" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O74" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P74" t="n">
-        <v>13500</v>
+        <v>21500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>844</v>
+        <v>1344</v>
       </c>
       <c r="T74" t="n">
         <v>16</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44356</v>
+        <v>44306</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N75" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="O75" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P75" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>688</v>
+        <v>1125</v>
       </c>
       <c r="T75" t="n">
         <v>16</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6447,13 +6447,13 @@
         <v>400</v>
       </c>
       <c r="N76" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O76" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P76" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>1094</v>
+        <v>844</v>
       </c>
       <c r="T76" t="n">
         <v>16</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44340</v>
+        <v>44356</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N77" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="O77" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P77" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>938</v>
+        <v>688</v>
       </c>
       <c r="T77" t="n">
         <v>16</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N78" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="O78" t="n">
-        <v>23500</v>
+        <v>18000</v>
       </c>
       <c r="P78" t="n">
-        <v>23250</v>
+        <v>17500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6622,11 +6622,11 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1453</v>
+        <v>1094</v>
       </c>
       <c r="T78" t="n">
         <v>16</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44271</v>
+        <v>44340</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N79" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O79" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P79" t="n">
-        <v>25500</v>
+        <v>15000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1594</v>
+        <v>938</v>
       </c>
       <c r="T79" t="n">
         <v>16</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N80" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O80" t="n">
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="P80" t="n">
-        <v>21000</v>
+        <v>23250</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1312</v>
+        <v>1453</v>
       </c>
       <c r="T80" t="n">
         <v>16</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44162</v>
+        <v>44271</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N81" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O81" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="P81" t="n">
-        <v>12500</v>
+        <v>25500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>781</v>
+        <v>1594</v>
       </c>
       <c r="T81" t="n">
         <v>16</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44162</v>
+        <v>44271</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>200</v>
       </c>
       <c r="N82" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O82" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P82" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T82" t="n">
         <v>16</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44342</v>
+        <v>44162</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N83" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O83" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P83" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1094</v>
+        <v>781</v>
       </c>
       <c r="T83" t="n">
         <v>16</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N84" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O84" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P84" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
         </is>
       </c>
       <c r="S84" t="n">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="T84" t="n">
         <v>16</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44362</v>
+        <v>44342</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7160,20 +7160,20 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N85" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O85" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P85" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>500</v>
+        <v>1094</v>
       </c>
       <c r="T85" t="n">
         <v>16</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44242</v>
+        <v>44362</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7244,16 +7244,16 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N86" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O86" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P86" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1531</v>
+        <v>719</v>
       </c>
       <c r="T86" t="n">
         <v>16</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44204</v>
+        <v>44362</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N87" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O87" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P87" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T87" t="n">
         <v>16</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44204</v>
+        <v>44242</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>300</v>
       </c>
       <c r="N88" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O88" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P88" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T88" t="n">
         <v>16</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N89" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O89" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P89" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1281</v>
+        <v>1531</v>
       </c>
       <c r="T89" t="n">
         <v>16</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7564,16 +7564,16 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N90" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O90" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P90" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1062</v>
+        <v>1250</v>
       </c>
       <c r="T90" t="n">
         <v>16</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44363</v>
+        <v>44323</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7644,16 +7644,16 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="N91" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O91" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P91" t="n">
-        <v>11500</v>
+        <v>20500</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>719</v>
+        <v>1281</v>
       </c>
       <c r="T91" t="n">
         <v>16</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44349</v>
+        <v>44323</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M92" t="n">
         <v>400</v>
       </c>
       <c r="N92" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O92" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P92" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>906</v>
+        <v>1062</v>
       </c>
       <c r="T92" t="n">
         <v>16</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N93" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="O93" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P93" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>594</v>
+        <v>719</v>
       </c>
       <c r="T93" t="n">
         <v>16</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44385</v>
+        <v>44349</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N94" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="O94" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P94" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>438</v>
+        <v>906</v>
       </c>
       <c r="T94" t="n">
         <v>16</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N95" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O95" t="n">
-        <v>24500</v>
+        <v>10000</v>
       </c>
       <c r="P95" t="n">
-        <v>24250</v>
+        <v>9500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1516</v>
+        <v>594</v>
       </c>
       <c r="T95" t="n">
         <v>16</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N96" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O96" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P96" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8062,11 +8062,11 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1250</v>
+        <v>438</v>
       </c>
       <c r="T96" t="n">
         <v>16</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N97" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O97" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="P97" t="n">
-        <v>8000</v>
+        <v>24250</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>500</v>
+        <v>1516</v>
       </c>
       <c r="T97" t="n">
         <v>16</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N98" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O98" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P98" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T98" t="n">
         <v>16</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N99" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O99" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P99" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8302,11 +8302,11 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T99" t="n">
         <v>16</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44222</v>
+        <v>44413</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="N100" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O100" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P100" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8382,11 +8382,11 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S100" t="n">
-        <v>1406</v>
+        <v>438</v>
       </c>
       <c r="T100" t="n">
         <v>16</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N101" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O101" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P101" t="n">
-        <v>19000</v>
+        <v>17500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1188</v>
+        <v>1094</v>
       </c>
       <c r="T101" t="n">
         <v>16</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N102" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O102" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P102" t="n">
-        <v>24000</v>
+        <v>22500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8542,11 +8542,11 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1500</v>
+        <v>1406</v>
       </c>
       <c r="T102" t="n">
         <v>16</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44257</v>
+        <v>44222</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N103" t="n">
-        <v>26500</v>
+        <v>19000</v>
       </c>
       <c r="O103" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="P103" t="n">
-        <v>26750</v>
+        <v>19000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1672</v>
+        <v>1188</v>
       </c>
       <c r="T103" t="n">
         <v>16</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N104" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O104" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P104" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1312</v>
+        <v>1500</v>
       </c>
       <c r="T104" t="n">
         <v>16</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N105" t="n">
-        <v>8000</v>
+        <v>26500</v>
       </c>
       <c r="O105" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="P105" t="n">
-        <v>8500</v>
+        <v>26750</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>531</v>
+        <v>1672</v>
       </c>
       <c r="T105" t="n">
         <v>16</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O106" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="P106" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>469</v>
+        <v>1312</v>
       </c>
       <c r="T106" t="n">
         <v>16</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N107" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O107" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P107" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1531</v>
+        <v>531</v>
       </c>
       <c r="T107" t="n">
         <v>16</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N108" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O108" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P108" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9022,11 +9022,11 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1250</v>
+        <v>469</v>
       </c>
       <c r="T108" t="n">
         <v>16</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -9087,13 +9087,13 @@
         <v>800</v>
       </c>
       <c r="N109" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O109" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P109" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1406</v>
+        <v>1531</v>
       </c>
       <c r="T109" t="n">
         <v>16</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N110" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O110" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P110" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T110" t="n">
         <v>16</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N111" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O111" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P111" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1531</v>
+        <v>1406</v>
       </c>
       <c r="T111" t="n">
         <v>16</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N112" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O112" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P112" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T112" t="n">
         <v>16</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="N113" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O113" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P113" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T113" t="n">
         <v>16</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44321</v>
+        <v>44194</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M114" t="n">
         <v>400</v>
       </c>
       <c r="N114" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O114" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P114" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1344</v>
+        <v>1250</v>
       </c>
       <c r="T114" t="n">
         <v>16</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44321</v>
+        <v>44390</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="N115" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O115" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P115" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T115" t="n">
         <v>16</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N116" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O116" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P116" t="n">
-        <v>9500</v>
+        <v>21500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>594</v>
+        <v>1344</v>
       </c>
       <c r="T116" t="n">
         <v>16</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O117" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="P117" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>438</v>
+        <v>1188</v>
       </c>
       <c r="T117" t="n">
         <v>16</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N118" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O118" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P118" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>844</v>
+        <v>594</v>
       </c>
       <c r="T118" t="n">
         <v>16</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N119" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O119" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P119" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>688</v>
+        <v>438</v>
       </c>
       <c r="T119" t="n">
         <v>16</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -9960,21 +9960,21 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N120" t="n">
         <v>13000</v>
       </c>
       <c r="O120" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P120" t="n">
         <v>13500</v>
       </c>
-      <c r="P120" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q120" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="T120" t="n">
         <v>16</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N121" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O121" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P121" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10062,11 +10062,11 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>922</v>
+        <v>688</v>
       </c>
       <c r="T121" t="n">
         <v>16</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N122" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O122" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="P122" t="n">
-        <v>8000</v>
+        <v>13250</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>500</v>
+        <v>828</v>
       </c>
       <c r="T122" t="n">
         <v>16</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N123" t="n">
-        <v>7000</v>
+        <v>14500</v>
       </c>
       <c r="O123" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P123" t="n">
-        <v>7000</v>
+        <v>14750</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10222,11 +10222,11 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>438</v>
+        <v>922</v>
       </c>
       <c r="T123" t="n">
         <v>16</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N124" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O124" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P124" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T124" t="n">
         <v>16</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N125" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O125" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P125" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>938</v>
+        <v>438</v>
       </c>
       <c r="T125" t="n">
         <v>16</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N126" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="O126" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P126" t="n">
-        <v>14750</v>
+        <v>17500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>922</v>
+        <v>1094</v>
       </c>
       <c r="T126" t="n">
         <v>16</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M127" t="n">
         <v>400</v>
       </c>
       <c r="N127" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O127" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P127" t="n">
-        <v>24500</v>
+        <v>15000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1531</v>
+        <v>938</v>
       </c>
       <c r="T127" t="n">
         <v>16</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N128" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="O128" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P128" t="n">
-        <v>20000</v>
+        <v>14750</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10622,11 +10622,11 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1250</v>
+        <v>922</v>
       </c>
       <c r="T128" t="n">
         <v>16</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -10687,13 +10687,13 @@
         <v>400</v>
       </c>
       <c r="N129" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O129" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P129" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>719</v>
+        <v>1531</v>
       </c>
       <c r="T129" t="n">
         <v>16</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N130" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O130" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P130" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T130" t="n">
         <v>16</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N131" t="n">
-        <v>24500</v>
+        <v>11000</v>
       </c>
       <c r="O131" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P131" t="n">
-        <v>24750</v>
+        <v>11500</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1547</v>
+        <v>719</v>
       </c>
       <c r="T131" t="n">
         <v>16</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N132" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O132" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P132" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T132" t="n">
         <v>16</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N133" t="n">
-        <v>22000</v>
+        <v>24500</v>
       </c>
       <c r="O133" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P133" t="n">
-        <v>22000</v>
+        <v>24750</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1375</v>
+        <v>1547</v>
       </c>
       <c r="T133" t="n">
         <v>16</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N134" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O134" t="n">
         <v>24000</v>
       </c>
       <c r="P134" t="n">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1469</v>
+        <v>1500</v>
       </c>
       <c r="T134" t="n">
         <v>16</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44314</v>
+        <v>44320</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="N135" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O135" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P135" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1312</v>
+        <v>1375</v>
       </c>
       <c r="T135" t="n">
         <v>16</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N136" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="O136" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P136" t="n">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>719</v>
+        <v>1469</v>
       </c>
       <c r="T136" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O137" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P137" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T137" t="n">
         <v>16</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44405</v>
+        <v>44364</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="N138" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O138" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P138" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>438</v>
+        <v>719</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N139" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O139" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P139" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1406</v>
+        <v>500</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44224</v>
+        <v>44405</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N140" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O140" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P140" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N141" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O141" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P141" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1562</v>
+        <v>1406</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44327</v>
+        <v>44224</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N142" t="n">
         <v>19000</v>
       </c>
       <c r="O142" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P142" t="n">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1219</v>
+        <v>1188</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N143" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O143" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P143" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1062</v>
+        <v>1562</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N144" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O144" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P144" t="n">
-        <v>24500</v>
+        <v>19500</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1531</v>
+        <v>1219</v>
       </c>
       <c r="T144" t="n">
         <v>16</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N145" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O145" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P145" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1250</v>
+        <v>1062</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -12044,7 +12044,7 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N146" t="n">
         <v>24000</v>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S146" t="n">
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44313</v>
+        <v>44209</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N147" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O147" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P147" t="n">
-        <v>23500</v>
+        <v>20000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1469</v>
+        <v>1250</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N148" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O148" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P148" t="n">
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1312</v>
+        <v>1531</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12287,13 +12287,13 @@
         <v>800</v>
       </c>
       <c r="N149" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="O149" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P149" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1094</v>
+        <v>1469</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N150" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O150" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P150" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>938</v>
+        <v>1312</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N151" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O151" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P151" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1219</v>
+        <v>1094</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44351</v>
+        <v>44330</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N152" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O152" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>844</v>
+        <v>938</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N153" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O153" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P153" t="n">
-        <v>11000</v>
+        <v>19500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>688</v>
+        <v>1219</v>
       </c>
       <c r="T153" t="n">
         <v>16</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N154" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O154" t="n">
         <v>14000</v>
       </c>
-      <c r="O154" t="n">
-        <v>15000</v>
-      </c>
       <c r="P154" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>906</v>
+        <v>844</v>
       </c>
       <c r="T154" t="n">
         <v>16</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N155" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O155" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P155" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="T155" t="n">
         <v>16</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N156" t="n">
-        <v>27000</v>
+        <v>14000</v>
       </c>
       <c r="O156" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P156" t="n">
-        <v>27000</v>
+        <v>14500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1688</v>
+        <v>906</v>
       </c>
       <c r="T156" t="n">
         <v>16</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M157" t="n">
         <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O157" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="P157" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1625</v>
+        <v>750</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N158" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O158" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P158" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1375</v>
+        <v>1688</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N159" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="O159" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="P159" t="n">
-        <v>23500</v>
+        <v>26000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1469</v>
+        <v>1625</v>
       </c>
       <c r="T159" t="n">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N160" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O160" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P160" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1312</v>
+        <v>1375</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N161" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O161" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P161" t="n">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1344</v>
+        <v>1469</v>
       </c>
       <c r="T161" t="n">
         <v>16</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N162" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O162" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P162" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1125</v>
+        <v>1312</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N163" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O163" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P163" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>781</v>
+        <v>1344</v>
       </c>
       <c r="T163" t="n">
         <v>16</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N164" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O164" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P164" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>562</v>
+        <v>1125</v>
       </c>
       <c r="T164" t="n">
         <v>16</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N165" t="n">
-        <v>8500</v>
+        <v>12000</v>
       </c>
       <c r="O165" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P165" t="n">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>547</v>
+        <v>781</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44250</v>
+        <v>44358</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N166" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O166" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="P166" t="n">
-        <v>25500</v>
+        <v>9000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1594</v>
+        <v>562</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N167" t="n">
-        <v>21000</v>
+        <v>8500</v>
       </c>
       <c r="O167" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P167" t="n">
-        <v>21000</v>
+        <v>8750</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1312</v>
+        <v>547</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13807,13 +13807,13 @@
         <v>700</v>
       </c>
       <c r="N168" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="O168" t="n">
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="P168" t="n">
-        <v>22500</v>
+        <v>25500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1406</v>
+        <v>1594</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O169" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P169" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1188</v>
+        <v>1312</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N170" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O170" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P170" t="n">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1344</v>
+        <v>1406</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44245</v>
+        <v>44305</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14127,13 +14127,13 @@
         <v>600</v>
       </c>
       <c r="N172" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O172" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="P172" t="n">
-        <v>24250</v>
+        <v>21500</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1516</v>
+        <v>1344</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44202</v>
+        <v>44305</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M173" t="n">
         <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O173" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P173" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N174" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O174" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P174" t="n">
-        <v>20000</v>
+        <v>24250</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1250</v>
+        <v>1516</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14364,16 +14364,16 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N175" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O175" t="n">
-        <v>17500</v>
+        <v>25000</v>
       </c>
       <c r="P175" t="n">
-        <v>17250</v>
+        <v>24500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1078</v>
+        <v>1531</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44369</v>
+        <v>44202</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N176" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O176" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P176" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>719</v>
+        <v>1250</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N177" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O177" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="P177" t="n">
-        <v>8000</v>
+        <v>17250</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14542,11 +14542,11 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>500</v>
+        <v>1078</v>
       </c>
       <c r="T177" t="n">
         <v>16</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N178" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O178" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P178" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T178" t="n">
         <v>16</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N179" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O179" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="P179" t="n">
-        <v>12250</v>
+        <v>8000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>766</v>
+        <v>500</v>
       </c>
       <c r="T179" t="n">
         <v>16</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N180" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O180" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P180" t="n">
-        <v>8000</v>
+        <v>21500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>1344</v>
       </c>
       <c r="T180" t="n">
         <v>16</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N181" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="O181" t="n">
-        <v>27000</v>
+        <v>12500</v>
       </c>
       <c r="P181" t="n">
-        <v>26500</v>
+        <v>12250</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14862,11 +14862,11 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1656</v>
+        <v>766</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N182" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O182" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P182" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14942,11 +14942,11 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1375</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
         <v>16</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="N183" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="O183" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="P183" t="n">
-        <v>25000</v>
+        <v>26500</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1562</v>
+        <v>1656</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N184" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="O184" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="P184" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1531</v>
+        <v>1375</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N185" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O185" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P185" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="N186" t="n">
-        <v>12000</v>
+        <v>24500</v>
       </c>
       <c r="O186" t="n">
-        <v>12500</v>
+        <v>24500</v>
       </c>
       <c r="P186" t="n">
-        <v>12250</v>
+        <v>24500</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>766</v>
+        <v>1531</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N187" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O187" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P187" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N188" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O188" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="P188" t="n">
-        <v>24500</v>
+        <v>12250</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1531</v>
+        <v>766</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M189" t="n">
         <v>300</v>
       </c>
       <c r="N189" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O189" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P189" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15502,11 +15502,11 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N190" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O190" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P190" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1469</v>
+        <v>1531</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44309</v>
+        <v>44201</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N191" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O191" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P191" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N192" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O192" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="P192" t="n">
-        <v>15500</v>
+        <v>23500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>969</v>
+        <v>1469</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N193" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O193" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P193" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>750</v>
+        <v>1188</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N194" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O194" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P194" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1344</v>
+        <v>969</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N195" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O195" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P195" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1188</v>
+        <v>750</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16044,7 +16044,7 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N196" t="n">
         <v>21000</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16124,7 +16124,7 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N197" t="n">
         <v>19000</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N198" t="n">
-        <v>26500</v>
+        <v>21000</v>
       </c>
       <c r="O198" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="P198" t="n">
-        <v>26750</v>
+        <v>21500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1672</v>
+        <v>1344</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N199" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O199" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P199" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1312</v>
+        <v>1188</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N200" t="n">
-        <v>12000</v>
+        <v>26500</v>
       </c>
       <c r="O200" t="n">
-        <v>12500</v>
+        <v>27000</v>
       </c>
       <c r="P200" t="n">
-        <v>12250</v>
+        <v>26750</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>766</v>
+        <v>1672</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N201" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O201" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P201" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N202" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O202" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="P202" t="n">
-        <v>17250</v>
+        <v>12250</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1078</v>
+        <v>766</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44211</v>
+        <v>44160</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N203" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O203" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P203" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16622,11 +16622,11 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N204" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O204" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="P204" t="n">
-        <v>20000</v>
+        <v>17250</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1250</v>
+        <v>1078</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N205" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O205" t="n">
         <v>25000</v>
       </c>
-      <c r="O205" t="n">
-        <v>26000</v>
-      </c>
       <c r="P205" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1594</v>
+        <v>1531</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N206" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O206" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P206" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1312</v>
+        <v>1250</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N207" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O207" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="P207" t="n">
-        <v>11500</v>
+        <v>25500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>719</v>
+        <v>1594</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44230</v>
+        <v>44272</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N208" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O208" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P208" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N209" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O209" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P209" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1250</v>
+        <v>719</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17164,13 +17164,13 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N210" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="O210" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="P210" t="n">
         <v>24500</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44355</v>
+        <v>44230</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N211" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O211" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P211" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>844</v>
+        <v>1250</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44355</v>
+        <v>44232</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N212" t="n">
-        <v>11000</v>
+        <v>24500</v>
       </c>
       <c r="O212" t="n">
-        <v>11000</v>
+        <v>24500</v>
       </c>
       <c r="P212" t="n">
-        <v>11000</v>
+        <v>24500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>688</v>
+        <v>1531</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N213" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O213" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P213" t="n">
-        <v>21500</v>
+        <v>13500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1344</v>
+        <v>844</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="O214" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="P214" t="n">
-        <v>23500</v>
+        <v>11000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1469</v>
+        <v>688</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M215" t="n">
         <v>200</v>
       </c>
       <c r="N215" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O215" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P215" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N216" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="O216" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P216" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17662,11 +17662,11 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1094</v>
+        <v>1469</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N217" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O217" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P217" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N218" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O218" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P218" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17822,11 +17822,11 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1406</v>
+        <v>1094</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N219" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O219" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P219" t="n">
-        <v>9500</v>
+        <v>15000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>594</v>
+        <v>938</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N220" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O220" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="P220" t="n">
-        <v>7000</v>
+        <v>22500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>438</v>
+        <v>1406</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N221" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O221" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P221" t="n">
-        <v>24500</v>
+        <v>9500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18062,11 +18062,11 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1531</v>
+        <v>594</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N222" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O222" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P222" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18142,11 +18142,11 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1250</v>
+        <v>438</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N223" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O223" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P223" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1094</v>
+        <v>1531</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44334</v>
+        <v>44208</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N224" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O224" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P224" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18302,11 +18302,11 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1094</v>
+        <v>1250</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N225" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O225" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P225" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18382,11 +18382,11 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S225" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M226" t="n">
         <v>800</v>
       </c>
       <c r="N226" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O226" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="P226" t="n">
-        <v>12250</v>
+        <v>17500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>766</v>
+        <v>1094</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,68 +18487,228 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E227" t="n">
+        <v>10</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>400</v>
+      </c>
+      <c r="N227" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O227" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P227" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S227" t="n">
+        <v>938</v>
+      </c>
+      <c r="T227" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>4</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E227" t="n">
-        <v>10</v>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G227" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I227" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="E228" t="n">
+        <v>10</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>800</v>
+      </c>
+      <c r="N228" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O228" t="n">
+        <v>12500</v>
+      </c>
+      <c r="P228" t="n">
+        <v>12250</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S228" t="n">
+        <v>766</v>
+      </c>
+      <c r="T228" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>4</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E229" t="n">
+        <v>10</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>1a plateado</t>
         </is>
       </c>
-      <c r="M227" t="n">
+      <c r="M229" t="n">
         <v>600</v>
       </c>
-      <c r="N227" t="n">
+      <c r="N229" t="n">
         <v>13500</v>
       </c>
-      <c r="O227" t="n">
+      <c r="O229" t="n">
         <v>14000</v>
       </c>
-      <c r="P227" t="n">
+      <c r="P229" t="n">
         <v>13750</v>
       </c>
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R227" t="inlineStr">
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S227" t="n">
+      <c r="S229" t="n">
         <v>859</v>
       </c>
-      <c r="T227" t="n">
+      <c r="T229" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T229"/>
+  <dimension ref="A1:T242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44392</v>
+        <v>44425</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -3480,20 +3480,20 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="N39" t="n">
         <v>8000</v>
       </c>
       <c r="O39" t="n">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="P39" t="n">
-        <v>8250</v>
+        <v>8000</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="T39" t="n">
         <v>16</v>
@@ -3527,7 +3527,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44249</v>
+        <v>44425</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -3560,20 +3560,20 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N40" t="n">
-        <v>23500</v>
+        <v>6500</v>
       </c>
       <c r="O40" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="P40" t="n">
-        <v>23750</v>
+        <v>6500</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1484</v>
+        <v>406</v>
       </c>
       <c r="T40" t="n">
         <v>16</v>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44218</v>
+        <v>44392</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -3644,16 +3644,16 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>900</v>
+        <v>1400</v>
       </c>
       <c r="N41" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O41" t="n">
-        <v>23500</v>
+        <v>8500</v>
       </c>
       <c r="P41" t="n">
-        <v>23250</v>
+        <v>8250</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -3662,11 +3662,11 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1453</v>
+        <v>516</v>
       </c>
       <c r="T41" t="n">
         <v>16</v>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44218</v>
+        <v>44249</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -3720,20 +3720,20 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N42" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="O42" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P42" t="n">
-        <v>19000</v>
+        <v>23750</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="S42" t="n">
-        <v>1188</v>
+        <v>1484</v>
       </c>
       <c r="T42" t="n">
         <v>16</v>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44411</v>
+        <v>44218</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -3800,20 +3800,20 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N43" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O43" t="n">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="P43" t="n">
-        <v>8000</v>
+        <v>23250</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S43" t="n">
-        <v>500</v>
+        <v>1453</v>
       </c>
       <c r="T43" t="n">
         <v>16</v>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44411</v>
+        <v>44218</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -3880,20 +3880,20 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N44" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O44" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="P44" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3902,11 +3902,11 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S44" t="n">
-        <v>438</v>
+        <v>1188</v>
       </c>
       <c r="T44" t="n">
         <v>16</v>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -3960,20 +3960,20 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N45" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O45" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P45" t="n">
-        <v>19500</v>
+        <v>8000</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="S45" t="n">
-        <v>1219</v>
+        <v>500</v>
       </c>
       <c r="T45" t="n">
         <v>16</v>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44329</v>
+        <v>44411</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -4040,20 +4040,20 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N46" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O46" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P46" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="S46" t="n">
-        <v>1062</v>
+        <v>438</v>
       </c>
       <c r="T46" t="n">
         <v>16</v>
@@ -4087,7 +4087,7 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44252</v>
+        <v>44329</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N47" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O47" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P47" t="n">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1594</v>
+        <v>1219</v>
       </c>
       <c r="T47" t="n">
         <v>16</v>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44322</v>
+        <v>44329</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -4200,20 +4200,20 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N48" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O48" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="P48" t="n">
-        <v>21500</v>
+        <v>17000</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="S48" t="n">
-        <v>1344</v>
+        <v>1062</v>
       </c>
       <c r="T48" t="n">
         <v>16</v>
@@ -4247,7 +4247,7 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44322</v>
+        <v>44252</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -4280,20 +4280,20 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N49" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O49" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="P49" t="n">
-        <v>19000</v>
+        <v>25500</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="S49" t="n">
-        <v>1188</v>
+        <v>1594</v>
       </c>
       <c r="T49" t="n">
         <v>16</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -4364,16 +4364,16 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N50" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O50" t="n">
         <v>22000</v>
       </c>
-      <c r="O50" t="n">
-        <v>23000</v>
-      </c>
       <c r="P50" t="n">
-        <v>22500</v>
+        <v>21500</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
@@ -4382,11 +4382,11 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S50" t="n">
-        <v>1406</v>
+        <v>1344</v>
       </c>
       <c r="T50" t="n">
         <v>16</v>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44293</v>
+        <v>44322</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N51" t="n">
         <v>19000</v>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S51" t="n">
@@ -4487,7 +4487,7 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44229</v>
+        <v>44293</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -4524,16 +4524,16 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N52" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O52" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P52" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -4542,11 +4542,11 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1531</v>
+        <v>1406</v>
       </c>
       <c r="T52" t="n">
         <v>16</v>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44229</v>
+        <v>44293</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -4604,16 +4604,16 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N53" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O53" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P53" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T53" t="n">
         <v>16</v>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44312</v>
+        <v>44229</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -4684,16 +4684,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N54" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O54" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P54" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -4702,11 +4702,11 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S54" t="n">
-        <v>1469</v>
+        <v>1531</v>
       </c>
       <c r="T54" t="n">
         <v>16</v>
@@ -4727,7 +4727,7 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44312</v>
+        <v>44229</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -4764,16 +4764,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N55" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O55" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P55" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -4782,11 +4782,11 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S55" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T55" t="n">
         <v>16</v>
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44335</v>
+        <v>44312</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -4847,13 +4847,13 @@
         <v>400</v>
       </c>
       <c r="N56" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="O56" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P56" t="n">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1094</v>
+        <v>1469</v>
       </c>
       <c r="T56" t="n">
         <v>16</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44335</v>
+        <v>44312</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -4927,13 +4927,13 @@
         <v>200</v>
       </c>
       <c r="N57" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O57" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P57" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T57" t="n">
         <v>16</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44167</v>
+        <v>44335</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -5000,20 +5000,20 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N58" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O58" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="P58" t="n">
-        <v>12250</v>
+        <v>17500</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>766</v>
+        <v>1094</v>
       </c>
       <c r="T58" t="n">
         <v>16</v>
@@ -5047,7 +5047,7 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44167</v>
+        <v>44335</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N59" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O59" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P59" t="n">
-        <v>13750</v>
+        <v>15000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
@@ -5102,11 +5102,11 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>859</v>
+        <v>938</v>
       </c>
       <c r="T59" t="n">
         <v>16</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44236</v>
+        <v>44424</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -5160,20 +5160,20 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N60" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="O60" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P60" t="n">
-        <v>24750</v>
+        <v>8000</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
@@ -5182,11 +5182,11 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S60" t="n">
-        <v>1547</v>
+        <v>500</v>
       </c>
       <c r="T60" t="n">
         <v>16</v>
@@ -5207,7 +5207,7 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44236</v>
+        <v>44424</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -5240,20 +5240,20 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N61" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O61" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P61" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
@@ -5262,11 +5262,11 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1250</v>
+        <v>438</v>
       </c>
       <c r="T61" t="n">
         <v>16</v>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44407</v>
+        <v>44167</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N62" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O62" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P62" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T62" t="n">
         <v>16</v>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44407</v>
+        <v>44167</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,20 +5400,20 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N63" t="n">
-        <v>6000</v>
+        <v>13500</v>
       </c>
       <c r="O63" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="P63" t="n">
-        <v>6500</v>
+        <v>13750</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
@@ -5422,11 +5422,11 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>406</v>
+        <v>859</v>
       </c>
       <c r="T63" t="n">
         <v>16</v>
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44414</v>
+        <v>44236</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5480,20 +5480,20 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N64" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="O64" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P64" t="n">
-        <v>8000</v>
+        <v>24750</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>500</v>
+        <v>1547</v>
       </c>
       <c r="T64" t="n">
         <v>16</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44414</v>
+        <v>44236</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5560,20 +5560,20 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N65" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="O65" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P65" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>406</v>
+        <v>1250</v>
       </c>
       <c r="T65" t="n">
         <v>16</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44215</v>
+        <v>44407</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5640,20 +5640,20 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N66" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O66" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P66" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5662,11 +5662,11 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T66" t="n">
         <v>16</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44215</v>
+        <v>44407</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5720,20 +5720,20 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N67" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O67" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P67" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5742,11 +5742,11 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S67" t="n">
-        <v>1188</v>
+        <v>406</v>
       </c>
       <c r="T67" t="n">
         <v>16</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44308</v>
+        <v>44414</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5800,20 +5800,20 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N68" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O68" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P68" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T68" t="n">
         <v>16</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44308</v>
+        <v>44414</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N69" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="O69" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="P69" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1125</v>
+        <v>406</v>
       </c>
       <c r="T69" t="n">
         <v>16</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44239</v>
+        <v>44215</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5967,13 +5967,13 @@
         <v>800</v>
       </c>
       <c r="N70" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O70" t="n">
         <v>24000</v>
       </c>
-      <c r="O70" t="n">
-        <v>25000</v>
-      </c>
       <c r="P70" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>1531</v>
+        <v>1469</v>
       </c>
       <c r="T70" t="n">
         <v>16</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44239</v>
+        <v>44215</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N71" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O71" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P71" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T71" t="n">
         <v>16</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44379</v>
+        <v>44308</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="N72" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O72" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P72" t="n">
-        <v>9500</v>
+        <v>21500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>594</v>
+        <v>1344</v>
       </c>
       <c r="T72" t="n">
         <v>16</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44379</v>
+        <v>44308</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6204,16 +6204,16 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N73" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O73" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P73" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>438</v>
+        <v>1125</v>
       </c>
       <c r="T73" t="n">
         <v>16</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44306</v>
+        <v>44239</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6287,13 +6287,13 @@
         <v>800</v>
       </c>
       <c r="N74" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O74" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P74" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1344</v>
+        <v>1531</v>
       </c>
       <c r="T74" t="n">
         <v>16</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44306</v>
+        <v>44239</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6364,16 +6364,16 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N75" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O75" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P75" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1125</v>
+        <v>1250</v>
       </c>
       <c r="T75" t="n">
         <v>16</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N76" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="O76" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P76" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="S76" t="n">
-        <v>844</v>
+        <v>594</v>
       </c>
       <c r="T76" t="n">
         <v>16</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44356</v>
+        <v>44379</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N77" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="O77" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P77" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="S77" t="n">
-        <v>688</v>
+        <v>438</v>
       </c>
       <c r="T77" t="n">
         <v>16</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44340</v>
+        <v>44306</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N78" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O78" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P78" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1094</v>
+        <v>1344</v>
       </c>
       <c r="T78" t="n">
         <v>16</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44340</v>
+        <v>44306</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6687,13 +6687,13 @@
         <v>300</v>
       </c>
       <c r="N79" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O79" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P79" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="S79" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T79" t="n">
         <v>16</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44221</v>
+        <v>44356</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6764,16 +6764,16 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N80" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="O80" t="n">
-        <v>23500</v>
+        <v>14000</v>
       </c>
       <c r="P80" t="n">
-        <v>23250</v>
+        <v>13500</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1453</v>
+        <v>844</v>
       </c>
       <c r="T80" t="n">
         <v>16</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44271</v>
+        <v>44356</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6840,20 +6840,20 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N81" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="O81" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="P81" t="n">
-        <v>25500</v>
+        <v>11000</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1594</v>
+        <v>688</v>
       </c>
       <c r="T81" t="n">
         <v>16</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44271</v>
+        <v>44340</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N82" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O82" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P82" t="n">
-        <v>21000</v>
+        <v>17500</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1312</v>
+        <v>1094</v>
       </c>
       <c r="T82" t="n">
         <v>16</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44162</v>
+        <v>44340</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N83" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O83" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P83" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>781</v>
+        <v>938</v>
       </c>
       <c r="T83" t="n">
         <v>16</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44162</v>
+        <v>44221</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N84" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O84" t="n">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="P84" t="n">
-        <v>8000</v>
+        <v>23250</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>500</v>
+        <v>1453</v>
       </c>
       <c r="T84" t="n">
         <v>16</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44342</v>
+        <v>44271</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7167,13 +7167,13 @@
         <v>600</v>
       </c>
       <c r="N85" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O85" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="P85" t="n">
-        <v>17500</v>
+        <v>25500</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1094</v>
+        <v>1594</v>
       </c>
       <c r="T85" t="n">
         <v>16</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44362</v>
+        <v>44271</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N86" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O86" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P86" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>719</v>
+        <v>1312</v>
       </c>
       <c r="T86" t="n">
         <v>16</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N87" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O87" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P87" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>500</v>
+        <v>781</v>
       </c>
       <c r="T87" t="n">
         <v>16</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44242</v>
+        <v>44162</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,20 +7400,20 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O88" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P88" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T88" t="n">
         <v>16</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44204</v>
+        <v>44342</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7484,16 +7484,16 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N89" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O89" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P89" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7502,11 +7502,11 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T89" t="n">
         <v>16</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44204</v>
+        <v>44362</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N90" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O90" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P90" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7582,11 +7582,11 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S90" t="n">
-        <v>1250</v>
+        <v>719</v>
       </c>
       <c r="T90" t="n">
         <v>16</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44323</v>
+        <v>44362</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N91" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1281</v>
+        <v>500</v>
       </c>
       <c r="T91" t="n">
         <v>16</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44323</v>
+        <v>44242</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N92" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O92" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P92" t="n">
-        <v>17000</v>
+        <v>24500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1062</v>
+        <v>1531</v>
       </c>
       <c r="T92" t="n">
         <v>16</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44363</v>
+        <v>44204</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N93" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O93" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P93" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>719</v>
+        <v>1531</v>
       </c>
       <c r="T93" t="n">
         <v>16</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44349</v>
+        <v>44204</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N94" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O94" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P94" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>906</v>
+        <v>1250</v>
       </c>
       <c r="T94" t="n">
         <v>16</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44385</v>
+        <v>44323</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N95" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O95" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P95" t="n">
-        <v>9500</v>
+        <v>20500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>594</v>
+        <v>1281</v>
       </c>
       <c r="T95" t="n">
         <v>16</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44385</v>
+        <v>44323</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N96" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O96" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P96" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         </is>
       </c>
       <c r="S96" t="n">
-        <v>438</v>
+        <v>1062</v>
       </c>
       <c r="T96" t="n">
         <v>16</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44243</v>
+        <v>44363</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N97" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O97" t="n">
-        <v>24500</v>
+        <v>12000</v>
       </c>
       <c r="P97" t="n">
-        <v>24250</v>
+        <v>11500</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1516</v>
+        <v>719</v>
       </c>
       <c r="T97" t="n">
         <v>16</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44243</v>
+        <v>44349</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>400</v>
       </c>
       <c r="N98" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="O98" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P98" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1250</v>
+        <v>906</v>
       </c>
       <c r="T98" t="n">
         <v>16</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N99" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O99" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P99" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T99" t="n">
         <v>16</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -8360,11 +8360,11 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N100" t="n">
         <v>7000</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44176</v>
+        <v>44243</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N101" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O101" t="n">
-        <v>18000</v>
+        <v>24500</v>
       </c>
       <c r="P101" t="n">
-        <v>17500</v>
+        <v>24250</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1094</v>
+        <v>1516</v>
       </c>
       <c r="T101" t="n">
         <v>16</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44222</v>
+        <v>44243</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N102" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O102" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P102" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1406</v>
+        <v>1250</v>
       </c>
       <c r="T102" t="n">
         <v>16</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44222</v>
+        <v>44427</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N103" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O103" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P103" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8622,11 +8622,11 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T103" t="n">
         <v>16</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44273</v>
+        <v>44427</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="N104" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="O104" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="P104" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1500</v>
+        <v>406</v>
       </c>
       <c r="T104" t="n">
         <v>16</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N105" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="O105" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P105" t="n">
-        <v>26750</v>
+        <v>8000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1672</v>
+        <v>500</v>
       </c>
       <c r="T105" t="n">
         <v>16</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44257</v>
+        <v>44413</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N106" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O106" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P106" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T106" t="n">
         <v>16</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44400</v>
+        <v>44176</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="N107" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O107" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P107" t="n">
-        <v>8500</v>
+        <v>17500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>531</v>
+        <v>1094</v>
       </c>
       <c r="T107" t="n">
         <v>16</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44400</v>
+        <v>44421</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -9000,33 +9000,33 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M108" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N108" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O108" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P108" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S108" t="n">
         <v>500</v>
-      </c>
-      <c r="N108" t="n">
-        <v>7500</v>
-      </c>
-      <c r="O108" t="n">
-        <v>7500</v>
-      </c>
-      <c r="P108" t="n">
-        <v>7500</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S108" t="n">
-        <v>469</v>
       </c>
       <c r="T108" t="n">
         <v>16</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44225</v>
+        <v>44421</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N109" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O109" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P109" t="n">
-        <v>24500</v>
+        <v>7000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9102,11 +9102,11 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1531</v>
+        <v>438</v>
       </c>
       <c r="T109" t="n">
         <v>16</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N110" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O110" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P110" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1250</v>
+        <v>1406</v>
       </c>
       <c r="T110" t="n">
         <v>16</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44295</v>
+        <v>44222</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N111" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O111" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="P111" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1406</v>
+        <v>1188</v>
       </c>
       <c r="T111" t="n">
         <v>16</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44295</v>
+        <v>44273</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N112" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O112" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P112" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1188</v>
+        <v>1500</v>
       </c>
       <c r="T112" t="n">
         <v>16</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44194</v>
+        <v>44257</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N113" t="n">
-        <v>24000</v>
+        <v>26500</v>
       </c>
       <c r="O113" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="P113" t="n">
-        <v>24500</v>
+        <v>26750</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1531</v>
+        <v>1672</v>
       </c>
       <c r="T113" t="n">
         <v>16</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44194</v>
+        <v>44257</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N114" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O114" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P114" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1250</v>
+        <v>1312</v>
       </c>
       <c r="T114" t="n">
         <v>16</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44390</v>
+        <v>44400</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N115" t="n">
         <v>8000</v>
       </c>
       <c r="O115" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P115" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T115" t="n">
         <v>16</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44321</v>
+        <v>44400</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N116" t="n">
-        <v>21000</v>
+        <v>7500</v>
       </c>
       <c r="O116" t="n">
-        <v>22000</v>
+        <v>7500</v>
       </c>
       <c r="P116" t="n">
-        <v>21500</v>
+        <v>7500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1344</v>
+        <v>469</v>
       </c>
       <c r="T116" t="n">
         <v>16</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44321</v>
+        <v>44426</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N117" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O117" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P117" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T117" t="n">
         <v>16</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44383</v>
+        <v>44225</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -9804,16 +9804,16 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N118" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O118" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P118" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>594</v>
+        <v>1531</v>
       </c>
       <c r="T118" t="n">
         <v>16</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44383</v>
+        <v>44225</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N119" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O119" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P119" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T119" t="n">
         <v>16</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44354</v>
+        <v>44295</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N120" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="O120" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P120" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>844</v>
+        <v>1406</v>
       </c>
       <c r="T120" t="n">
         <v>16</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44354</v>
+        <v>44295</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N121" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O121" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P121" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>688</v>
+        <v>1188</v>
       </c>
       <c r="T121" t="n">
         <v>16</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44169</v>
+        <v>44194</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="N122" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O122" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="P122" t="n">
-        <v>13250</v>
+        <v>24500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10142,11 +10142,11 @@
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S122" t="n">
-        <v>828</v>
+        <v>1531</v>
       </c>
       <c r="T122" t="n">
         <v>16</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44169</v>
+        <v>44194</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N123" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="O123" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P123" t="n">
-        <v>14750</v>
+        <v>20000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10222,11 +10222,11 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>922</v>
+        <v>1250</v>
       </c>
       <c r="T123" t="n">
         <v>16</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44412</v>
+        <v>44390</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -10280,11 +10280,11 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="N124" t="n">
         <v>8000</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44412</v>
+        <v>44321</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N125" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="O125" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P125" t="n">
-        <v>7000</v>
+        <v>21500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>438</v>
+        <v>1344</v>
       </c>
       <c r="T125" t="n">
         <v>16</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44336</v>
+        <v>44321</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N126" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O126" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P126" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1094</v>
+        <v>1188</v>
       </c>
       <c r="T126" t="n">
         <v>16</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44336</v>
+        <v>44383</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N127" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O127" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P127" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>938</v>
+        <v>594</v>
       </c>
       <c r="T127" t="n">
         <v>16</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44172</v>
+        <v>44383</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N128" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="O128" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P128" t="n">
-        <v>14750</v>
+        <v>7000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10622,11 +10622,11 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>922</v>
+        <v>438</v>
       </c>
       <c r="T128" t="n">
         <v>16</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44214</v>
+        <v>44354</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -10687,13 +10687,13 @@
         <v>400</v>
       </c>
       <c r="N129" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O129" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P129" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1531</v>
+        <v>844</v>
       </c>
       <c r="T129" t="n">
         <v>16</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44214</v>
+        <v>44354</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N130" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O130" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P130" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1250</v>
+        <v>688</v>
       </c>
       <c r="T130" t="n">
         <v>16</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44371</v>
+        <v>44169</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="N131" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O131" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P131" t="n">
-        <v>11500</v>
+        <v>13250</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>719</v>
+        <v>828</v>
       </c>
       <c r="T131" t="n">
         <v>16</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44371</v>
+        <v>44169</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N132" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="O132" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P132" t="n">
-        <v>8000</v>
+        <v>14750</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>500</v>
+        <v>922</v>
       </c>
       <c r="T132" t="n">
         <v>16</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44238</v>
+        <v>44412</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -11000,33 +11000,33 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M133" t="n">
+        <v>200</v>
+      </c>
+      <c r="N133" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O133" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P133" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S133" t="n">
         <v>500</v>
-      </c>
-      <c r="N133" t="n">
-        <v>24500</v>
-      </c>
-      <c r="O133" t="n">
-        <v>25000</v>
-      </c>
-      <c r="P133" t="n">
-        <v>24750</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S133" t="n">
-        <v>1547</v>
       </c>
       <c r="T133" t="n">
         <v>16</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44274</v>
+        <v>44412</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="N134" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O134" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="P134" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1500</v>
+        <v>438</v>
       </c>
       <c r="T134" t="n">
         <v>16</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44320</v>
+        <v>44336</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N135" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O135" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P135" t="n">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1375</v>
+        <v>1094</v>
       </c>
       <c r="T135" t="n">
         <v>16</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44314</v>
+        <v>44336</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N136" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O136" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P136" t="n">
-        <v>23500</v>
+        <v>15000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1469</v>
+        <v>938</v>
       </c>
       <c r="T136" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44314</v>
+        <v>44172</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N137" t="n">
-        <v>21000</v>
+        <v>14500</v>
       </c>
       <c r="O137" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P137" t="n">
-        <v>21000</v>
+        <v>14750</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1312</v>
+        <v>922</v>
       </c>
       <c r="T137" t="n">
         <v>16</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44364</v>
+        <v>44214</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N138" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O138" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P138" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>719</v>
+        <v>1531</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44364</v>
+        <v>44214</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N139" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O139" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P139" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44405</v>
+        <v>44371</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N140" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O140" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P140" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>438</v>
+        <v>719</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44224</v>
+        <v>44371</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N141" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O141" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P141" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1406</v>
+        <v>500</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44224</v>
+        <v>44238</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N142" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="O142" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P142" t="n">
-        <v>19000</v>
+        <v>24750</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1188</v>
+        <v>1547</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44260</v>
+        <v>44274</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N143" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O143" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P143" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1562</v>
+        <v>1500</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44327</v>
+        <v>44320</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="N144" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O144" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P144" t="n">
-        <v>19500</v>
+        <v>22000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1219</v>
+        <v>1375</v>
       </c>
       <c r="T144" t="n">
         <v>16</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44327</v>
+        <v>44314</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N145" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="O145" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="P145" t="n">
-        <v>17000</v>
+        <v>23500</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1062</v>
+        <v>1469</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44209</v>
+        <v>44314</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N146" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O146" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P146" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T146" t="n">
         <v>16</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44209</v>
+        <v>44364</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N147" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O147" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P147" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1250</v>
+        <v>719</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44231</v>
+        <v>44364</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N148" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O148" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P148" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44313</v>
+        <v>44405</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N149" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="O149" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="P149" t="n">
-        <v>23500</v>
+        <v>7000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1469</v>
+        <v>438</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44313</v>
+        <v>44224</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N150" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O150" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P150" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1312</v>
+        <v>1406</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44330</v>
+        <v>44224</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N151" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O151" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P151" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1094</v>
+        <v>1188</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44330</v>
+        <v>44260</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N152" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O152" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P152" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>938</v>
+        <v>1562</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44193</v>
+        <v>44327</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12604,7 +12604,7 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N153" t="n">
         <v>19000</v>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S153" t="n">
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44351</v>
+        <v>44327</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N154" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="O154" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P154" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>844</v>
+        <v>1062</v>
       </c>
       <c r="T154" t="n">
         <v>16</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44351</v>
+        <v>44209</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N155" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O155" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="P155" t="n">
-        <v>11000</v>
+        <v>24500</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>688</v>
+        <v>1531</v>
       </c>
       <c r="T155" t="n">
         <v>16</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44350</v>
+        <v>44209</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N156" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O156" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P156" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>906</v>
+        <v>1250</v>
       </c>
       <c r="T156" t="n">
         <v>16</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44350</v>
+        <v>44231</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N157" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O157" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P157" t="n">
-        <v>12000</v>
+        <v>24500</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>750</v>
+        <v>1531</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44196</v>
+        <v>44313</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N158" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="O158" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="P158" t="n">
-        <v>27000</v>
+        <v>23500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1688</v>
+        <v>1469</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44196</v>
+        <v>44313</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N159" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="O159" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="P159" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13102,11 +13102,11 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1625</v>
+        <v>1312</v>
       </c>
       <c r="T159" t="n">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44196</v>
+        <v>44330</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="N160" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O160" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P160" t="n">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1375</v>
+        <v>1094</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44315</v>
+        <v>44330</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N161" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O161" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P161" t="n">
-        <v>23500</v>
+        <v>15000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1469</v>
+        <v>938</v>
       </c>
       <c r="T161" t="n">
         <v>16</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44315</v>
+        <v>44193</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N162" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O162" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P162" t="n">
-        <v>21000</v>
+        <v>19500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13342,11 +13342,11 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1312</v>
+        <v>1219</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44278</v>
+        <v>44351</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N163" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="O163" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P163" t="n">
-        <v>21500</v>
+        <v>13500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1344</v>
+        <v>844</v>
       </c>
       <c r="T163" t="n">
         <v>16</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44278</v>
+        <v>44351</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N164" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O164" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P164" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1125</v>
+        <v>688</v>
       </c>
       <c r="T164" t="n">
         <v>16</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N165" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O165" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P165" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>781</v>
+        <v>906</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44358</v>
+        <v>44350</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N166" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O166" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="P166" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>562</v>
+        <v>750</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44399</v>
+        <v>44196</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N167" t="n">
-        <v>8500</v>
+        <v>27000</v>
       </c>
       <c r="O167" t="n">
-        <v>9000</v>
+        <v>27000</v>
       </c>
       <c r="P167" t="n">
-        <v>8750</v>
+        <v>27000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13742,11 +13742,11 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>547</v>
+        <v>1688</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44250</v>
+        <v>44196</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="O168" t="n">
         <v>26000</v>
       </c>
       <c r="P168" t="n">
-        <v>25500</v>
+        <v>26000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13822,11 +13822,11 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1594</v>
+        <v>1625</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44250</v>
+        <v>44196</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N169" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O169" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="P169" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1312</v>
+        <v>1375</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44292</v>
+        <v>44315</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N170" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O170" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P170" t="n">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1406</v>
+        <v>1469</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44292</v>
+        <v>44315</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14047,13 +14047,13 @@
         <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O171" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P171" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1188</v>
+        <v>1312</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44305</v>
+        <v>44278</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14124,7 +14124,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N172" t="n">
         <v>21000</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44305</v>
+        <v>44278</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14204,16 +14204,16 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N173" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O173" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P173" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44245</v>
+        <v>44358</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N174" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O174" t="n">
-        <v>24500</v>
+        <v>13000</v>
       </c>
       <c r="P174" t="n">
-        <v>24250</v>
+        <v>12500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1516</v>
+        <v>781</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44202</v>
+        <v>44358</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N175" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O175" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P175" t="n">
-        <v>24500</v>
+        <v>9000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1531</v>
+        <v>562</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44202</v>
+        <v>44399</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N176" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O176" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P176" t="n">
-        <v>20000</v>
+        <v>8750</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1250</v>
+        <v>547</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44181</v>
+        <v>44250</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N177" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O177" t="n">
-        <v>17500</v>
+        <v>26000</v>
       </c>
       <c r="P177" t="n">
-        <v>17250</v>
+        <v>25500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14542,11 +14542,11 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1078</v>
+        <v>1594</v>
       </c>
       <c r="T177" t="n">
         <v>16</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44369</v>
+        <v>44250</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O178" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P178" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>719</v>
+        <v>1312</v>
       </c>
       <c r="T178" t="n">
         <v>16</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>500</v>
+        <v>1406</v>
       </c>
       <c r="T179" t="n">
         <v>16</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44307</v>
+        <v>44292</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N180" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O180" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P180" t="n">
-        <v>21500</v>
+        <v>19000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1344</v>
+        <v>1188</v>
       </c>
       <c r="T180" t="n">
         <v>16</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44161</v>
+        <v>44305</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N181" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O181" t="n">
-        <v>12500</v>
+        <v>22000</v>
       </c>
       <c r="P181" t="n">
-        <v>12250</v>
+        <v>21500</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>766</v>
+        <v>1344</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44161</v>
+        <v>44305</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M182" t="n">
         <v>300</v>
       </c>
       <c r="N182" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O182" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P182" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T182" t="n">
         <v>16</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44195</v>
+        <v>44417</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="O183" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P183" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1656</v>
+        <v>500</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44195</v>
+        <v>44417</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N184" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="O184" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="P184" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1375</v>
+        <v>406</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44265</v>
+        <v>44245</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N185" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O185" t="n">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="P185" t="n">
-        <v>25000</v>
+        <v>24250</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1562</v>
+        <v>1516</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44265</v>
+        <v>44202</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,17 +15240,17 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="O186" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="P186" t="n">
         <v>24500</v>
@@ -15262,7 +15262,7 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S186" t="n">
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44265</v>
+        <v>44202</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15320,7 +15320,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M187" t="n">
@@ -15342,7 +15342,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S187" t="n">
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44159</v>
+        <v>44181</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N188" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O188" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="P188" t="n">
-        <v>12250</v>
+        <v>17250</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>766</v>
+        <v>1078</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44159</v>
+        <v>44369</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N189" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O189" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P189" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44201</v>
+        <v>44369</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N190" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O190" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P190" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44201</v>
+        <v>44307</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N191" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O191" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P191" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1250</v>
+        <v>1344</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44309</v>
+        <v>44161</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N192" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="O192" t="n">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="P192" t="n">
-        <v>23500</v>
+        <v>12250</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1469</v>
+        <v>766</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44309</v>
+        <v>44161</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N193" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O193" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P193" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44344</v>
+        <v>44195</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="N194" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="O194" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="P194" t="n">
-        <v>15500</v>
+        <v>26500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>969</v>
+        <v>1656</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44344</v>
+        <v>44195</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15967,13 +15967,13 @@
         <v>400</v>
       </c>
       <c r="N195" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O195" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P195" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15982,11 +15982,11 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S195" t="n">
-        <v>750</v>
+        <v>1375</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44319</v>
+        <v>44265</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N196" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O196" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P196" t="n">
-        <v>21500</v>
+        <v>25000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1344</v>
+        <v>1562</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44319</v>
+        <v>44265</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N197" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="O197" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="P197" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1188</v>
+        <v>1531</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44316</v>
+        <v>44265</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N198" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O198" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P198" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1344</v>
+        <v>1250</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44316</v>
+        <v>44159</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N199" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O199" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="P199" t="n">
-        <v>19000</v>
+        <v>12250</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1188</v>
+        <v>766</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44253</v>
+        <v>44159</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N200" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="O200" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P200" t="n">
-        <v>26750</v>
+        <v>8000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1672</v>
+        <v>500</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44253</v>
+        <v>44201</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N201" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O201" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P201" t="n">
-        <v>21000</v>
+        <v>24500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1312</v>
+        <v>1531</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44160</v>
+        <v>44201</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M202" t="n">
         <v>300</v>
       </c>
       <c r="N202" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O202" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P202" t="n">
-        <v>12250</v>
+        <v>20000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>766</v>
+        <v>1250</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44160</v>
+        <v>44309</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N203" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O203" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P203" t="n">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>500</v>
+        <v>1469</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44186</v>
+        <v>44309</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N204" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O204" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="P204" t="n">
-        <v>17250</v>
+        <v>19000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16702,11 +16702,11 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1078</v>
+        <v>1188</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44211</v>
+        <v>44344</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16767,13 +16767,13 @@
         <v>800</v>
       </c>
       <c r="N205" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O205" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P205" t="n">
-        <v>24500</v>
+        <v>15500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1531</v>
+        <v>969</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44211</v>
+        <v>44344</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N206" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O206" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P206" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1250</v>
+        <v>750</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44272</v>
+        <v>44319</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N207" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O207" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P207" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1594</v>
+        <v>1344</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44272</v>
+        <v>44319</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N208" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O208" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P208" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1312</v>
+        <v>1188</v>
       </c>
       <c r="T208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44370</v>
+        <v>44316</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N209" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O209" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P209" t="n">
-        <v>11500</v>
+        <v>21500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>719</v>
+        <v>1344</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44230</v>
+        <v>44316</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N210" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O210" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P210" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44230</v>
+        <v>44253</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N211" t="n">
-        <v>20000</v>
+        <v>26500</v>
       </c>
       <c r="O211" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P211" t="n">
-        <v>20000</v>
+        <v>26750</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1250</v>
+        <v>1672</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44232</v>
+        <v>44253</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N212" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="O212" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="P212" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44355</v>
+        <v>44160</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N213" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O213" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P213" t="n">
-        <v>13500</v>
+        <v>12250</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44355</v>
+        <v>44160</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N214" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O214" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P214" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44286</v>
+        <v>44186</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N215" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O215" t="n">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="P215" t="n">
-        <v>21500</v>
+        <v>17250</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1344</v>
+        <v>1078</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44217</v>
+        <v>44211</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N216" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O216" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P216" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1469</v>
+        <v>1531</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44217</v>
+        <v>44211</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N217" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O217" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P217" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44343</v>
+        <v>44272</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N218" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="O218" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="P218" t="n">
-        <v>17500</v>
+        <v>25500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1094</v>
+        <v>1594</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44343</v>
+        <v>44272</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N219" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="O219" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P219" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>938</v>
+        <v>1312</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44223</v>
+        <v>44370</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17967,13 +17967,13 @@
         <v>300</v>
       </c>
       <c r="N220" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O220" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P220" t="n">
-        <v>22500</v>
+        <v>11500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1406</v>
+        <v>719</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44376</v>
+        <v>44230</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N221" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O221" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P221" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>594</v>
+        <v>1531</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44376</v>
+        <v>44230</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N222" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O222" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P222" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44208</v>
+        <v>44232</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18204,13 +18204,13 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N223" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="O223" t="n">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="P223" t="n">
         <v>24500</v>
@@ -18222,7 +18222,7 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S223" t="n">
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44208</v>
+        <v>44355</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N224" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O224" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P224" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18302,11 +18302,11 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1250</v>
+        <v>844</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44179</v>
+        <v>44355</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N225" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O225" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P225" t="n">
-        <v>17500</v>
+        <v>11000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18382,11 +18382,11 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1094</v>
+        <v>688</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44334</v>
+        <v>44286</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N226" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O226" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P226" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1094</v>
+        <v>1344</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44334</v>
+        <v>44217</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N227" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O227" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="P227" t="n">
-        <v>15000</v>
+        <v>23500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>938</v>
+        <v>1469</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44168</v>
+        <v>44217</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O228" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="P228" t="n">
-        <v>12250</v>
+        <v>19000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18622,11 +18622,11 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S228" t="n">
-        <v>766</v>
+        <v>1188</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,68 +18647,1108 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E229" t="n">
+        <v>10</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>800</v>
+      </c>
+      <c r="N229" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O229" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P229" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S229" t="n">
+        <v>1094</v>
+      </c>
+      <c r="T229" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>4</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>44343</v>
+      </c>
+      <c r="E230" t="n">
+        <v>10</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>300</v>
+      </c>
+      <c r="N230" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O230" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P230" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S230" t="n">
+        <v>938</v>
+      </c>
+      <c r="T230" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>4</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>44223</v>
+      </c>
+      <c r="E231" t="n">
+        <v>10</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>300</v>
+      </c>
+      <c r="N231" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O231" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P231" t="n">
+        <v>22500</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S231" t="n">
+        <v>1406</v>
+      </c>
+      <c r="T231" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>4</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E232" t="n">
+        <v>10</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N232" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O232" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P232" t="n">
+        <v>9500</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S232" t="n">
+        <v>594</v>
+      </c>
+      <c r="T232" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>4</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E233" t="n">
+        <v>10</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>500</v>
+      </c>
+      <c r="N233" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O233" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P233" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S233" t="n">
+        <v>438</v>
+      </c>
+      <c r="T233" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>4</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E234" t="n">
+        <v>10</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N234" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O234" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P234" t="n">
+        <v>24500</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S234" t="n">
+        <v>1531</v>
+      </c>
+      <c r="T234" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>4</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>44208</v>
+      </c>
+      <c r="E235" t="n">
+        <v>10</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>400</v>
+      </c>
+      <c r="N235" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O235" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P235" t="n">
+        <v>20000</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S235" t="n">
+        <v>1250</v>
+      </c>
+      <c r="T235" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>4</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E236" t="n">
+        <v>10</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>600</v>
+      </c>
+      <c r="N236" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O236" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P236" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S236" t="n">
+        <v>1094</v>
+      </c>
+      <c r="T236" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>4</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E237" t="n">
+        <v>10</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>800</v>
+      </c>
+      <c r="N237" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O237" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P237" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S237" t="n">
+        <v>1094</v>
+      </c>
+      <c r="T237" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>4</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E238" t="n">
+        <v>10</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>400</v>
+      </c>
+      <c r="N238" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O238" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P238" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S238" t="n">
+        <v>938</v>
+      </c>
+      <c r="T238" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>4</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
         <v>44168</v>
       </c>
-      <c r="E229" t="n">
-        <v>10</v>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G229" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I229" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="E239" t="n">
+        <v>10</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>800</v>
+      </c>
+      <c r="N239" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O239" t="n">
+        <v>12500</v>
+      </c>
+      <c r="P239" t="n">
+        <v>12250</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S239" t="n">
+        <v>766</v>
+      </c>
+      <c r="T239" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>4</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E240" t="n">
+        <v>10</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>1a plateado</t>
         </is>
       </c>
-      <c r="M229" t="n">
+      <c r="M240" t="n">
         <v>600</v>
       </c>
-      <c r="N229" t="n">
+      <c r="N240" t="n">
         <v>13500</v>
       </c>
-      <c r="O229" t="n">
+      <c r="O240" t="n">
         <v>14000</v>
       </c>
-      <c r="P229" t="n">
+      <c r="P240" t="n">
         <v>13750</v>
       </c>
-      <c r="Q229" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R229" t="inlineStr">
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
         <is>
           <t>Provincia del Elquí</t>
         </is>
       </c>
-      <c r="S229" t="n">
+      <c r="S240" t="n">
         <v>859</v>
       </c>
-      <c r="T229" t="n">
+      <c r="T240" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>4</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E241" t="n">
+        <v>10</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N241" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O241" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P241" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S241" t="n">
+        <v>500</v>
+      </c>
+      <c r="T241" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>4</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E242" t="n">
+        <v>10</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>500</v>
+      </c>
+      <c r="N242" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O242" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P242" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S242" t="n">
+        <v>438</v>
+      </c>
+      <c r="T242" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T242"/>
+  <dimension ref="A1:T249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44340</v>
+        <v>44434</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6920,20 +6920,20 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>400</v>
       </c>
       <c r="N82" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O82" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P82" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T82" t="n">
         <v>16</v>
@@ -7000,20 +7000,20 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N83" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O83" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P83" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="S83" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T83" t="n">
         <v>16</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44221</v>
+        <v>44340</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7080,20 +7080,20 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N84" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O84" t="n">
-        <v>23500</v>
+        <v>15000</v>
       </c>
       <c r="P84" t="n">
-        <v>23250</v>
+        <v>15000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1453</v>
+        <v>938</v>
       </c>
       <c r="T84" t="n">
         <v>16</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7167,13 +7167,13 @@
         <v>600</v>
       </c>
       <c r="N85" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="O85" t="n">
-        <v>26000</v>
+        <v>23500</v>
       </c>
       <c r="P85" t="n">
-        <v>25500</v>
+        <v>23250</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7182,11 +7182,11 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1594</v>
+        <v>1453</v>
       </c>
       <c r="T85" t="n">
         <v>16</v>
@@ -7240,20 +7240,20 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N86" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O86" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P86" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1312</v>
+        <v>1594</v>
       </c>
       <c r="T86" t="n">
         <v>16</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44162</v>
+        <v>44271</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7320,20 +7320,20 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N87" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O87" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P87" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="S87" t="n">
-        <v>781</v>
+        <v>1312</v>
       </c>
       <c r="T87" t="n">
         <v>16</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44162</v>
+        <v>44428</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7400,11 +7400,11 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N88" t="n">
         <v>8000</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44342</v>
+        <v>44428</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>600</v>
       </c>
       <c r="N89" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O89" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P89" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>1094</v>
+        <v>438</v>
       </c>
       <c r="T89" t="n">
         <v>16</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M90" t="n">
         <v>800</v>
       </c>
       <c r="N90" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O90" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P90" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>719</v>
+        <v>781</v>
       </c>
       <c r="T90" t="n">
         <v>16</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7640,11 +7640,11 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
         <v>8000</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44242</v>
+        <v>44342</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7724,16 +7724,16 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N92" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O92" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P92" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T92" t="n">
         <v>16</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44204</v>
+        <v>44362</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N93" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O93" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P93" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1531</v>
+        <v>719</v>
       </c>
       <c r="T93" t="n">
         <v>16</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44204</v>
+        <v>44362</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -7887,13 +7887,13 @@
         <v>300</v>
       </c>
       <c r="N94" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O94" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P94" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T94" t="n">
         <v>16</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44323</v>
+        <v>44242</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -7964,16 +7964,16 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N95" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O95" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="P95" t="n">
-        <v>20500</v>
+        <v>24500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1281</v>
+        <v>1531</v>
       </c>
       <c r="T95" t="n">
         <v>16</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -8040,20 +8040,20 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N96" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O96" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P96" t="n">
-        <v>17000</v>
+        <v>24500</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8062,11 +8062,11 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1062</v>
+        <v>1531</v>
       </c>
       <c r="T96" t="n">
         <v>16</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44363</v>
+        <v>44204</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>300</v>
       </c>
       <c r="N97" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O97" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P97" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>719</v>
+        <v>1250</v>
       </c>
       <c r="T97" t="n">
         <v>16</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44349</v>
+        <v>44323</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -8204,16 +8204,16 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N98" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O98" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P98" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>906</v>
+        <v>1281</v>
       </c>
       <c r="T98" t="n">
         <v>16</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44385</v>
+        <v>44323</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>400</v>
       </c>
       <c r="N99" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O99" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="P99" t="n">
-        <v>9500</v>
+        <v>17000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>594</v>
+        <v>1062</v>
       </c>
       <c r="T99" t="n">
         <v>16</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44385</v>
+        <v>44363</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N100" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O100" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P100" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>438</v>
+        <v>719</v>
       </c>
       <c r="T100" t="n">
         <v>16</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44243</v>
+        <v>44349</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N101" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="O101" t="n">
-        <v>24500</v>
+        <v>15000</v>
       </c>
       <c r="P101" t="n">
-        <v>24250</v>
+        <v>14500</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8462,11 +8462,11 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S101" t="n">
-        <v>1516</v>
+        <v>906</v>
       </c>
       <c r="T101" t="n">
         <v>16</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44243</v>
+        <v>44385</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M102" t="n">
         <v>400</v>
       </c>
       <c r="N102" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O102" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P102" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8542,11 +8542,11 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1250</v>
+        <v>594</v>
       </c>
       <c r="T102" t="n">
         <v>16</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44427</v>
+        <v>44385</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O103" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P103" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T103" t="n">
         <v>16</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44427</v>
+        <v>44243</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N104" t="n">
-        <v>6500</v>
+        <v>24000</v>
       </c>
       <c r="O104" t="n">
-        <v>6500</v>
+        <v>24500</v>
       </c>
       <c r="P104" t="n">
-        <v>6500</v>
+        <v>24250</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8702,11 +8702,11 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>406</v>
+        <v>1516</v>
       </c>
       <c r="T104" t="n">
         <v>16</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44413</v>
+        <v>44243</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N105" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O105" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P105" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T105" t="n">
         <v>16</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44413</v>
+        <v>44427</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N106" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O106" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T106" t="n">
         <v>16</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44176</v>
+        <v>44427</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>1100</v>
+        <v>150</v>
       </c>
       <c r="N107" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="O107" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="P107" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1094</v>
+        <v>406</v>
       </c>
       <c r="T107" t="n">
         <v>16</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44421</v>
+        <v>44413</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -9004,7 +9004,7 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N108" t="n">
         <v>8000</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44421</v>
+        <v>44413</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N109" t="n">
         <v>7000</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -9164,16 +9164,16 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N110" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="O110" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P110" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1406</v>
+        <v>1094</v>
       </c>
       <c r="T110" t="n">
         <v>16</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44222</v>
+        <v>44421</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N111" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O111" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P111" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9262,11 +9262,11 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T111" t="n">
         <v>16</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44273</v>
+        <v>44421</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N112" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O112" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="P112" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1500</v>
+        <v>438</v>
       </c>
       <c r="T112" t="n">
         <v>16</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44257</v>
+        <v>44222</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -9404,16 +9404,16 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N113" t="n">
-        <v>26500</v>
+        <v>22000</v>
       </c>
       <c r="O113" t="n">
-        <v>27000</v>
+        <v>23000</v>
       </c>
       <c r="P113" t="n">
-        <v>26750</v>
+        <v>22500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9422,11 +9422,11 @@
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1672</v>
+        <v>1406</v>
       </c>
       <c r="T113" t="n">
         <v>16</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44257</v>
+        <v>44222</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -9484,16 +9484,16 @@
         </is>
       </c>
       <c r="M114" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N114" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O114" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P114" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1312</v>
+        <v>1188</v>
       </c>
       <c r="T114" t="n">
         <v>16</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44400</v>
+        <v>44273</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N115" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O115" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="P115" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>531</v>
+        <v>1500</v>
       </c>
       <c r="T115" t="n">
         <v>16</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N116" t="n">
-        <v>7500</v>
+        <v>26500</v>
       </c>
       <c r="O116" t="n">
-        <v>7500</v>
+        <v>27000</v>
       </c>
       <c r="P116" t="n">
-        <v>7500</v>
+        <v>26750</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>469</v>
+        <v>1672</v>
       </c>
       <c r="T116" t="n">
         <v>16</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44426</v>
+        <v>44257</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N117" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O117" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P117" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T117" t="n">
         <v>16</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N118" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O118" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P118" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1531</v>
+        <v>531</v>
       </c>
       <c r="T118" t="n">
         <v>16</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N119" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O119" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P119" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1250</v>
+        <v>469</v>
       </c>
       <c r="T119" t="n">
         <v>16</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44295</v>
+        <v>44426</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N120" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O120" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1406</v>
+        <v>500</v>
       </c>
       <c r="T120" t="n">
         <v>16</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N121" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O121" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="P121" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10062,11 +10062,11 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1188</v>
+        <v>1531</v>
       </c>
       <c r="T121" t="n">
         <v>16</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="N122" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O122" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P122" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1531</v>
+        <v>1250</v>
       </c>
       <c r="T122" t="n">
         <v>16</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N123" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O123" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="P123" t="n">
-        <v>20000</v>
+        <v>22500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10222,11 +10222,11 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1250</v>
+        <v>1406</v>
       </c>
       <c r="T123" t="n">
         <v>16</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44390</v>
+        <v>44295</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="N124" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O124" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P124" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T124" t="n">
         <v>16</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44321</v>
+        <v>44194</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N125" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O125" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P125" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10382,11 +10382,11 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1344</v>
+        <v>1531</v>
       </c>
       <c r="T125" t="n">
         <v>16</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44321</v>
+        <v>44194</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N126" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O126" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P126" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T126" t="n">
         <v>16</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44383</v>
+        <v>44390</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N127" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O127" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P127" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T127" t="n">
         <v>16</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44383</v>
+        <v>44321</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N128" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="O128" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P128" t="n">
-        <v>7000</v>
+        <v>21500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>438</v>
+        <v>1344</v>
       </c>
       <c r="T128" t="n">
         <v>16</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44354</v>
+        <v>44321</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N129" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O129" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P129" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>844</v>
+        <v>1188</v>
       </c>
       <c r="T129" t="n">
         <v>16</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44354</v>
+        <v>44383</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N130" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="O130" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="T130" t="n">
         <v>16</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44169</v>
+        <v>44383</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N131" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="O131" t="n">
-        <v>13500</v>
+        <v>7000</v>
       </c>
       <c r="P131" t="n">
-        <v>13250</v>
+        <v>7000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>828</v>
+        <v>438</v>
       </c>
       <c r="T131" t="n">
         <v>16</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N132" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O132" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P132" t="n">
-        <v>14750</v>
+        <v>13500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>922</v>
+        <v>844</v>
       </c>
       <c r="T132" t="n">
         <v>16</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44412</v>
+        <v>44354</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M133" t="n">
         <v>200</v>
       </c>
       <c r="N133" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O133" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P133" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T133" t="n">
         <v>16</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44412</v>
+        <v>44169</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="O134" t="n">
-        <v>7000</v>
+        <v>13500</v>
       </c>
       <c r="P134" t="n">
-        <v>7000</v>
+        <v>13250</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>438</v>
+        <v>828</v>
       </c>
       <c r="T134" t="n">
         <v>16</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44336</v>
+        <v>44169</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -11167,13 +11167,13 @@
         <v>800</v>
       </c>
       <c r="N135" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="O135" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P135" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11182,11 +11182,11 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1094</v>
+        <v>922</v>
       </c>
       <c r="T135" t="n">
         <v>16</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N136" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O136" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P136" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T136" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44172</v>
+        <v>44412</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>14500</v>
+        <v>7000</v>
       </c>
       <c r="O137" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P137" t="n">
-        <v>14750</v>
+        <v>7000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>922</v>
+        <v>438</v>
       </c>
       <c r="T137" t="n">
         <v>16</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N138" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O138" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P138" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44214</v>
+        <v>44336</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N139" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O139" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P139" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44371</v>
+        <v>44172</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N140" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O140" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P140" t="n">
-        <v>11500</v>
+        <v>14750</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>719</v>
+        <v>922</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N141" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O141" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P141" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44238</v>
+        <v>44214</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N142" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="O142" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P142" t="n">
-        <v>24750</v>
+        <v>20000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1547</v>
+        <v>1250</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44274</v>
+        <v>44371</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N143" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O143" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P143" t="n">
-        <v>24000</v>
+        <v>11500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1500</v>
+        <v>719</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44320</v>
+        <v>44371</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="N144" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O144" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P144" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1375</v>
+        <v>500</v>
       </c>
       <c r="T144" t="n">
         <v>16</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44314</v>
+        <v>44238</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N145" t="n">
-        <v>23000</v>
+        <v>24500</v>
       </c>
       <c r="O145" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P145" t="n">
-        <v>23500</v>
+        <v>24750</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1469</v>
+        <v>1547</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44314</v>
+        <v>44274</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="N146" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O146" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P146" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1312</v>
+        <v>1500</v>
       </c>
       <c r="T146" t="n">
         <v>16</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="N147" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O147" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P147" t="n">
-        <v>11500</v>
+        <v>22000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>719</v>
+        <v>1375</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44364</v>
+        <v>44314</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N148" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O148" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P148" t="n">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>500</v>
+        <v>1469</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44405</v>
+        <v>44314</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N149" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="O149" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="P149" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>438</v>
+        <v>1312</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -12367,13 +12367,13 @@
         <v>600</v>
       </c>
       <c r="N150" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O150" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P150" t="n">
-        <v>22500</v>
+        <v>11500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1406</v>
+        <v>719</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -12447,13 +12447,13 @@
         <v>300</v>
       </c>
       <c r="N151" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O151" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P151" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44260</v>
+        <v>44435</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>800</v>
+        <v>3050</v>
       </c>
       <c r="N152" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="O152" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P152" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1562</v>
+        <v>500</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44327</v>
+        <v>44435</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N153" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O153" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P153" t="n">
-        <v>19500</v>
+        <v>7000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1219</v>
+        <v>438</v>
       </c>
       <c r="T153" t="n">
         <v>16</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44327</v>
+        <v>44405</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N154" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O154" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="P154" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1062</v>
+        <v>438</v>
       </c>
       <c r="T154" t="n">
         <v>16</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44209</v>
+        <v>44224</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N155" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O155" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P155" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1531</v>
+        <v>1406</v>
       </c>
       <c r="T155" t="n">
         <v>16</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44209</v>
+        <v>44224</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N156" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O156" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P156" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T156" t="n">
         <v>16</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44231</v>
+        <v>44260</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N157" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O157" t="n">
         <v>25000</v>
       </c>
       <c r="P157" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1531</v>
+        <v>1562</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N158" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O158" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P158" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1469</v>
+        <v>1219</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44313</v>
+        <v>44327</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N159" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="O159" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P159" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1312</v>
+        <v>1062</v>
       </c>
       <c r="T159" t="n">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44330</v>
+        <v>44209</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N160" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O160" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="P160" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1094</v>
+        <v>1531</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44330</v>
+        <v>44209</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N161" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O161" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P161" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T161" t="n">
         <v>16</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44193</v>
+        <v>44231</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="N162" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O162" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P162" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1219</v>
+        <v>1531</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44351</v>
+        <v>44313</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -13407,13 +13407,13 @@
         <v>800</v>
       </c>
       <c r="N163" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O163" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P163" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>844</v>
+        <v>1469</v>
       </c>
       <c r="T163" t="n">
         <v>16</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44351</v>
+        <v>44313</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -13484,16 +13484,16 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N164" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O164" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P164" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>688</v>
+        <v>1312</v>
       </c>
       <c r="T164" t="n">
         <v>16</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N165" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="O165" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P165" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>906</v>
+        <v>1094</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44350</v>
+        <v>44330</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N166" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O166" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P166" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>750</v>
+        <v>938</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N167" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="O167" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="P167" t="n">
-        <v>27000</v>
+        <v>19500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1688</v>
+        <v>1219</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N168" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="O168" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="P168" t="n">
-        <v>26000</v>
+        <v>13500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13822,11 +13822,11 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1625</v>
+        <v>844</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44196</v>
+        <v>44351</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N169" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O169" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P169" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1375</v>
+        <v>688</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13967,13 +13967,13 @@
         <v>600</v>
       </c>
       <c r="N170" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="O170" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P170" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1469</v>
+        <v>906</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44315</v>
+        <v>44350</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N171" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O171" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P171" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1312</v>
+        <v>750</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N172" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O172" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P172" t="n">
-        <v>21500</v>
+        <v>27000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1344</v>
+        <v>1688</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44278</v>
+        <v>44196</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N173" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="O173" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="P173" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1125</v>
+        <v>1625</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44358</v>
+        <v>44196</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N174" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O174" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P174" t="n">
-        <v>12500</v>
+        <v>22000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>781</v>
+        <v>1375</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44358</v>
+        <v>44315</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N175" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="O175" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="P175" t="n">
-        <v>9000</v>
+        <v>23500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>562</v>
+        <v>1469</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44399</v>
+        <v>44315</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N176" t="n">
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="O176" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P176" t="n">
-        <v>8750</v>
+        <v>21000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>547</v>
+        <v>1312</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44250</v>
+        <v>44278</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14527,13 +14527,13 @@
         <v>700</v>
       </c>
       <c r="N177" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O177" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P177" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1594</v>
+        <v>1344</v>
       </c>
       <c r="T177" t="n">
         <v>16</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44250</v>
+        <v>44278</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N178" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="O178" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P178" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1312</v>
+        <v>1125</v>
       </c>
       <c r="T178" t="n">
         <v>16</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44292</v>
+        <v>44358</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N179" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="O179" t="n">
-        <v>23000</v>
+        <v>13000</v>
       </c>
       <c r="P179" t="n">
-        <v>22500</v>
+        <v>12500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1406</v>
+        <v>781</v>
       </c>
       <c r="T179" t="n">
         <v>16</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44292</v>
+        <v>44358</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N180" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O180" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P180" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1188</v>
+        <v>562</v>
       </c>
       <c r="T180" t="n">
         <v>16</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N181" t="n">
-        <v>21000</v>
+        <v>8500</v>
       </c>
       <c r="O181" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P181" t="n">
-        <v>21500</v>
+        <v>8750</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1344</v>
+        <v>547</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44305</v>
+        <v>44250</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N182" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O182" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="P182" t="n">
-        <v>19000</v>
+        <v>25500</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1188</v>
+        <v>1594</v>
       </c>
       <c r="T182" t="n">
         <v>16</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44417</v>
+        <v>44250</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>200</v>
       </c>
       <c r="N183" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O183" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P183" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44417</v>
+        <v>44292</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="N184" t="n">
-        <v>6500</v>
+        <v>22000</v>
       </c>
       <c r="O184" t="n">
-        <v>6500</v>
+        <v>23000</v>
       </c>
       <c r="P184" t="n">
-        <v>6500</v>
+        <v>22500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>406</v>
+        <v>1406</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44245</v>
+        <v>44292</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N185" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O185" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="P185" t="n">
-        <v>24250</v>
+        <v>19000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1516</v>
+        <v>1188</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44202</v>
+        <v>44305</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N186" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O186" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P186" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15262,11 +15262,11 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1531</v>
+        <v>1344</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44202</v>
+        <v>44305</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N187" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O187" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P187" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15342,11 +15342,11 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44181</v>
+        <v>44417</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N188" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O188" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="P188" t="n">
-        <v>17250</v>
+        <v>8000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1078</v>
+        <v>500</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44369</v>
+        <v>44417</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N189" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="O189" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="P189" t="n">
-        <v>11500</v>
+        <v>6500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>719</v>
+        <v>406</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44369</v>
+        <v>44245</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N190" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O190" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="P190" t="n">
-        <v>8000</v>
+        <v>24250</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>500</v>
+        <v>1516</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44307</v>
+        <v>44202</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N191" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O191" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P191" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1344</v>
+        <v>1531</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44161</v>
+        <v>44202</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N192" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O192" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P192" t="n">
-        <v>12250</v>
+        <v>20000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>766</v>
+        <v>1250</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44161</v>
+        <v>44181</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N193" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O193" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="P193" t="n">
-        <v>8000</v>
+        <v>17250</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15822,11 +15822,11 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S193" t="n">
-        <v>500</v>
+        <v>1078</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N194" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="O194" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="P194" t="n">
-        <v>26500</v>
+        <v>11500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1656</v>
+        <v>719</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44195</v>
+        <v>44369</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N195" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O195" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P195" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15982,11 +15982,11 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1375</v>
+        <v>500</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44265</v>
+        <v>44307</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N196" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O196" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P196" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1562</v>
+        <v>1344</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N197" t="n">
-        <v>24500</v>
+        <v>12000</v>
       </c>
       <c r="O197" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="P197" t="n">
-        <v>24500</v>
+        <v>12250</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1531</v>
+        <v>766</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44265</v>
+        <v>44161</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N198" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O198" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P198" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N199" t="n">
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="O199" t="n">
-        <v>12500</v>
+        <v>27000</v>
       </c>
       <c r="P199" t="n">
-        <v>12250</v>
+        <v>26500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16302,11 +16302,11 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>766</v>
+        <v>1656</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N200" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O200" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P200" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>500</v>
+        <v>1375</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N201" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O201" t="n">
         <v>25000</v>
       </c>
       <c r="P201" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1531</v>
+        <v>1562</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44201</v>
+        <v>44265</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N202" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O202" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P202" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44309</v>
+        <v>44265</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N203" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O203" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P203" t="n">
-        <v>23500</v>
+        <v>20000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1469</v>
+        <v>1250</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44309</v>
+        <v>44159</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N204" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O204" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="P204" t="n">
-        <v>19000</v>
+        <v>12250</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1188</v>
+        <v>766</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44344</v>
+        <v>44159</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N205" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O205" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P205" t="n">
-        <v>15500</v>
+        <v>8000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>969</v>
+        <v>500</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44344</v>
+        <v>44201</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N206" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O206" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P206" t="n">
-        <v>12000</v>
+        <v>24500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>750</v>
+        <v>1531</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44319</v>
+        <v>44201</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N207" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O207" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P207" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16942,11 +16942,11 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1344</v>
+        <v>1250</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44319</v>
+        <v>44433</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N208" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O208" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P208" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17087,13 +17087,13 @@
         <v>1000</v>
       </c>
       <c r="N209" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O209" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P209" t="n">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1344</v>
+        <v>1469</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44316</v>
+        <v>44309</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17164,7 +17164,7 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N210" t="n">
         <v>19000</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44253</v>
+        <v>44344</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17247,13 +17247,13 @@
         <v>800</v>
       </c>
       <c r="N211" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="O211" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="P211" t="n">
-        <v>26750</v>
+        <v>15500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1672</v>
+        <v>969</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44253</v>
+        <v>44344</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17327,13 +17327,13 @@
         <v>400</v>
       </c>
       <c r="N212" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O212" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P212" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1312</v>
+        <v>750</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44160</v>
+        <v>44319</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N213" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O213" t="n">
-        <v>12500</v>
+        <v>22000</v>
       </c>
       <c r="P213" t="n">
-        <v>12250</v>
+        <v>21500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>766</v>
+        <v>1344</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44160</v>
+        <v>44319</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O214" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P214" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44186</v>
+        <v>44316</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N215" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O215" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="P215" t="n">
-        <v>17250</v>
+        <v>21500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1078</v>
+        <v>1344</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44211</v>
+        <v>44316</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N216" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O216" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P216" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17662,11 +17662,11 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44211</v>
+        <v>44253</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N217" t="n">
-        <v>20000</v>
+        <v>26500</v>
       </c>
       <c r="O217" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P217" t="n">
-        <v>20000</v>
+        <v>26750</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1250</v>
+        <v>1672</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44272</v>
+        <v>44253</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N218" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O218" t="n">
-        <v>26000</v>
+        <v>21000</v>
       </c>
       <c r="P218" t="n">
-        <v>25500</v>
+        <v>21000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1594</v>
+        <v>1312</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44272</v>
+        <v>44160</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N219" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O219" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="P219" t="n">
-        <v>21000</v>
+        <v>12250</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1312</v>
+        <v>766</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44370</v>
+        <v>44160</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N220" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O220" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P220" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44230</v>
+        <v>44186</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N221" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O221" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="P221" t="n">
-        <v>24500</v>
+        <v>17250</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18062,11 +18062,11 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1531</v>
+        <v>1078</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44230</v>
+        <v>44211</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="N222" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O222" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P222" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18142,11 +18142,11 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44232</v>
+        <v>44211</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N223" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="O223" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="P223" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1531</v>
+        <v>1250</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44355</v>
+        <v>44272</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N224" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="O224" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P224" t="n">
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>844</v>
+        <v>1594</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44355</v>
+        <v>44272</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N225" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O225" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P225" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>688</v>
+        <v>1312</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44286</v>
+        <v>44370</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N226" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O226" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P226" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44217</v>
+        <v>44230</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N227" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O227" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P227" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1469</v>
+        <v>1531</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44217</v>
+        <v>44230</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N228" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O228" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P228" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18622,11 +18622,11 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44343</v>
+        <v>44232</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N229" t="n">
-        <v>17000</v>
+        <v>24500</v>
       </c>
       <c r="O229" t="n">
-        <v>18000</v>
+        <v>24500</v>
       </c>
       <c r="P229" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1094</v>
+        <v>1531</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44343</v>
+        <v>44355</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N230" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O230" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P230" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>938</v>
+        <v>844</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44223</v>
+        <v>44355</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M231" t="n">
         <v>300</v>
       </c>
       <c r="N231" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="O231" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="P231" t="n">
-        <v>22500</v>
+        <v>11000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18862,11 +18862,11 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1406</v>
+        <v>688</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44376</v>
+        <v>44286</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="N232" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O232" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P232" t="n">
-        <v>9500</v>
+        <v>21500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>594</v>
+        <v>1344</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44376</v>
+        <v>44217</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N233" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="O233" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="P233" t="n">
-        <v>7000</v>
+        <v>23500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19022,11 +19022,11 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>438</v>
+        <v>1469</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44208</v>
+        <v>44217</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="N234" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O234" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P234" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44208</v>
+        <v>44343</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N235" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O235" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P235" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19182,11 +19182,11 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1250</v>
+        <v>1094</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44179</v>
+        <v>44343</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="O236" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P236" t="n">
-        <v>17500</v>
+        <v>15000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19262,11 +19262,11 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1094</v>
+        <v>938</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44334</v>
+        <v>44223</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O237" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P237" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19342,11 +19342,11 @@
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1094</v>
+        <v>1406</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44334</v>
+        <v>44376</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N238" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O238" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P238" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>938</v>
+        <v>594</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44168</v>
+        <v>44376</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N239" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="O239" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="P239" t="n">
-        <v>12250</v>
+        <v>7000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>766</v>
+        <v>438</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44168</v>
+        <v>44208</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="N240" t="n">
-        <v>13500</v>
+        <v>24000</v>
       </c>
       <c r="O240" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P240" t="n">
-        <v>13750</v>
+        <v>24500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19582,11 +19582,11 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>859</v>
+        <v>1531</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44418</v>
+        <v>44208</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N241" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O241" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P241" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19662,11 +19662,11 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,68 +19687,628 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E242" t="n">
+        <v>10</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>600</v>
+      </c>
+      <c r="N242" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O242" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P242" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S242" t="n">
+        <v>1094</v>
+      </c>
+      <c r="T242" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>4</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E243" t="n">
+        <v>10</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>800</v>
+      </c>
+      <c r="N243" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O243" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P243" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S243" t="n">
+        <v>1094</v>
+      </c>
+      <c r="T243" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>4</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="E244" t="n">
+        <v>10</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>400</v>
+      </c>
+      <c r="N244" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O244" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P244" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S244" t="n">
+        <v>938</v>
+      </c>
+      <c r="T244" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>4</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E245" t="n">
+        <v>10</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>800</v>
+      </c>
+      <c r="N245" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O245" t="n">
+        <v>12500</v>
+      </c>
+      <c r="P245" t="n">
+        <v>12250</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S245" t="n">
+        <v>766</v>
+      </c>
+      <c r="T245" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>4</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E246" t="n">
+        <v>10</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>600</v>
+      </c>
+      <c r="N246" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O246" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P246" t="n">
+        <v>13750</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="S246" t="n">
+        <v>859</v>
+      </c>
+      <c r="T246" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>4</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
         <v>44418</v>
       </c>
-      <c r="E242" t="n">
-        <v>10</v>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G242" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I242" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="E247" t="n">
+        <v>10</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N247" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O247" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P247" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S247" t="n">
+        <v>500</v>
+      </c>
+      <c r="T247" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>4</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E248" t="n">
+        <v>10</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
         <is>
           <t>2a amarillo</t>
         </is>
       </c>
-      <c r="M242" t="n">
+      <c r="M248" t="n">
         <v>500</v>
       </c>
-      <c r="N242" t="n">
+      <c r="N248" t="n">
         <v>7000</v>
       </c>
-      <c r="O242" t="n">
+      <c r="O248" t="n">
         <v>7000</v>
       </c>
-      <c r="P242" t="n">
+      <c r="P248" t="n">
         <v>7000</v>
       </c>
-      <c r="Q242" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R242" t="inlineStr">
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S242" t="n">
+      <c r="S248" t="n">
         <v>438</v>
       </c>
-      <c r="T242" t="n">
+      <c r="T248" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>4</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E249" t="n">
+        <v>10</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N249" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O249" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P249" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S249" t="n">
+        <v>500</v>
+      </c>
+      <c r="T249" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T249"/>
+  <dimension ref="A1:T250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N157" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="O157" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P157" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1562</v>
+        <v>500</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44327</v>
+        <v>44260</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N158" t="n">
-        <v>19000</v>
+        <v>25000</v>
       </c>
       <c r="O158" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P158" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1219</v>
+        <v>1562</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N159" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O159" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P159" t="n">
-        <v>17000</v>
+        <v>19500</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1062</v>
+        <v>1219</v>
       </c>
       <c r="T159" t="n">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44209</v>
+        <v>44327</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N160" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O160" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P160" t="n">
-        <v>24500</v>
+        <v>17000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1531</v>
+        <v>1062</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N161" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O161" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P161" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T161" t="n">
         <v>16</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44231</v>
+        <v>44209</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N162" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O162" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P162" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13342,11 +13342,11 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1531</v>
+        <v>1250</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N163" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O163" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P163" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13422,11 +13422,11 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1469</v>
+        <v>1531</v>
       </c>
       <c r="T163" t="n">
         <v>16</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N164" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O164" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P164" t="n">
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1312</v>
+        <v>1469</v>
       </c>
       <c r="T164" t="n">
         <v>16</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N165" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O165" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P165" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1094</v>
+        <v>1312</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N166" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O166" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P166" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N167" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O167" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P167" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13742,11 +13742,11 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1219</v>
+        <v>938</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N168" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O168" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P168" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13822,11 +13822,11 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>844</v>
+        <v>1219</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N169" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O169" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P169" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N170" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O170" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P170" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>906</v>
+        <v>688</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N171" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O171" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P171" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>750</v>
+        <v>906</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M172" t="n">
         <v>200</v>
       </c>
       <c r="N172" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="O172" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="P172" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1688</v>
+        <v>750</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M173" t="n">
         <v>200</v>
       </c>
       <c r="N173" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="O173" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="P173" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1625</v>
+        <v>1688</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N174" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="O174" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="P174" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1375</v>
+        <v>1625</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N175" t="n">
-        <v>23000</v>
+        <v>22000</v>
       </c>
       <c r="O175" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P175" t="n">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1469</v>
+        <v>1375</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N176" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O176" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P176" t="n">
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1312</v>
+        <v>1469</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
         <v>21000</v>
       </c>
       <c r="O177" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P177" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1344</v>
+        <v>1312</v>
       </c>
       <c r="T177" t="n">
         <v>16</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="N178" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O178" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P178" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1125</v>
+        <v>1344</v>
       </c>
       <c r="T178" t="n">
         <v>16</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N179" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="O179" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P179" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>781</v>
+        <v>1125</v>
       </c>
       <c r="T179" t="n">
         <v>16</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>562</v>
+        <v>781</v>
       </c>
       <c r="T180" t="n">
         <v>16</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44399</v>
+        <v>44358</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N181" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O181" t="n">
         <v>9000</v>
       </c>
       <c r="P181" t="n">
-        <v>8750</v>
+        <v>9000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44250</v>
+        <v>44399</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N182" t="n">
-        <v>25000</v>
+        <v>8500</v>
       </c>
       <c r="O182" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>25500</v>
+        <v>8750</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1594</v>
+        <v>547</v>
       </c>
       <c r="T182" t="n">
         <v>16</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N183" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O183" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P183" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1312</v>
+        <v>1594</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44292</v>
+        <v>44250</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="N184" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O184" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P184" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1406</v>
+        <v>1312</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N185" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O185" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P185" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1188</v>
+        <v>1406</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44305</v>
+        <v>44292</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O186" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P186" t="n">
-        <v>21500</v>
+        <v>19000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1344</v>
+        <v>1188</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N187" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O187" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P187" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44417</v>
+        <v>44305</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O188" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P188" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N189" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O189" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P189" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44245</v>
+        <v>44417</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N190" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="O190" t="n">
-        <v>24500</v>
+        <v>6500</v>
       </c>
       <c r="P190" t="n">
-        <v>24250</v>
+        <v>6500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1516</v>
+        <v>406</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44202</v>
+        <v>44245</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N191" t="n">
         <v>24000</v>
       </c>
       <c r="O191" t="n">
-        <v>25000</v>
+        <v>24500</v>
       </c>
       <c r="P191" t="n">
-        <v>24500</v>
+        <v>24250</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O192" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P192" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44181</v>
+        <v>44202</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N193" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O193" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="P193" t="n">
-        <v>17250</v>
+        <v>20000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1078</v>
+        <v>1250</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N194" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O194" t="n">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="P194" t="n">
-        <v>11500</v>
+        <v>17250</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>719</v>
+        <v>1078</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N195" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O195" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P195" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44307</v>
+        <v>44369</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N196" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O196" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P196" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44161</v>
+        <v>44307</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N197" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O197" t="n">
-        <v>12500</v>
+        <v>22000</v>
       </c>
       <c r="P197" t="n">
-        <v>12250</v>
+        <v>21500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>766</v>
+        <v>1344</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N198" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O198" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P198" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N199" t="n">
-        <v>26000</v>
+        <v>8000</v>
       </c>
       <c r="O199" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P199" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16302,11 +16302,11 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1656</v>
+        <v>500</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N200" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="O200" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P200" t="n">
-        <v>22000</v>
+        <v>26500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1375</v>
+        <v>1656</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44265</v>
+        <v>44195</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N201" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O201" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P201" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1562</v>
+        <v>1375</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M202" t="n">
         <v>150</v>
       </c>
       <c r="N202" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="O202" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="P202" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1531</v>
+        <v>1562</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N203" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O203" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P203" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44159</v>
+        <v>44265</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="N204" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O204" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P204" t="n">
-        <v>12250</v>
+        <v>20000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>766</v>
+        <v>1250</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="N205" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O205" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P205" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44201</v>
+        <v>44159</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N206" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O206" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P206" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N207" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O207" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P207" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44433</v>
+        <v>44201</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N208" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O208" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P208" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17022,11 +17022,11 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44309</v>
+        <v>44433</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N209" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O209" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P209" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="N210" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O210" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P210" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1188</v>
+        <v>1469</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N211" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O211" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P211" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>969</v>
+        <v>1188</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N212" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O212" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P212" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>750</v>
+        <v>969</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M213" t="n">
         <v>400</v>
       </c>
       <c r="N213" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O213" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P213" t="n">
-        <v>21500</v>
+        <v>12000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1344</v>
+        <v>750</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N214" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O214" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P214" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N215" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O215" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="P215" t="n">
-        <v>21500</v>
+        <v>19000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1344</v>
+        <v>1188</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N216" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O216" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P216" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N217" t="n">
-        <v>26500</v>
+        <v>19000</v>
       </c>
       <c r="O217" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="P217" t="n">
-        <v>26750</v>
+        <v>19000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1672</v>
+        <v>1188</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N218" t="n">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="O218" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="P218" t="n">
-        <v>21000</v>
+        <v>26750</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1312</v>
+        <v>1672</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44160</v>
+        <v>44253</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N219" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O219" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="P219" t="n">
-        <v>12250</v>
+        <v>21000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>766</v>
+        <v>1312</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N220" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O220" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P220" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18040,33 +18040,33 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M221" t="n">
+        <v>100</v>
+      </c>
+      <c r="N221" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O221" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P221" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S221" t="n">
         <v>500</v>
-      </c>
-      <c r="N221" t="n">
-        <v>17000</v>
-      </c>
-      <c r="O221" t="n">
-        <v>17500</v>
-      </c>
-      <c r="P221" t="n">
-        <v>17250</v>
-      </c>
-      <c r="Q221" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R221" t="inlineStr">
-        <is>
-          <t>Región Metropolitana</t>
-        </is>
-      </c>
-      <c r="S221" t="n">
-        <v>1078</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N222" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O222" t="n">
-        <v>25000</v>
+        <v>17500</v>
       </c>
       <c r="P222" t="n">
-        <v>24500</v>
+        <v>17250</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1531</v>
+        <v>1078</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N223" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O223" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P223" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N224" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O224" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P224" t="n">
-        <v>25500</v>
+        <v>20000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18302,11 +18302,11 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1594</v>
+        <v>1250</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N225" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O225" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P225" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1312</v>
+        <v>1594</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44370</v>
+        <v>44272</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N226" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O226" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P226" t="n">
-        <v>11500</v>
+        <v>21000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>719</v>
+        <v>1312</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44230</v>
+        <v>44370</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18527,13 +18527,13 @@
         <v>300</v>
       </c>
       <c r="N227" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O227" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="P227" t="n">
-        <v>24500</v>
+        <v>11500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1531</v>
+        <v>719</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N228" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O228" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P228" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>1200</v>
+        <v>150</v>
       </c>
       <c r="N229" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="O229" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="P229" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1531</v>
+        <v>1250</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44355</v>
+        <v>44232</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N230" t="n">
-        <v>13000</v>
+        <v>24500</v>
       </c>
       <c r="O230" t="n">
-        <v>14000</v>
+        <v>24500</v>
       </c>
       <c r="P230" t="n">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>844</v>
+        <v>1531</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N231" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O231" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P231" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44286</v>
+        <v>44355</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N232" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O232" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P232" t="n">
-        <v>21500</v>
+        <v>11000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1344</v>
+        <v>688</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44217</v>
+        <v>44286</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N233" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O233" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P233" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19022,11 +19022,11 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1469</v>
+        <v>1344</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N234" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O234" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P234" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1188</v>
+        <v>1469</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N235" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O235" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P235" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19182,11 +19182,11 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1094</v>
+        <v>1188</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N236" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O236" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P236" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44223</v>
+        <v>44343</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M237" t="n">
         <v>300</v>
       </c>
       <c r="N237" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O237" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P237" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19342,11 +19342,11 @@
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1406</v>
+        <v>938</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44376</v>
+        <v>44223</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N238" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O238" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="P238" t="n">
-        <v>9500</v>
+        <v>22500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19422,11 +19422,11 @@
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S238" t="n">
-        <v>594</v>
+        <v>1406</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N239" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O239" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P239" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="N240" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O240" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P240" t="n">
-        <v>24500</v>
+        <v>7000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19582,11 +19582,11 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1531</v>
+        <v>438</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N241" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O241" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P241" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N242" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O242" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P242" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1094</v>
+        <v>1250</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19804,7 +19804,7 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N243" t="n">
         <v>17000</v>
@@ -19822,7 +19822,7 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S243" t="n">
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N244" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O244" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P244" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N245" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="O245" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P245" t="n">
-        <v>12250</v>
+        <v>15000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>766</v>
+        <v>938</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N246" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O246" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P246" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>859</v>
+        <v>766</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44418</v>
+        <v>44168</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N247" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O247" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P247" t="n">
-        <v>8000</v>
+        <v>13750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>500</v>
+        <v>859</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20200,33 +20200,33 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M248" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N248" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O248" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P248" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S248" t="n">
         <v>500</v>
-      </c>
-      <c r="N248" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O248" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P248" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q248" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R248" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S248" t="n">
-        <v>438</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,68 +20247,148 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E249" t="n">
+        <v>10</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>500</v>
+      </c>
+      <c r="N249" t="n">
+        <v>7000</v>
+      </c>
+      <c r="O249" t="n">
+        <v>7000</v>
+      </c>
+      <c r="P249" t="n">
+        <v>7000</v>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S249" t="n">
+        <v>438</v>
+      </c>
+      <c r="T249" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>4</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E249" t="n">
-        <v>10</v>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G249" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I249" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="E250" t="n">
+        <v>10</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr">
         <is>
           <t>1a amarillo</t>
         </is>
       </c>
-      <c r="M249" t="n">
+      <c r="M250" t="n">
         <v>1500</v>
       </c>
-      <c r="N249" t="n">
+      <c r="N250" t="n">
         <v>8000</v>
       </c>
-      <c r="O249" t="n">
+      <c r="O250" t="n">
         <v>8000</v>
       </c>
-      <c r="P249" t="n">
+      <c r="P250" t="n">
         <v>8000</v>
       </c>
-      <c r="Q249" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R249" t="inlineStr">
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S249" t="n">
+      <c r="S250" t="n">
         <v>500</v>
       </c>
-      <c r="T249" t="n">
+      <c r="T250" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T254"/>
+  <dimension ref="A1:T255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="N138" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O138" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="P138" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1500</v>
+        <v>469</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44292</v>
+        <v>44267</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11484,16 +11484,16 @@
         </is>
       </c>
       <c r="M139" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="N139" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O139" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P139" t="n">
-        <v>22500</v>
+        <v>24000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1406</v>
+        <v>1500</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N140" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O140" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P140" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1188</v>
+        <v>1406</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44259</v>
+        <v>44292</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N141" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="O141" t="n">
-        <v>27000</v>
+        <v>19000</v>
       </c>
       <c r="P141" t="n">
-        <v>26500</v>
+        <v>19000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1656</v>
+        <v>1188</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44392</v>
+        <v>44259</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="N142" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="O142" t="n">
-        <v>8500</v>
+        <v>27000</v>
       </c>
       <c r="P142" t="n">
-        <v>8250</v>
+        <v>26500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>516</v>
+        <v>1656</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44224</v>
+        <v>44392</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="N143" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O143" t="n">
-        <v>23000</v>
+        <v>8500</v>
       </c>
       <c r="P143" t="n">
-        <v>22500</v>
+        <v>8250</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11822,11 +11822,11 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1406</v>
+        <v>516</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N144" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O144" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P144" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1188</v>
+        <v>1406</v>
       </c>
       <c r="T144" t="n">
         <v>16</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44217</v>
+        <v>44224</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N145" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O145" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="P145" t="n">
-        <v>23500</v>
+        <v>19000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1469</v>
+        <v>1188</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N146" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O146" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P146" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1188</v>
+        <v>1469</v>
       </c>
       <c r="T146" t="n">
         <v>16</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44295</v>
+        <v>44217</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N147" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O147" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="P147" t="n">
-        <v>22500</v>
+        <v>19000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12142,11 +12142,11 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1406</v>
+        <v>1188</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N148" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O148" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P148" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1188</v>
+        <v>1406</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44179</v>
+        <v>44295</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N149" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O149" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P149" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12302,11 +12302,11 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1094</v>
+        <v>1188</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44362</v>
+        <v>44179</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N150" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="O150" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P150" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>719</v>
+        <v>1094</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N151" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O151" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P151" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44249</v>
+        <v>44362</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N152" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="O152" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P152" t="n">
-        <v>23750</v>
+        <v>8000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12542,11 +12542,11 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1484</v>
+        <v>500</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44309</v>
+        <v>44249</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N153" t="n">
-        <v>23000</v>
+        <v>23500</v>
       </c>
       <c r="O153" t="n">
         <v>24000</v>
       </c>
       <c r="P153" t="n">
-        <v>23500</v>
+        <v>23750</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1469</v>
+        <v>1484</v>
       </c>
       <c r="T153" t="n">
         <v>16</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="N154" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O154" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P154" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1188</v>
+        <v>1469</v>
       </c>
       <c r="T154" t="n">
         <v>16</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44168</v>
+        <v>44309</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>800</v>
+        <v>350</v>
       </c>
       <c r="N155" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O155" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="P155" t="n">
-        <v>12250</v>
+        <v>19000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>766</v>
+        <v>1188</v>
       </c>
       <c r="T155" t="n">
         <v>16</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N156" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O156" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P156" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>859</v>
+        <v>766</v>
       </c>
       <c r="T156" t="n">
         <v>16</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44322</v>
+        <v>44168</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N157" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="O157" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P157" t="n">
-        <v>21500</v>
+        <v>13750</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1344</v>
+        <v>859</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N158" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O158" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P158" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44272</v>
+        <v>44322</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M159" t="n">
         <v>200</v>
       </c>
       <c r="N159" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O159" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="P159" t="n">
-        <v>25500</v>
+        <v>19000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1594</v>
+        <v>1188</v>
       </c>
       <c r="T159" t="n">
         <v>16</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N160" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O160" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P160" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>1312</v>
+        <v>1594</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44196</v>
+        <v>44272</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N161" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O161" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="P161" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13262,11 +13262,11 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1688</v>
+        <v>1312</v>
       </c>
       <c r="T161" t="n">
         <v>16</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M162" t="n">
         <v>200</v>
       </c>
       <c r="N162" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="O162" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="P162" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1625</v>
+        <v>1688</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="O163" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="P163" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1375</v>
+        <v>1625</v>
       </c>
       <c r="T163" t="n">
         <v>16</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44365</v>
+        <v>44196</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N164" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="O164" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P164" t="n">
-        <v>11500</v>
+        <v>22000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13502,11 +13502,11 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>719</v>
+        <v>1375</v>
       </c>
       <c r="T164" t="n">
         <v>16</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N165" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O165" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P165" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44235</v>
+        <v>44365</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N166" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="O166" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="P166" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44358</v>
+        <v>44235</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>24500</v>
       </c>
       <c r="O167" t="n">
-        <v>13000</v>
+        <v>24500</v>
       </c>
       <c r="P167" t="n">
-        <v>12500</v>
+        <v>24500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>781</v>
+        <v>1531</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N168" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O168" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P168" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>562</v>
+        <v>781</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N169" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="O169" t="n">
-        <v>23500</v>
+        <v>9000</v>
       </c>
       <c r="P169" t="n">
-        <v>23250</v>
+        <v>9000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1453</v>
+        <v>562</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N170" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O170" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="P170" t="n">
-        <v>19000</v>
+        <v>23250</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1188</v>
+        <v>1453</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N171" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O171" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P171" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44397</v>
+        <v>44433</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="N172" t="n">
         <v>8000</v>
       </c>
       <c r="O172" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="P172" t="n">
-        <v>8533</v>
+        <v>8000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44274</v>
+        <v>44397</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="N173" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O173" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P173" t="n">
-        <v>24000</v>
+        <v>8533</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1500</v>
+        <v>533</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N174" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O174" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P174" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1344</v>
+        <v>1500</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N175" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O175" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P175" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N176" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O176" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P176" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1094</v>
+        <v>1188</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N177" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O177" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P177" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T177" t="n">
         <v>16</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O178" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P178" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T178" t="n">
         <v>16</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N179" t="n">
         <v>8000</v>
@@ -14760,33 +14760,33 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N180" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O180" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P180" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S180" t="n">
         <v>500</v>
-      </c>
-      <c r="N180" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O180" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P180" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q180" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R180" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S180" t="n">
-        <v>438</v>
       </c>
       <c r="T180" t="n">
         <v>16</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N181" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O181" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P181" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N182" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O182" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P182" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14942,11 +14942,11 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
         <v>16</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N183" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O183" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P183" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1188</v>
+        <v>1469</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O184" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P184" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N185" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O185" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P185" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N186" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="O186" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P186" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1406</v>
+        <v>1250</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N187" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O187" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P187" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1188</v>
+        <v>1406</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44264</v>
+        <v>44222</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N188" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O188" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P188" t="n">
-        <v>24750</v>
+        <v>19000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1547</v>
+        <v>1188</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N189" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O189" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P189" t="n">
-        <v>20000</v>
+        <v>24750</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1250</v>
+        <v>1547</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N190" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="O190" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P190" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>906</v>
+        <v>1250</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N191" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="O191" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P191" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>750</v>
+        <v>906</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>26500</v>
+        <v>12000</v>
       </c>
       <c r="O192" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="P192" t="n">
-        <v>26750</v>
+        <v>12000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1672</v>
+        <v>750</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N193" t="n">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="O193" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="P193" t="n">
-        <v>21000</v>
+        <v>26750</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1312</v>
+        <v>1672</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N194" t="n">
         <v>21000</v>
       </c>
       <c r="O194" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P194" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1344</v>
+        <v>1312</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N195" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O195" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P195" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N196" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O196" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P196" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16062,11 +16062,11 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N197" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O197" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P197" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N198" t="n">
-        <v>26500</v>
+        <v>20000</v>
       </c>
       <c r="O198" t="n">
-        <v>27000</v>
+        <v>20000</v>
       </c>
       <c r="P198" t="n">
-        <v>26750</v>
+        <v>20000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16222,11 +16222,11 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1672</v>
+        <v>1250</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N199" t="n">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="O199" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="P199" t="n">
-        <v>21000</v>
+        <v>26750</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1312</v>
+        <v>1672</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N200" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O200" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P200" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N201" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O201" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P201" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N202" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="O202" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="P202" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1062</v>
+        <v>406</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M203" t="n">
         <v>1000</v>
       </c>
       <c r="N203" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O203" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P203" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>500</v>
+        <v>1062</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16680,33 +16680,33 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N204" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O204" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P204" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S204" t="n">
         <v>500</v>
-      </c>
-      <c r="N204" t="n">
-        <v>6500</v>
-      </c>
-      <c r="O204" t="n">
-        <v>6500</v>
-      </c>
-      <c r="P204" t="n">
-        <v>6500</v>
-      </c>
-      <c r="Q204" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R204" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S204" t="n">
-        <v>406</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44176</v>
+        <v>44414</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="N205" t="n">
-        <v>17000</v>
+        <v>6500</v>
       </c>
       <c r="O205" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="P205" t="n">
-        <v>17500</v>
+        <v>6500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1094</v>
+        <v>406</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="N206" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O206" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P206" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>500</v>
+        <v>1094</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N207" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O207" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P207" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44432</v>
+        <v>44417</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>1500</v>
+        <v>150</v>
       </c>
       <c r="N208" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O208" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P208" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="T208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N209" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O209" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P209" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N210" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O210" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P210" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N211" t="n">
         <v>11000</v>
       </c>
       <c r="O211" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P211" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N212" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O212" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P212" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N213" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="O213" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P213" t="n">
-        <v>26750</v>
+        <v>8000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1672</v>
+        <v>500</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N214" t="n">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="O214" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="P214" t="n">
-        <v>21000</v>
+        <v>26750</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1312</v>
+        <v>1672</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N215" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O215" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="P215" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1500</v>
+        <v>1312</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44342</v>
+        <v>44273</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="N216" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="O216" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="P216" t="n">
-        <v>17500</v>
+        <v>24000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1094</v>
+        <v>1500</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="N217" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="O217" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P217" t="n">
-        <v>9500</v>
+        <v>17500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>594</v>
+        <v>1094</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N218" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O218" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P218" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N219" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O219" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P219" t="n">
-        <v>21500</v>
+        <v>7000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1344</v>
+        <v>438</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="N220" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O220" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P220" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N221" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O221" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="P221" t="n">
-        <v>23500</v>
+        <v>19000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1469</v>
+        <v>1188</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N222" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O222" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P222" t="n">
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1312</v>
+        <v>1469</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N223" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O223" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="P223" t="n">
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>531</v>
+        <v>1312</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N224" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O224" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P224" t="n">
-        <v>7250</v>
+        <v>8500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N225" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O225" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P225" t="n">
-        <v>8000</v>
+        <v>7250</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18440,33 +18440,33 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M226" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N226" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O226" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P226" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S226" t="n">
         <v>500</v>
-      </c>
-      <c r="N226" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O226" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P226" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q226" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R226" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S226" t="n">
-        <v>438</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N227" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="O227" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="P227" t="n">
-        <v>23500</v>
+        <v>7000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1469</v>
+        <v>438</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N228" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O228" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P228" t="n">
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1312</v>
+        <v>1469</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N229" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O229" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P229" t="n">
-        <v>19500</v>
+        <v>21000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1219</v>
+        <v>1312</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="N230" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O230" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P230" t="n">
-        <v>17000</v>
+        <v>19500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1062</v>
+        <v>1219</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44161</v>
+        <v>44329</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N231" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O231" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="P231" t="n">
-        <v>12250</v>
+        <v>17000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>766</v>
+        <v>1062</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N232" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O232" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P232" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19000,7 +19000,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19084,7 +19084,7 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N234" t="n">
         <v>8000</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N235" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O235" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P235" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N236" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O236" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P236" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19320,33 +19320,33 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M237" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N237" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O237" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P237" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S237" t="n">
         <v>500</v>
-      </c>
-      <c r="N237" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O237" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P237" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q237" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R237" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S237" t="n">
-        <v>438</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>3050</v>
+        <v>500</v>
       </c>
       <c r="N238" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O238" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P238" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19480,33 +19480,33 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M239" t="n">
+        <v>3050</v>
+      </c>
+      <c r="N239" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O239" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P239" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S239" t="n">
         <v>500</v>
-      </c>
-      <c r="N239" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O239" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P239" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q239" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R239" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S239" t="n">
-        <v>438</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N240" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O240" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P240" t="n">
-        <v>21500</v>
+        <v>7000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1344</v>
+        <v>438</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N241" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O241" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P241" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N242" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O242" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="P242" t="n">
-        <v>9500</v>
+        <v>19000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>594</v>
+        <v>1188</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N243" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O243" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P243" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N244" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O244" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P244" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N245" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O245" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P245" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N246" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O246" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P246" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1406</v>
+        <v>438</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N247" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O247" t="n">
         <v>23000</v>
       </c>
-      <c r="O247" t="n">
-        <v>24000</v>
-      </c>
       <c r="P247" t="n">
-        <v>23500</v>
+        <v>22500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1469</v>
+        <v>1406</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N248" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O248" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P248" t="n">
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1312</v>
+        <v>1469</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44167</v>
+        <v>44314</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="N249" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="O249" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="P249" t="n">
-        <v>12250</v>
+        <v>21000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>766</v>
+        <v>1312</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N250" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O250" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P250" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>859</v>
+        <v>766</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N251" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="O251" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P251" t="n">
-        <v>24750</v>
+        <v>13750</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1547</v>
+        <v>859</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>500</v>
       </c>
       <c r="N252" t="n">
-        <v>8500</v>
+        <v>24500</v>
       </c>
       <c r="O252" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P252" t="n">
-        <v>8750</v>
+        <v>24750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>547</v>
+        <v>1547</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N253" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O253" t="n">
         <v>9000</v>
       </c>
       <c r="P253" t="n">
-        <v>8500</v>
+        <v>8750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>531</v>
+        <v>547</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20680,35 +20680,115 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N254" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O254" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P254" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S254" t="n">
+        <v>531</v>
+      </c>
+      <c r="T254" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>4</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E255" t="n">
+        <v>10</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G255" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
           <t>2a amarillo</t>
         </is>
       </c>
-      <c r="M254" t="n">
+      <c r="M255" t="n">
         <v>500</v>
       </c>
-      <c r="N254" t="n">
+      <c r="N255" t="n">
         <v>7500</v>
       </c>
-      <c r="O254" t="n">
+      <c r="O255" t="n">
         <v>7500</v>
       </c>
-      <c r="P254" t="n">
+      <c r="P255" t="n">
         <v>7500</v>
       </c>
-      <c r="Q254" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R254" t="inlineStr">
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S254" t="n">
+      <c r="S255" t="n">
         <v>469</v>
       </c>
-      <c r="T254" t="n">
+      <c r="T255" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T255"/>
+  <dimension ref="A1:T257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N250" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O250" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="P250" t="n">
-        <v>12250</v>
+        <v>8500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>766</v>
+        <v>531</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N251" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="O251" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P251" t="n">
-        <v>13750</v>
+        <v>7500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>859</v>
+        <v>469</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N252" t="n">
-        <v>24500</v>
+        <v>12000</v>
       </c>
       <c r="O252" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="P252" t="n">
-        <v>24750</v>
+        <v>12250</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1547</v>
+        <v>766</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N253" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="O253" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P253" t="n">
-        <v>8750</v>
+        <v>13750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>547</v>
+        <v>859</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N254" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="O254" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P254" t="n">
-        <v>8500</v>
+        <v>24750</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>531</v>
+        <v>1547</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20760,35 +20760,195 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M255" t="n">
         <v>500</v>
       </c>
       <c r="N255" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O255" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P255" t="n">
+        <v>8750</v>
+      </c>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S255" t="n">
+        <v>547</v>
+      </c>
+      <c r="T255" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>4</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E256" t="n">
+        <v>10</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G256" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N256" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O256" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P256" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S256" t="n">
+        <v>531</v>
+      </c>
+      <c r="T256" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>4</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E257" t="n">
+        <v>10</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G257" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>500</v>
+      </c>
+      <c r="N257" t="n">
         <v>7500</v>
       </c>
-      <c r="O255" t="n">
+      <c r="O257" t="n">
         <v>7500</v>
       </c>
-      <c r="P255" t="n">
+      <c r="P257" t="n">
         <v>7500</v>
       </c>
-      <c r="Q255" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R255" t="inlineStr">
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S255" t="n">
+      <c r="S257" t="n">
         <v>469</v>
       </c>
-      <c r="T255" t="n">
+      <c r="T257" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T257"/>
+  <dimension ref="A1:T259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N232" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O232" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="P232" t="n">
-        <v>12250</v>
+        <v>8000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>766</v>
+        <v>500</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N233" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O233" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P233" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N234" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O234" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P234" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19160,11 +19160,11 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N235" t="n">
         <v>8000</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O236" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P236" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19324,7 +19324,7 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N237" t="n">
         <v>8000</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19404,7 +19404,7 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N238" t="n">
         <v>7000</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19484,7 +19484,7 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>3050</v>
+        <v>1000</v>
       </c>
       <c r="N239" t="n">
         <v>8000</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>400</v>
+        <v>3050</v>
       </c>
       <c r="N241" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O241" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P241" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N242" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O242" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P242" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N243" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O243" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P243" t="n">
-        <v>9500</v>
+        <v>21500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>594</v>
+        <v>1344</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N244" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O244" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="P244" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>438</v>
+        <v>1188</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="N245" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O245" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P245" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20040,11 +20040,11 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N246" t="n">
         <v>7000</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N247" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O247" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P247" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1406</v>
+        <v>500</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N248" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="O248" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="P248" t="n">
-        <v>23500</v>
+        <v>7000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1469</v>
+        <v>438</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N249" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O249" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P249" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20302,11 +20302,11 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1312</v>
+        <v>1406</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N250" t="n">
-        <v>8500</v>
+        <v>23000</v>
       </c>
       <c r="O250" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="P250" t="n">
-        <v>8500</v>
+        <v>23500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>531</v>
+        <v>1469</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N251" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O251" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="P251" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>469</v>
+        <v>1312</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N252" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O252" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="P252" t="n">
-        <v>12250</v>
+        <v>8500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>766</v>
+        <v>531</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N253" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="O253" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P253" t="n">
-        <v>13750</v>
+        <v>7500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>859</v>
+        <v>469</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N254" t="n">
-        <v>24500</v>
+        <v>12000</v>
       </c>
       <c r="O254" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="P254" t="n">
-        <v>24750</v>
+        <v>12250</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1547</v>
+        <v>766</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N255" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="O255" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P255" t="n">
-        <v>8750</v>
+        <v>13750</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>547</v>
+        <v>859</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N256" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="O256" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P256" t="n">
-        <v>8500</v>
+        <v>24750</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>531</v>
+        <v>1547</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20920,35 +20920,195 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>500</v>
       </c>
       <c r="N257" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O257" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P257" t="n">
+        <v>8750</v>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S257" t="n">
+        <v>547</v>
+      </c>
+      <c r="T257" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>4</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E258" t="n">
+        <v>10</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G258" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N258" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O258" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P258" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S258" t="n">
+        <v>531</v>
+      </c>
+      <c r="T258" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>4</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E259" t="n">
+        <v>10</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G259" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M259" t="n">
+        <v>500</v>
+      </c>
+      <c r="N259" t="n">
         <v>7500</v>
       </c>
-      <c r="O257" t="n">
+      <c r="O259" t="n">
         <v>7500</v>
       </c>
-      <c r="P257" t="n">
+      <c r="P259" t="n">
         <v>7500</v>
       </c>
-      <c r="Q257" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R257" t="inlineStr">
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S257" t="n">
+      <c r="S259" t="n">
         <v>469</v>
       </c>
-      <c r="T257" t="n">
+      <c r="T259" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T259"/>
+  <dimension ref="A1:T261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O168" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="P168" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>781</v>
+        <v>531</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="O169" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="P169" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>562</v>
+        <v>469</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N170" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="O170" t="n">
-        <v>23500</v>
+        <v>13000</v>
       </c>
       <c r="P170" t="n">
-        <v>23250</v>
+        <v>12500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1453</v>
+        <v>781</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N171" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O171" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P171" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1188</v>
+        <v>562</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44433</v>
+        <v>44218</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="N172" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O172" t="n">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="P172" t="n">
-        <v>8000</v>
+        <v>23250</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>500</v>
+        <v>1453</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44397</v>
+        <v>44218</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="N173" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O173" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P173" t="n">
-        <v>8533</v>
+        <v>19000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>533</v>
+        <v>1188</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44274</v>
+        <v>44433</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="N174" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O174" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P174" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44321</v>
+        <v>44397</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="N175" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O175" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P175" t="n">
-        <v>21500</v>
+        <v>8533</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1344</v>
+        <v>533</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44321</v>
+        <v>44274</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N176" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O176" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P176" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1188</v>
+        <v>1500</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14527,13 +14527,13 @@
         <v>400</v>
       </c>
       <c r="N177" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O177" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P177" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1094</v>
+        <v>1344</v>
       </c>
       <c r="T177" t="n">
         <v>16</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44335</v>
+        <v>44321</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14607,13 +14607,13 @@
         <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O178" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P178" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T178" t="n">
         <v>16</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44426</v>
+        <v>44335</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>500</v>
+        <v>1094</v>
       </c>
       <c r="T179" t="n">
         <v>16</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44421</v>
+        <v>44335</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N180" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O180" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P180" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T180" t="n">
         <v>16</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44421</v>
+        <v>44426</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14840,33 +14840,33 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M181" t="n">
+        <v>150</v>
+      </c>
+      <c r="N181" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O181" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P181" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S181" t="n">
         <v>500</v>
-      </c>
-      <c r="N181" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O181" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P181" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R181" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S181" t="n">
-        <v>438</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14924,7 +14924,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N182" t="n">
         <v>8000</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44215</v>
+        <v>44421</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N183" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="O183" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="P183" t="n">
-        <v>23500</v>
+        <v>7000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1469</v>
+        <v>438</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N184" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O184" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P184" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N185" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O185" t="n">
         <v>24000</v>
       </c>
-      <c r="O185" t="n">
-        <v>25000</v>
-      </c>
       <c r="P185" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1531</v>
+        <v>1469</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O186" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P186" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="N187" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O187" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P187" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1406</v>
+        <v>1531</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15407,13 +15407,13 @@
         <v>400</v>
       </c>
       <c r="N188" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O188" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P188" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44264</v>
+        <v>44222</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="N189" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="O189" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P189" t="n">
-        <v>24750</v>
+        <v>22500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15502,11 +15502,11 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1547</v>
+        <v>1406</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44264</v>
+        <v>44222</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N190" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O190" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P190" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N191" t="n">
-        <v>14000</v>
+        <v>24500</v>
       </c>
       <c r="O191" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P191" t="n">
-        <v>14500</v>
+        <v>24750</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>906</v>
+        <v>1547</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15727,13 +15727,13 @@
         <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O192" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P192" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N193" t="n">
-        <v>26500</v>
+        <v>14000</v>
       </c>
       <c r="O193" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P193" t="n">
-        <v>26750</v>
+        <v>14500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1672</v>
+        <v>906</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N194" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="O194" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P194" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1312</v>
+        <v>750</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N195" t="n">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="O195" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P195" t="n">
-        <v>21500</v>
+        <v>26750</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1344</v>
+        <v>1672</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N196" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O196" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P196" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1188</v>
+        <v>1312</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N197" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O197" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P197" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16142,11 +16142,11 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1531</v>
+        <v>1344</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N198" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O198" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P198" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16222,11 +16222,11 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N199" t="n">
-        <v>26500</v>
+        <v>24000</v>
       </c>
       <c r="O199" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P199" t="n">
-        <v>26750</v>
+        <v>24500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16302,11 +16302,11 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1672</v>
+        <v>1531</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N200" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O200" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P200" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1312</v>
+        <v>1250</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N201" t="n">
-        <v>8000</v>
+        <v>26500</v>
       </c>
       <c r="O201" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="P201" t="n">
-        <v>8000</v>
+        <v>26750</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>500</v>
+        <v>1672</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N202" t="n">
-        <v>6500</v>
+        <v>21000</v>
       </c>
       <c r="O202" t="n">
-        <v>6500</v>
+        <v>21000</v>
       </c>
       <c r="P202" t="n">
-        <v>6500</v>
+        <v>21000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>406</v>
+        <v>1312</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N203" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O203" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P203" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1062</v>
+        <v>500</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44414</v>
+        <v>44427</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N204" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O204" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P204" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N205" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="O205" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="P205" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>406</v>
+        <v>1062</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44176</v>
+        <v>44414</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N206" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O206" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P206" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44417</v>
+        <v>44414</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N207" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="O207" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="P207" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>150</v>
+        <v>1100</v>
       </c>
       <c r="N208" t="n">
-        <v>6500</v>
+        <v>17000</v>
       </c>
       <c r="O208" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="P208" t="n">
-        <v>6500</v>
+        <v>17500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17022,11 +17022,11 @@
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>406</v>
+        <v>1094</v>
       </c>
       <c r="T208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44432</v>
+        <v>44417</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="N209" t="n">
         <v>8000</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44351</v>
+        <v>44417</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N210" t="n">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="O210" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="P210" t="n">
-        <v>13500</v>
+        <v>6500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>844</v>
+        <v>406</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44351</v>
+        <v>44432</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="N211" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O211" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P211" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N212" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O212" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P212" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17407,13 +17407,13 @@
         <v>300</v>
       </c>
       <c r="N213" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O213" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P213" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N214" t="n">
-        <v>26500</v>
+        <v>11000</v>
       </c>
       <c r="O214" t="n">
-        <v>27000</v>
+        <v>12000</v>
       </c>
       <c r="P214" t="n">
-        <v>26750</v>
+        <v>11500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1672</v>
+        <v>719</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17567,13 +17567,13 @@
         <v>300</v>
       </c>
       <c r="N215" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O215" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P215" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1312</v>
+        <v>500</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="N216" t="n">
-        <v>24000</v>
+        <v>26500</v>
       </c>
       <c r="O216" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="P216" t="n">
-        <v>24000</v>
+        <v>26750</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1500</v>
+        <v>1672</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44342</v>
+        <v>44257</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N217" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O217" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P217" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1094</v>
+        <v>1312</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44379</v>
+        <v>44273</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="N218" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O218" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="P218" t="n">
-        <v>9500</v>
+        <v>24000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>594</v>
+        <v>1500</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44379</v>
+        <v>44342</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N219" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O219" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P219" t="n">
-        <v>7000</v>
+        <v>17500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>438</v>
+        <v>1094</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17967,13 +17967,13 @@
         <v>1200</v>
       </c>
       <c r="N220" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O220" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P220" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1344</v>
+        <v>594</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N221" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O221" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P221" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="N222" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O222" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P222" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1469</v>
+        <v>1344</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N223" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O223" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P223" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1312</v>
+        <v>1188</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N224" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O224" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="P224" t="n">
-        <v>8500</v>
+        <v>23500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>531</v>
+        <v>1469</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N225" t="n">
-        <v>7000</v>
+        <v>21000</v>
       </c>
       <c r="O225" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="P225" t="n">
-        <v>7250</v>
+        <v>21000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>453</v>
+        <v>1312</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N226" t="n">
         <v>8000</v>
       </c>
       <c r="O226" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P226" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44411</v>
+        <v>44446</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N227" t="n">
         <v>7000</v>
       </c>
       <c r="O227" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P227" t="n">
-        <v>7000</v>
+        <v>7250</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N228" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O228" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P228" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44313</v>
+        <v>44411</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N229" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O229" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P229" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N230" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O230" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P230" t="n">
-        <v>19500</v>
+        <v>23500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1219</v>
+        <v>1469</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N231" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O231" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P231" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1062</v>
+        <v>1312</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N232" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O232" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P232" t="n">
-        <v>8000</v>
+        <v>19500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>500</v>
+        <v>1219</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N233" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="O233" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="P233" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>438</v>
+        <v>1062</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O234" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="P234" t="n">
-        <v>12250</v>
+        <v>8000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>766</v>
+        <v>500</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N235" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O235" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P235" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N236" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P236" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44428</v>
+        <v>44161</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19320,11 +19320,11 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
         <v>8000</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N238" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O238" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P238" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19484,7 +19484,7 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N239" t="n">
         <v>8000</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N240" t="n">
         <v>7000</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19644,7 +19644,7 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>3050</v>
+        <v>1000</v>
       </c>
       <c r="N241" t="n">
         <v>8000</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>400</v>
+        <v>3050</v>
       </c>
       <c r="N243" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O243" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P243" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N244" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O244" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P244" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N245" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="O245" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="P245" t="n">
-        <v>9500</v>
+        <v>21500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>594</v>
+        <v>1344</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N246" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O246" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="P246" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>438</v>
+        <v>1188</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="N247" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O247" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P247" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20200,11 +20200,11 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N248" t="n">
         <v>7000</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N249" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O249" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20302,11 +20302,11 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1406</v>
+        <v>500</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N250" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="O250" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="P250" t="n">
-        <v>23500</v>
+        <v>7000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1469</v>
+        <v>438</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N251" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O251" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="P251" t="n">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1312</v>
+        <v>1406</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N252" t="n">
-        <v>8500</v>
+        <v>23000</v>
       </c>
       <c r="O252" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="P252" t="n">
-        <v>8500</v>
+        <v>23500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>531</v>
+        <v>1469</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N253" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="O253" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="P253" t="n">
-        <v>7500</v>
+        <v>21000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>469</v>
+        <v>1312</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N254" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="O254" t="n">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="P254" t="n">
-        <v>12250</v>
+        <v>8500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>766</v>
+        <v>531</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N255" t="n">
-        <v>13500</v>
+        <v>7500</v>
       </c>
       <c r="O255" t="n">
-        <v>14000</v>
+        <v>7500</v>
       </c>
       <c r="P255" t="n">
-        <v>13750</v>
+        <v>7500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>859</v>
+        <v>469</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N256" t="n">
-        <v>24500</v>
+        <v>12000</v>
       </c>
       <c r="O256" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="P256" t="n">
-        <v>24750</v>
+        <v>12250</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1547</v>
+        <v>766</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44399</v>
+        <v>44167</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N257" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="O257" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="P257" t="n">
-        <v>8750</v>
+        <v>13750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>547</v>
+        <v>859</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N258" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="O258" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P258" t="n">
-        <v>8500</v>
+        <v>24750</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>531</v>
+        <v>1547</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21080,35 +21080,195 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>500</v>
       </c>
       <c r="N259" t="n">
+        <v>8500</v>
+      </c>
+      <c r="O259" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P259" t="n">
+        <v>8750</v>
+      </c>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S259" t="n">
+        <v>547</v>
+      </c>
+      <c r="T259" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>4</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E260" t="n">
+        <v>10</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G260" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>1a amarillo</t>
+        </is>
+      </c>
+      <c r="M260" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N260" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O260" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P260" t="n">
+        <v>8500</v>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S260" t="n">
+        <v>531</v>
+      </c>
+      <c r="T260" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>4</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E261" t="n">
+        <v>10</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>500</v>
+      </c>
+      <c r="N261" t="n">
         <v>7500</v>
       </c>
-      <c r="O259" t="n">
+      <c r="O261" t="n">
         <v>7500</v>
       </c>
-      <c r="P259" t="n">
+      <c r="P261" t="n">
         <v>7500</v>
       </c>
-      <c r="Q259" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R259" t="inlineStr">
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S259" t="n">
+      <c r="S261" t="n">
         <v>469</v>
       </c>
-      <c r="T259" t="n">
+      <c r="T261" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T261"/>
+  <dimension ref="A1:T263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14204,32 +14204,32 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O173" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P173" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T173" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14284,32 +14284,32 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N174" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="O174" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="P174" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="T174" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14364,7 +14364,7 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N175" t="n">
         <v>8000</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14444,7 +14444,7 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N176" t="n">
         <v>6500</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="O177" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P177" t="n">
-        <v>14750</v>
+        <v>8000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14542,11 +14542,11 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>922</v>
+        <v>500</v>
       </c>
       <c r="T177" t="n">
         <v>16</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44249</v>
+        <v>44427</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N178" t="n">
-        <v>23500</v>
+        <v>6500</v>
       </c>
       <c r="O178" t="n">
-        <v>24000</v>
+        <v>6500</v>
       </c>
       <c r="P178" t="n">
-        <v>23750</v>
+        <v>6500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14622,11 +14622,11 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1484</v>
+        <v>406</v>
       </c>
       <c r="T178" t="n">
         <v>16</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44265</v>
+        <v>44172</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N179" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="O179" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P179" t="n">
-        <v>25000</v>
+        <v>14750</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14702,11 +14702,11 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1562</v>
+        <v>922</v>
       </c>
       <c r="T179" t="n">
         <v>16</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N180" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="O180" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="P180" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14782,11 +14782,11 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1531</v>
+        <v>1484</v>
       </c>
       <c r="T180" t="n">
         <v>16</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N181" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O181" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P181" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N182" t="n">
-        <v>17000</v>
+        <v>24500</v>
       </c>
       <c r="O182" t="n">
-        <v>18000</v>
+        <v>24500</v>
       </c>
       <c r="P182" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1094</v>
+        <v>1531</v>
       </c>
       <c r="T182" t="n">
         <v>16</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N183" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O183" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P183" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15087,13 +15087,13 @@
         <v>800</v>
       </c>
       <c r="N184" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O184" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P184" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15102,11 +15102,11 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -15167,13 +15167,13 @@
         <v>300</v>
       </c>
       <c r="N185" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O185" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P185" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N186" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="O186" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P186" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15262,11 +15262,11 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S186" t="n">
-        <v>469</v>
+        <v>1531</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44260</v>
+        <v>44201</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N187" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O187" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P187" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15342,11 +15342,11 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1562</v>
+        <v>1250</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="N188" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O188" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="P188" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1500</v>
+        <v>469</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N189" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O189" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P189" t="n">
-        <v>23500</v>
+        <v>25000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1469</v>
+        <v>1562</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N190" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O190" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P190" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1188</v>
+        <v>1500</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N191" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O191" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P191" t="n">
-        <v>18500</v>
+        <v>23500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1156</v>
+        <v>1469</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N192" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O192" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P192" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>875</v>
+        <v>1188</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="N193" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O193" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P193" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15822,11 +15822,11 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S193" t="n">
-        <v>500</v>
+        <v>1156</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N194" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O194" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P194" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>594</v>
+        <v>875</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15960,33 +15960,33 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M195" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N195" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O195" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P195" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S195" t="n">
         <v>500</v>
-      </c>
-      <c r="N195" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O195" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P195" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q195" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R195" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S195" t="n">
-        <v>438</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N196" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O196" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P196" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1344</v>
+        <v>594</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N197" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O197" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P197" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1125</v>
+        <v>438</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16207,13 +16207,13 @@
         <v>600</v>
       </c>
       <c r="N198" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="O198" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P198" t="n">
-        <v>24750</v>
+        <v>21500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1547</v>
+        <v>1344</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16287,13 +16287,13 @@
         <v>300</v>
       </c>
       <c r="N199" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O199" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P199" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N200" t="n">
-        <v>27000</v>
+        <v>24500</v>
       </c>
       <c r="O200" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P200" t="n">
-        <v>27000</v>
+        <v>24750</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1688</v>
+        <v>1547</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N201" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="O201" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P201" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1625</v>
+        <v>1250</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N202" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O202" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P202" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1375</v>
+        <v>1688</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N203" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="O203" t="n">
-        <v>24500</v>
+        <v>26000</v>
       </c>
       <c r="P203" t="n">
-        <v>24250</v>
+        <v>26000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1516</v>
+        <v>1625</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N204" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O204" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P204" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N205" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O205" t="n">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="P205" t="n">
-        <v>25500</v>
+        <v>24250</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16782,11 +16782,11 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1594</v>
+        <v>1516</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44168</v>
+        <v>44243</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N206" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O206" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P206" t="n">
-        <v>12250</v>
+        <v>20000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16862,11 +16862,11 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>766</v>
+        <v>1250</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N207" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O207" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P207" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16942,11 +16942,11 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>859</v>
+        <v>1594</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N208" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O208" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P208" t="n">
-        <v>11500</v>
+        <v>12250</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="T208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N209" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O209" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P209" t="n">
-        <v>8000</v>
+        <v>13750</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17102,11 +17102,11 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>500</v>
+        <v>859</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N210" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O210" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P210" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N211" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O211" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="P211" t="n">
-        <v>23250</v>
+        <v>8000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1453</v>
+        <v>500</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N212" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O212" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P212" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N213" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O213" t="n">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="P213" t="n">
-        <v>8000</v>
+        <v>23250</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>500</v>
+        <v>1453</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N214" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O214" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P214" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17564,29 +17564,29 @@
         </is>
       </c>
       <c r="M215" t="n">
+        <v>200</v>
+      </c>
+      <c r="N215" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O215" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P215" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S215" t="n">
         <v>500</v>
-      </c>
-      <c r="N215" t="n">
-        <v>19000</v>
-      </c>
-      <c r="O215" t="n">
-        <v>19000</v>
-      </c>
-      <c r="P215" t="n">
-        <v>19000</v>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R215" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S215" t="n">
-        <v>1188</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N216" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O216" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P216" t="n">
-        <v>8533</v>
+        <v>21500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>533</v>
+        <v>1344</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N217" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O217" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P217" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>719</v>
+        <v>1188</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="N218" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O218" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P218" t="n">
-        <v>24000</v>
+        <v>8533</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1500</v>
+        <v>533</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M219" t="n">
         <v>300</v>
       </c>
       <c r="N219" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O219" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P219" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N220" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O220" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P220" t="n">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>656</v>
+        <v>1500</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18040,7 +18040,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N222" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O222" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P222" t="n">
-        <v>21500</v>
+        <v>10500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1344</v>
+        <v>656</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N223" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O223" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P223" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M224" t="n">
         <v>200</v>
       </c>
       <c r="N224" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O224" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P224" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1250</v>
+        <v>1344</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18367,13 +18367,13 @@
         <v>400</v>
       </c>
       <c r="N225" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O225" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P225" t="n">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>844</v>
+        <v>1531</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18447,13 +18447,13 @@
         <v>200</v>
       </c>
       <c r="N226" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O226" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P226" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>688</v>
+        <v>1250</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N227" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O227" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P227" t="n">
-        <v>12250</v>
+        <v>13500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>766</v>
+        <v>844</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O228" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P228" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O229" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P229" t="n">
-        <v>13500</v>
+        <v>12250</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N230" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O230" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P230" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N231" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O231" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P231" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N233" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O233" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P233" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N234" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O234" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P234" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19167,13 +19167,13 @@
         <v>800</v>
       </c>
       <c r="N235" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O235" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P235" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19182,11 +19182,11 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1469</v>
+        <v>1344</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19247,13 +19247,13 @@
         <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O236" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P236" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19262,11 +19262,11 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N237" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O237" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P237" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19342,11 +19342,11 @@
       </c>
       <c r="R237" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S237" t="n">
-        <v>844</v>
+        <v>1469</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N238" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O238" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P238" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19422,11 +19422,11 @@
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S238" t="n">
-        <v>688</v>
+        <v>1188</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N239" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O239" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P239" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19502,11 +19502,11 @@
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1531</v>
+        <v>844</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19567,13 +19567,13 @@
         <v>200</v>
       </c>
       <c r="N240" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O240" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P240" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19582,11 +19582,11 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1250</v>
+        <v>688</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N241" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O241" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P241" t="n">
-        <v>12500</v>
+        <v>24500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19662,11 +19662,11 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>781</v>
+        <v>1531</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>200</v>
       </c>
       <c r="N242" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O242" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P242" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19742,11 +19742,11 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S242" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N243" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O243" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P243" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>500</v>
+        <v>781</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19884,29 +19884,29 @@
         </is>
       </c>
       <c r="M244" t="n">
+        <v>200</v>
+      </c>
+      <c r="N244" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O244" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P244" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S244" t="n">
         <v>500</v>
-      </c>
-      <c r="N244" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O244" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P244" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q244" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R244" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S244" t="n">
-        <v>438</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N245" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="O245" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P245" t="n">
-        <v>26750</v>
+        <v>8000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1672</v>
+        <v>500</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N246" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O246" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P246" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N247" t="n">
-        <v>17000</v>
+        <v>26500</v>
       </c>
       <c r="O247" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="P247" t="n">
-        <v>17500</v>
+        <v>26750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1094</v>
+        <v>1672</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N248" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O248" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P248" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N249" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O249" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P249" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1250</v>
+        <v>1094</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N250" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O250" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P250" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>594</v>
+        <v>1531</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N251" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O251" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P251" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="N252" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O252" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P252" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1406</v>
+        <v>594</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N253" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O253" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P253" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N254" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O254" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P254" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>781</v>
+        <v>1406</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N255" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O255" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P255" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>562</v>
+        <v>1188</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20847,13 +20847,13 @@
         <v>800</v>
       </c>
       <c r="N256" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O256" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P256" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20862,11 +20862,11 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1531</v>
+        <v>781</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N257" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O257" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P257" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1250</v>
+        <v>562</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N258" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O258" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P258" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N259" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="O259" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P259" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21102,11 +21102,11 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>406</v>
+        <v>1250</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N260" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O260" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P260" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1281</v>
+        <v>500</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21207,68 +21207,228 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E261" t="n">
+        <v>10</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G261" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M261" t="n">
+        <v>500</v>
+      </c>
+      <c r="N261" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O261" t="n">
+        <v>6500</v>
+      </c>
+      <c r="P261" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S261" t="n">
+        <v>406</v>
+      </c>
+      <c r="T261" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>4</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E261" t="n">
-        <v>10</v>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G261" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I261" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="E262" t="n">
+        <v>10</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G262" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M262" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N262" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O262" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P262" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S262" t="n">
+        <v>1281</v>
+      </c>
+      <c r="T262" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>4</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E263" t="n">
+        <v>10</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G263" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
         <is>
           <t>2a plateado</t>
         </is>
       </c>
-      <c r="M261" t="n">
+      <c r="M263" t="n">
         <v>400</v>
       </c>
-      <c r="N261" t="n">
+      <c r="N263" t="n">
         <v>17000</v>
       </c>
-      <c r="O261" t="n">
+      <c r="O263" t="n">
         <v>17000</v>
       </c>
-      <c r="P261" t="n">
+      <c r="P263" t="n">
         <v>17000</v>
       </c>
-      <c r="Q261" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R261" t="inlineStr">
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S261" t="n">
+      <c r="S263" t="n">
         <v>1062</v>
       </c>
-      <c r="T261" t="n">
+      <c r="T263" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T265"/>
+  <dimension ref="A1:T267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16684,32 +16684,32 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N204" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="O204" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="P204" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1688</v>
+        <v>556</v>
       </c>
       <c r="T204" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16760,36 +16760,36 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N205" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="O205" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="P205" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1625</v>
+        <v>500</v>
       </c>
       <c r="T205" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206">
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N206" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O206" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P206" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1375</v>
+        <v>1688</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N207" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="O207" t="n">
-        <v>24500</v>
+        <v>26000</v>
       </c>
       <c r="P207" t="n">
-        <v>24250</v>
+        <v>26000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1516</v>
+        <v>1625</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N208" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O208" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P208" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N209" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O209" t="n">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="P209" t="n">
-        <v>25500</v>
+        <v>24250</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17102,11 +17102,11 @@
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1594</v>
+        <v>1516</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44168</v>
+        <v>44243</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N210" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O210" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P210" t="n">
-        <v>12250</v>
+        <v>20000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17182,11 +17182,11 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S210" t="n">
-        <v>766</v>
+        <v>1250</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N211" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O211" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P211" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>859</v>
+        <v>1594</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N212" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O212" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P212" t="n">
-        <v>11500</v>
+        <v>12250</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N213" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O213" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P213" t="n">
-        <v>8000</v>
+        <v>13750</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>500</v>
+        <v>859</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N214" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O214" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P214" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N215" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O215" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="P215" t="n">
-        <v>23250</v>
+        <v>8000</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1453</v>
+        <v>500</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N216" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O216" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P216" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N217" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O217" t="n">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="P217" t="n">
-        <v>8000</v>
+        <v>23250</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>500</v>
+        <v>1453</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N218" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O218" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P218" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17884,29 +17884,29 @@
         </is>
       </c>
       <c r="M219" t="n">
+        <v>200</v>
+      </c>
+      <c r="N219" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O219" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P219" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S219" t="n">
         <v>500</v>
-      </c>
-      <c r="N219" t="n">
-        <v>19000</v>
-      </c>
-      <c r="O219" t="n">
-        <v>19000</v>
-      </c>
-      <c r="P219" t="n">
-        <v>19000</v>
-      </c>
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R219" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S219" t="n">
-        <v>1188</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N220" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O220" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P220" t="n">
-        <v>8533</v>
+        <v>21500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>533</v>
+        <v>1344</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N221" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O221" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P221" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>719</v>
+        <v>1188</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="N222" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O222" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P222" t="n">
-        <v>24000</v>
+        <v>8533</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1500</v>
+        <v>533</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M223" t="n">
         <v>300</v>
       </c>
       <c r="N223" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O223" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P223" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N224" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O224" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P224" t="n">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>656</v>
+        <v>1500</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18360,7 +18360,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M225" t="n">
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N226" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O226" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P226" t="n">
-        <v>21500</v>
+        <v>10500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1344</v>
+        <v>656</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N227" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O227" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P227" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M228" t="n">
         <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O228" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P228" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1250</v>
+        <v>1344</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18687,13 +18687,13 @@
         <v>400</v>
       </c>
       <c r="N229" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O229" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P229" t="n">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>844</v>
+        <v>1531</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -18767,13 +18767,13 @@
         <v>200</v>
       </c>
       <c r="N230" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O230" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P230" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>688</v>
+        <v>1250</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N231" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O231" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P231" t="n">
-        <v>12250</v>
+        <v>13500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>766</v>
+        <v>844</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P232" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N233" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O233" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P233" t="n">
-        <v>13500</v>
+        <v>12250</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N234" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O234" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P234" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N235" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O235" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P235" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O236" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P236" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N237" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O237" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P237" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N238" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O238" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P238" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19487,13 +19487,13 @@
         <v>800</v>
       </c>
       <c r="N239" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O239" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P239" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19502,11 +19502,11 @@
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1469</v>
+        <v>1344</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19567,13 +19567,13 @@
         <v>300</v>
       </c>
       <c r="N240" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O240" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P240" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19582,11 +19582,11 @@
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N241" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O241" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P241" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19662,11 +19662,11 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>844</v>
+        <v>1469</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N242" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O242" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P242" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19742,11 +19742,11 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S242" t="n">
-        <v>688</v>
+        <v>1188</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N243" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O243" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P243" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19822,11 +19822,11 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1531</v>
+        <v>844</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19887,13 +19887,13 @@
         <v>200</v>
       </c>
       <c r="N244" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O244" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P244" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19902,11 +19902,11 @@
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1250</v>
+        <v>688</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N245" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O245" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P245" t="n">
-        <v>12500</v>
+        <v>24500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>781</v>
+        <v>1531</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>200</v>
       </c>
       <c r="N246" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O246" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P246" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N247" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O247" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P247" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>500</v>
+        <v>781</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20204,29 +20204,29 @@
         </is>
       </c>
       <c r="M248" t="n">
+        <v>200</v>
+      </c>
+      <c r="N248" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O248" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P248" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S248" t="n">
         <v>500</v>
-      </c>
-      <c r="N248" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O248" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P248" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q248" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R248" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S248" t="n">
-        <v>438</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N249" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="O249" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>26750</v>
+        <v>8000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1672</v>
+        <v>500</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N250" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O250" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P250" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N251" t="n">
-        <v>17000</v>
+        <v>26500</v>
       </c>
       <c r="O251" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="P251" t="n">
-        <v>17500</v>
+        <v>26750</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1094</v>
+        <v>1672</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N252" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O252" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P252" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N253" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O253" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P253" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1250</v>
+        <v>1094</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N254" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O254" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P254" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>594</v>
+        <v>1531</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N255" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O255" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P255" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="N256" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O256" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P256" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1406</v>
+        <v>594</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N257" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O257" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P257" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N258" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O258" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P258" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>781</v>
+        <v>1406</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N259" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O259" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P259" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>562</v>
+        <v>1188</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -21167,13 +21167,13 @@
         <v>800</v>
       </c>
       <c r="N260" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O260" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P260" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21182,11 +21182,11 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1531</v>
+        <v>781</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N261" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O261" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P261" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21262,11 +21262,11 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1250</v>
+        <v>562</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N262" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O262" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P262" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21342,11 +21342,11 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N263" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="O263" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P263" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>406</v>
+        <v>1250</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N264" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O264" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P264" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1281</v>
+        <v>500</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21527,68 +21527,228 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E265" t="n">
+        <v>10</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G265" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M265" t="n">
+        <v>500</v>
+      </c>
+      <c r="N265" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O265" t="n">
+        <v>6500</v>
+      </c>
+      <c r="P265" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S265" t="n">
+        <v>406</v>
+      </c>
+      <c r="T265" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>4</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E265" t="n">
-        <v>10</v>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G265" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I265" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="E266" t="n">
+        <v>10</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G266" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M266" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N266" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O266" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P266" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S266" t="n">
+        <v>1281</v>
+      </c>
+      <c r="T266" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>4</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E267" t="n">
+        <v>10</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G267" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>2a plateado</t>
         </is>
       </c>
-      <c r="M265" t="n">
+      <c r="M267" t="n">
         <v>400</v>
       </c>
-      <c r="N265" t="n">
+      <c r="N267" t="n">
         <v>17000</v>
       </c>
-      <c r="O265" t="n">
+      <c r="O267" t="n">
         <v>17000</v>
       </c>
-      <c r="P265" t="n">
+      <c r="P267" t="n">
         <v>17000</v>
       </c>
-      <c r="Q265" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R265" t="inlineStr">
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S265" t="n">
+      <c r="S267" t="n">
         <v>1062</v>
       </c>
-      <c r="T265" t="n">
+      <c r="T267" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T267"/>
+  <dimension ref="A1:T268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44249</v>
+        <v>44466</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14920,36 +14920,36 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N182" t="n">
-        <v>23500</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>23750</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>1484</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N183" t="n">
-        <v>25000</v>
+        <v>23500</v>
       </c>
       <c r="O183" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P183" t="n">
-        <v>25000</v>
+        <v>23750</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1562</v>
+        <v>1484</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M184" t="n">
         <v>150</v>
       </c>
       <c r="N184" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="O184" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="P184" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1531</v>
+        <v>1562</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N185" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O185" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P185" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N186" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O186" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P186" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1094</v>
+        <v>1250</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N187" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O187" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P187" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O188" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="P188" t="n">
-        <v>24500</v>
+        <v>15000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15422,11 +15422,11 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1531</v>
+        <v>938</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N189" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O189" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P189" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N190" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O190" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P190" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>469</v>
+        <v>1250</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44260</v>
+        <v>44447</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="N191" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="O191" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="P191" t="n">
-        <v>25000</v>
+        <v>7500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1562</v>
+        <v>469</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N192" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O192" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P192" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1500</v>
+        <v>1562</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N193" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O193" t="n">
         <v>24000</v>
       </c>
       <c r="P193" t="n">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1469</v>
+        <v>1500</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N194" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O194" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P194" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1188</v>
+        <v>1469</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N195" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O195" t="n">
         <v>19000</v>
       </c>
       <c r="P195" t="n">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15982,11 +15982,11 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1156</v>
+        <v>1188</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N196" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O196" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P196" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>875</v>
+        <v>1156</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="N197" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O197" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P197" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16142,11 +16142,11 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N198" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O198" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P198" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N199" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O199" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P199" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N200" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O200" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P200" t="n">
-        <v>21500</v>
+        <v>7000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1344</v>
+        <v>438</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N201" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O201" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P201" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1125</v>
+        <v>1344</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N202" t="n">
-        <v>24500</v>
+        <v>18000</v>
       </c>
       <c r="O202" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P202" t="n">
-        <v>24750</v>
+        <v>18000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1547</v>
+        <v>1125</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N203" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O203" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P203" t="n">
-        <v>20000</v>
+        <v>24750</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1250</v>
+        <v>1547</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16680,36 +16680,36 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N204" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O204" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P204" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>556</v>
+        <v>1250</v>
       </c>
       <c r="T204" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205">
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N205" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O205" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P205" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T205" t="n">
         <v>18</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16840,36 +16840,36 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N206" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="O206" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="P206" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1688</v>
+        <v>500</v>
       </c>
       <c r="T206" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207">
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M207" t="n">
         <v>200</v>
       </c>
       <c r="N207" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="O207" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="P207" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1625</v>
+        <v>1688</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N208" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="O208" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="P208" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1375</v>
+        <v>1625</v>
       </c>
       <c r="T208" t="n">
         <v>16</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N209" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O209" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="P209" t="n">
-        <v>24250</v>
+        <v>22000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1516</v>
+        <v>1375</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N210" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O210" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P210" t="n">
-        <v>20000</v>
+        <v>24250</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1250</v>
+        <v>1516</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N211" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O211" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P211" t="n">
-        <v>25500</v>
+        <v>20000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1594</v>
+        <v>1250</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N212" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O212" t="n">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="P212" t="n">
-        <v>12250</v>
+        <v>25500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>766</v>
+        <v>1594</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N213" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O213" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P213" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>859</v>
+        <v>766</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N214" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O214" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P214" t="n">
-        <v>11500</v>
+        <v>13750</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>719</v>
+        <v>859</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N215" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O215" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P215" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17640,11 +17640,11 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N216" t="n">
         <v>8000</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N217" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O217" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="P217" t="n">
-        <v>23250</v>
+        <v>8000</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1453</v>
+        <v>500</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N218" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="O218" t="n">
-        <v>12000</v>
+        <v>23500</v>
       </c>
       <c r="P218" t="n">
-        <v>11500</v>
+        <v>23250</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17822,11 +17822,11 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>719</v>
+        <v>1453</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N219" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O219" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P219" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N220" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O220" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P220" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N221" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O221" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P221" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="N222" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O222" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P222" t="n">
-        <v>8533</v>
+        <v>19000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>533</v>
+        <v>1188</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="N223" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O223" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P223" t="n">
-        <v>11500</v>
+        <v>8533</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>719</v>
+        <v>533</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N224" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O224" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P224" t="n">
-        <v>24000</v>
+        <v>11500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1500</v>
+        <v>719</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N225" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O225" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P225" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N226" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O226" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P226" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N227" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O227" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P227" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N228" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O228" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P228" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N229" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O229" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P229" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1531</v>
+        <v>1344</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N230" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O230" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P230" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N231" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O231" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P231" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>844</v>
+        <v>1250</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N232" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O232" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P232" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N233" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O233" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P233" t="n">
-        <v>12250</v>
+        <v>11000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>766</v>
+        <v>688</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N234" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O234" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P234" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N235" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O235" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P235" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N236" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O236" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P236" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
         <v>11000</v>
       </c>
       <c r="O237" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P237" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N238" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O238" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P238" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N239" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O239" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P239" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N240" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O240" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P240" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1125</v>
+        <v>1344</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N241" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="O241" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P241" t="n">
-        <v>23500</v>
+        <v>18000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19662,11 +19662,11 @@
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1469</v>
+        <v>1125</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N242" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O242" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P242" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1188</v>
+        <v>1469</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O243" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P243" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19822,11 +19822,11 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>844</v>
+        <v>1188</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N244" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O244" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P244" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N245" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O245" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P245" t="n">
-        <v>24500</v>
+        <v>11000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1531</v>
+        <v>688</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N246" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O246" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P246" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N247" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O247" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P247" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>781</v>
+        <v>1250</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N248" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O248" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P248" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>500</v>
+        <v>781</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20280,11 +20280,11 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N249" t="n">
         <v>8000</v>
@@ -20360,33 +20360,33 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M250" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N250" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O250" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P250" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S250" t="n">
         <v>500</v>
-      </c>
-      <c r="N250" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O250" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P250" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q250" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R250" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S250" t="n">
-        <v>438</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N251" t="n">
-        <v>26500</v>
+        <v>7000</v>
       </c>
       <c r="O251" t="n">
-        <v>27000</v>
+        <v>7000</v>
       </c>
       <c r="P251" t="n">
-        <v>26750</v>
+        <v>7000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1672</v>
+        <v>438</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N252" t="n">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="O252" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="P252" t="n">
-        <v>21000</v>
+        <v>26750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1312</v>
+        <v>1672</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N253" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O253" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P253" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1094</v>
+        <v>1312</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="N254" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O254" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P254" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N255" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O255" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P255" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N256" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O256" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P256" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20862,11 +20862,11 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>594</v>
+        <v>1250</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N257" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O257" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P257" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N258" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O258" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P258" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1406</v>
+        <v>438</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N259" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O259" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P259" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1188</v>
+        <v>1406</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N260" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O260" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P260" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>781</v>
+        <v>1188</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N261" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O261" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P261" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>562</v>
+        <v>781</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N262" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O262" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P262" t="n">
-        <v>24500</v>
+        <v>9000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21342,11 +21342,11 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1531</v>
+        <v>562</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N263" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O263" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P263" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N264" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P264" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21502,11 +21502,11 @@
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S264" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21560,33 +21560,33 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M265" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N265" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O265" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P265" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S265" t="n">
         <v>500</v>
-      </c>
-      <c r="N265" t="n">
-        <v>6500</v>
-      </c>
-      <c r="O265" t="n">
-        <v>6500</v>
-      </c>
-      <c r="P265" t="n">
-        <v>6500</v>
-      </c>
-      <c r="Q265" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R265" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S265" t="n">
-        <v>406</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="N266" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="O266" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="P266" t="n">
-        <v>20500</v>
+        <v>6500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1281</v>
+        <v>406</v>
       </c>
       <c r="T266" t="n">
         <v>16</v>
@@ -21720,35 +21720,115 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M267" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N267" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O267" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P267" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S267" t="n">
+        <v>1281</v>
+      </c>
+      <c r="T267" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>4</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E268" t="n">
+        <v>10</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
           <t>2a plateado</t>
         </is>
       </c>
-      <c r="M267" t="n">
+      <c r="M268" t="n">
         <v>400</v>
       </c>
-      <c r="N267" t="n">
+      <c r="N268" t="n">
         <v>17000</v>
       </c>
-      <c r="O267" t="n">
+      <c r="O268" t="n">
         <v>17000</v>
       </c>
-      <c r="P267" t="n">
+      <c r="P268" t="n">
         <v>17000</v>
       </c>
-      <c r="Q267" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R267" t="inlineStr">
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S267" t="n">
+      <c r="S268" t="n">
         <v>1062</v>
       </c>
-      <c r="T267" t="n">
+      <c r="T268" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T268"/>
+  <dimension ref="A1:T270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -9400,36 +9400,36 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N113" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O113" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P113" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T113" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44225</v>
+        <v>44467</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -9480,24 +9480,24 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N114" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O114" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P114" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
@@ -9506,10 +9506,10 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1531</v>
+        <v>444</v>
       </c>
       <c r="T114" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N115" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O115" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P115" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9582,11 +9582,11 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1250</v>
+        <v>1094</v>
       </c>
       <c r="T115" t="n">
         <v>16</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N116" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O116" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P116" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9662,11 +9662,11 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S116" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T116" t="n">
         <v>16</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44327</v>
+        <v>44225</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N117" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O117" t="n">
         <v>20000</v>
       </c>
       <c r="P117" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1219</v>
+        <v>1250</v>
       </c>
       <c r="T117" t="n">
         <v>16</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -9800,33 +9800,33 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M118" t="n">
+        <v>400</v>
+      </c>
+      <c r="N118" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O118" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P118" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S118" t="n">
         <v>500</v>
-      </c>
-      <c r="N118" t="n">
-        <v>17000</v>
-      </c>
-      <c r="O118" t="n">
-        <v>17000</v>
-      </c>
-      <c r="P118" t="n">
-        <v>17000</v>
-      </c>
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S118" t="n">
-        <v>1062</v>
       </c>
       <c r="T118" t="n">
         <v>16</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -9884,16 +9884,16 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N119" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O119" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P119" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1344</v>
+        <v>1219</v>
       </c>
       <c r="T119" t="n">
         <v>16</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N120" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O120" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P120" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1188</v>
+        <v>1062</v>
       </c>
       <c r="T120" t="n">
         <v>16</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N121" t="n">
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="O121" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P121" t="n">
-        <v>8750</v>
+        <v>21500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>547</v>
+        <v>1344</v>
       </c>
       <c r="T121" t="n">
         <v>16</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44452</v>
+        <v>44321</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M122" t="n">
         <v>200</v>
       </c>
       <c r="N122" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="O122" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="P122" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>531</v>
+        <v>1188</v>
       </c>
       <c r="T122" t="n">
         <v>16</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N123" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="O123" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P123" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="T123" t="n">
         <v>16</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N124" t="n">
-        <v>23000</v>
+        <v>8500</v>
       </c>
       <c r="O124" t="n">
-        <v>23500</v>
+        <v>8500</v>
       </c>
       <c r="P124" t="n">
-        <v>23250</v>
+        <v>8500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10302,11 +10302,11 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1453</v>
+        <v>531</v>
       </c>
       <c r="T124" t="n">
         <v>16</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M125" t="n">
         <v>200</v>
       </c>
       <c r="N125" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="O125" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="P125" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10382,11 +10382,11 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1188</v>
+        <v>469</v>
       </c>
       <c r="T125" t="n">
         <v>16</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N126" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>23500</v>
       </c>
       <c r="P126" t="n">
-        <v>9500</v>
+        <v>23250</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>594</v>
+        <v>1453</v>
       </c>
       <c r="T126" t="n">
         <v>16</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -10524,16 +10524,16 @@
         </is>
       </c>
       <c r="M127" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N127" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O127" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="P127" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10542,11 +10542,11 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>438</v>
+        <v>1188</v>
       </c>
       <c r="T127" t="n">
         <v>16</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N128" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O128" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10622,11 +10622,11 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1406</v>
+        <v>594</v>
       </c>
       <c r="T128" t="n">
         <v>16</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -10680,11 +10680,11 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N129" t="n">
         <v>7000</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N130" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O130" t="n">
         <v>23000</v>
       </c>
-      <c r="O130" t="n">
-        <v>24000</v>
-      </c>
       <c r="P130" t="n">
-        <v>23500</v>
+        <v>22500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1469</v>
+        <v>1406</v>
       </c>
       <c r="T130" t="n">
         <v>16</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N131" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O131" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P131" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10862,11 +10862,11 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1250</v>
+        <v>438</v>
       </c>
       <c r="T131" t="n">
         <v>16</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M132" t="n">
         <v>800</v>
       </c>
       <c r="N132" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O132" t="n">
-        <v>12500</v>
+        <v>24000</v>
       </c>
       <c r="P132" t="n">
-        <v>12250</v>
+        <v>23500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10942,11 +10942,11 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>766</v>
+        <v>1469</v>
       </c>
       <c r="T132" t="n">
         <v>16</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M133" t="n">
         <v>300</v>
       </c>
       <c r="N133" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O133" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P133" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T133" t="n">
         <v>16</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -11084,16 +11084,16 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N134" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O134" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P134" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T134" t="n">
         <v>16</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -11164,16 +11164,16 @@
         </is>
       </c>
       <c r="M135" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O135" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P135" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="T135" t="n">
         <v>16</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N136" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O136" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P136" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T136" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44193</v>
+        <v>44407</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N137" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O137" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P137" t="n">
-        <v>19500</v>
+        <v>6500</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1219</v>
+        <v>406</v>
       </c>
       <c r="T137" t="n">
         <v>16</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -11404,16 +11404,16 @@
         </is>
       </c>
       <c r="M138" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N138" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O138" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P138" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1094</v>
+        <v>1344</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N139" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O139" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P139" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>938</v>
+        <v>1219</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N140" t="n">
         <v>17000</v>
       </c>
       <c r="O140" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P140" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1062</v>
+        <v>1094</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44274</v>
+        <v>44336</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N141" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O141" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P141" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N142" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O142" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P142" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>500</v>
+        <v>1062</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44328</v>
+        <v>44274</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N143" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O143" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P143" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1219</v>
+        <v>1500</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N144" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O144" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P144" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1062</v>
+        <v>500</v>
       </c>
       <c r="T144" t="n">
         <v>16</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N145" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O145" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P145" t="n">
-        <v>8500</v>
+        <v>19500</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>531</v>
+        <v>1219</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N146" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O146" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="P146" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>469</v>
+        <v>1062</v>
       </c>
       <c r="T146" t="n">
         <v>16</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12120,21 +12120,21 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="N147" t="n">
         <v>8000</v>
       </c>
       <c r="O147" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P147" t="n">
         <v>8500</v>
       </c>
-      <c r="P147" t="n">
-        <v>8250</v>
-      </c>
       <c r="Q147" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44442</v>
+        <v>44400</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N148" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O148" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P148" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N149" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O149" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P149" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>438</v>
+        <v>516</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M150" t="n">
         <v>1000</v>
       </c>
       <c r="N150" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O150" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P150" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N151" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O151" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P151" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N152" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O152" t="n">
         <v>24000</v>
       </c>
-      <c r="O152" t="n">
-        <v>25000</v>
-      </c>
       <c r="P152" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12542,11 +12542,11 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1531</v>
+        <v>1469</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N153" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O153" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P153" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12622,11 +12622,11 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T153" t="n">
         <v>16</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N154" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="O154" t="n">
-        <v>8500</v>
+        <v>25000</v>
       </c>
       <c r="P154" t="n">
-        <v>8500</v>
+        <v>24500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>531</v>
+        <v>1531</v>
       </c>
       <c r="T154" t="n">
         <v>16</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N155" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O155" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P155" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>469</v>
+        <v>1250</v>
       </c>
       <c r="T155" t="n">
         <v>16</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M156" t="n">
         <v>400</v>
       </c>
       <c r="N156" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="O156" t="n">
-        <v>25000</v>
+        <v>8500</v>
       </c>
       <c r="P156" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1531</v>
+        <v>531</v>
       </c>
       <c r="T156" t="n">
         <v>16</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O157" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P157" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1250</v>
+        <v>469</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -13007,13 +13007,13 @@
         <v>400</v>
       </c>
       <c r="N158" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O158" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P158" t="n">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>844</v>
+        <v>1531</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N159" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O159" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P159" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>688</v>
+        <v>1250</v>
       </c>
       <c r="T159" t="n">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44370</v>
+        <v>44354</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N160" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O160" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P160" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44285</v>
+        <v>44354</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N161" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O161" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P161" t="n">
-        <v>21500</v>
+        <v>11000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1344</v>
+        <v>688</v>
       </c>
       <c r="T161" t="n">
         <v>16</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N162" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O162" t="n">
         <v>12000</v>
       </c>
-      <c r="O162" t="n">
-        <v>12500</v>
-      </c>
       <c r="P162" t="n">
-        <v>12250</v>
+        <v>11500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>766</v>
+        <v>719</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N163" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="O163" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P163" t="n">
-        <v>13750</v>
+        <v>21500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13422,11 +13422,11 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S163" t="n">
-        <v>859</v>
+        <v>1344</v>
       </c>
       <c r="T163" t="n">
         <v>16</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="N164" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O164" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="P164" t="n">
-        <v>24500</v>
+        <v>12250</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13502,11 +13502,11 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1531</v>
+        <v>766</v>
       </c>
       <c r="T164" t="n">
         <v>16</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N165" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="O165" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P165" t="n">
-        <v>20000</v>
+        <v>13750</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13582,11 +13582,11 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1250</v>
+        <v>859</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N166" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O166" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P166" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13662,11 +13662,11 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S166" t="n">
-        <v>969</v>
+        <v>1531</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N167" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P167" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13742,11 +13742,11 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N168" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O168" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P168" t="n">
-        <v>23500</v>
+        <v>15500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13822,11 +13822,11 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1469</v>
+        <v>969</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N169" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O169" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1188</v>
+        <v>750</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N170" t="n">
-        <v>24500</v>
+        <v>23000</v>
       </c>
       <c r="O170" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P170" t="n">
-        <v>24750</v>
+        <v>23500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1547</v>
+        <v>1469</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N171" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O171" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P171" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>906</v>
+        <v>1188</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N172" t="n">
-        <v>12000</v>
+        <v>24500</v>
       </c>
       <c r="O172" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P172" t="n">
-        <v>12000</v>
+        <v>24750</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>750</v>
+        <v>1547</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N173" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O173" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P173" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>500</v>
+        <v>906</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N174" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O174" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P174" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>438</v>
+        <v>750</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14364,32 +14364,32 @@
         </is>
       </c>
       <c r="M175" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N175" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O175" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P175" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T175" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176">
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14444,32 +14444,32 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N176" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O176" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P176" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="T176" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177">
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14524,32 +14524,32 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O177" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P177" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T177" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14604,32 +14604,32 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N178" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="O178" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="P178" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="T178" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N179" t="n">
         <v>8000</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14764,7 +14764,7 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N180" t="n">
         <v>6500</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="O181" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P181" t="n">
-        <v>14750</v>
+        <v>8000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14862,11 +14862,11 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>922</v>
+        <v>500</v>
       </c>
       <c r="T181" t="n">
         <v>16</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14920,36 +14920,36 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N182" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O182" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="P182" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="T182" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N183" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="O183" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P183" t="n">
-        <v>23750</v>
+        <v>14750</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1484</v>
+        <v>922</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44265</v>
+        <v>44466</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15080,36 +15080,36 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N184" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O184" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P184" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1562</v>
+        <v>500</v>
       </c>
       <c r="T184" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N185" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="O185" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="P185" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1531</v>
+        <v>1484</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N186" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O186" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P186" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N187" t="n">
-        <v>17000</v>
+        <v>24500</v>
       </c>
       <c r="O187" t="n">
-        <v>18000</v>
+        <v>24500</v>
       </c>
       <c r="P187" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1094</v>
+        <v>1531</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N188" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O188" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P188" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15487,13 +15487,13 @@
         <v>800</v>
       </c>
       <c r="N189" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O189" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P189" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15502,11 +15502,11 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15567,13 +15567,13 @@
         <v>300</v>
       </c>
       <c r="N190" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O190" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P190" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15582,11 +15582,11 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N191" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="O191" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P191" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>469</v>
+        <v>1531</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44260</v>
+        <v>44201</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O192" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P192" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1562</v>
+        <v>1250</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="N193" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O193" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="P193" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1500</v>
+        <v>469</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44312</v>
+        <v>44260</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N194" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O194" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P194" t="n">
-        <v>23500</v>
+        <v>25000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1469</v>
+        <v>1562</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N195" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O195" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P195" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1188</v>
+        <v>1500</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N196" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O196" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P196" t="n">
-        <v>18500</v>
+        <v>23500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16062,11 +16062,11 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1156</v>
+        <v>1469</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N197" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O197" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P197" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16142,11 +16142,11 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>875</v>
+        <v>1188</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="N198" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O198" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P198" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16222,11 +16222,11 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>500</v>
+        <v>1156</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N199" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O199" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P199" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16302,11 +16302,11 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>594</v>
+        <v>875</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,33 +16360,33 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M200" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N200" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O200" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P200" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S200" t="n">
         <v>500</v>
-      </c>
-      <c r="N200" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O200" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P200" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q200" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R200" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S200" t="n">
-        <v>438</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N201" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O201" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P201" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1344</v>
+        <v>594</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N202" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O202" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P202" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1125</v>
+        <v>438</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16607,13 +16607,13 @@
         <v>600</v>
       </c>
       <c r="N203" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="O203" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P203" t="n">
-        <v>24750</v>
+        <v>21500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1547</v>
+        <v>1344</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16687,13 +16687,13 @@
         <v>300</v>
       </c>
       <c r="N204" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O204" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P204" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16760,36 +16760,36 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N205" t="n">
-        <v>10000</v>
+        <v>24500</v>
       </c>
       <c r="O205" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P205" t="n">
-        <v>10000</v>
+        <v>24750</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>556</v>
+        <v>1547</v>
       </c>
       <c r="T205" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16840,36 +16840,36 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N206" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O206" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P206" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T206" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16924,32 +16924,32 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N207" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="O207" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="P207" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1688</v>
+        <v>556</v>
       </c>
       <c r="T207" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17000,36 +17000,36 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N208" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="O208" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="P208" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>1625</v>
+        <v>500</v>
       </c>
       <c r="T208" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N209" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O209" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P209" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1375</v>
+        <v>1688</v>
       </c>
       <c r="T209" t="n">
         <v>16</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N210" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="O210" t="n">
-        <v>24500</v>
+        <v>26000</v>
       </c>
       <c r="P210" t="n">
-        <v>24250</v>
+        <v>26000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1516</v>
+        <v>1625</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N211" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O211" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P211" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N212" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O212" t="n">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="P212" t="n">
-        <v>25500</v>
+        <v>24250</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1594</v>
+        <v>1516</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44168</v>
+        <v>44243</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N213" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O213" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P213" t="n">
-        <v>12250</v>
+        <v>20000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>766</v>
+        <v>1250</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N214" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O214" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P214" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>859</v>
+        <v>1594</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N215" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O215" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P215" t="n">
-        <v>11500</v>
+        <v>12250</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N216" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O216" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P216" t="n">
-        <v>8000</v>
+        <v>13750</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17662,11 +17662,11 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>500</v>
+        <v>859</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N217" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O217" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P217" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N218" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O218" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="P218" t="n">
-        <v>23250</v>
+        <v>8000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17822,11 +17822,11 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1453</v>
+        <v>500</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N219" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O219" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P219" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N220" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O220" t="n">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="P220" t="n">
-        <v>8000</v>
+        <v>23250</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>500</v>
+        <v>1453</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N221" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O221" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P221" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18124,29 +18124,29 @@
         </is>
       </c>
       <c r="M222" t="n">
+        <v>200</v>
+      </c>
+      <c r="N222" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O222" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P222" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S222" t="n">
         <v>500</v>
-      </c>
-      <c r="N222" t="n">
-        <v>19000</v>
-      </c>
-      <c r="O222" t="n">
-        <v>19000</v>
-      </c>
-      <c r="P222" t="n">
-        <v>19000</v>
-      </c>
-      <c r="Q222" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R222" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S222" t="n">
-        <v>1188</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N223" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O223" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P223" t="n">
-        <v>8533</v>
+        <v>21500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>533</v>
+        <v>1344</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N224" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O224" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P224" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>719</v>
+        <v>1188</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="N225" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O225" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P225" t="n">
-        <v>24000</v>
+        <v>8533</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1500</v>
+        <v>533</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M226" t="n">
         <v>300</v>
       </c>
       <c r="N226" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O226" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P226" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N227" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O227" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P227" t="n">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>656</v>
+        <v>1500</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,7 +18600,7 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M228" t="n">
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N229" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O229" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P229" t="n">
-        <v>21500</v>
+        <v>10500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1344</v>
+        <v>656</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N230" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O230" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P230" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M231" t="n">
         <v>200</v>
       </c>
       <c r="N231" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O231" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P231" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1250</v>
+        <v>1344</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18927,13 +18927,13 @@
         <v>400</v>
       </c>
       <c r="N232" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O232" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P232" t="n">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>844</v>
+        <v>1531</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19007,13 +19007,13 @@
         <v>200</v>
       </c>
       <c r="N233" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O233" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P233" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>688</v>
+        <v>1250</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O234" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P234" t="n">
-        <v>12250</v>
+        <v>13500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>766</v>
+        <v>844</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N235" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O235" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P235" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P236" t="n">
-        <v>13500</v>
+        <v>12250</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N237" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O237" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P237" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N238" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O238" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P238" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N239" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O239" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P239" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N240" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O240" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P240" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N241" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O241" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P241" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19727,13 +19727,13 @@
         <v>800</v>
       </c>
       <c r="N242" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O242" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P242" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19742,11 +19742,11 @@
       </c>
       <c r="R242" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1469</v>
+        <v>1344</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19807,13 +19807,13 @@
         <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O243" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P243" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19822,11 +19822,11 @@
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N244" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O244" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P244" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19902,11 +19902,11 @@
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>844</v>
+        <v>1469</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N245" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O245" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P245" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>688</v>
+        <v>1188</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N246" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O246" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P246" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1531</v>
+        <v>844</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20127,13 +20127,13 @@
         <v>200</v>
       </c>
       <c r="N247" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O247" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P247" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1250</v>
+        <v>688</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N248" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O248" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P248" t="n">
-        <v>12500</v>
+        <v>24500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>781</v>
+        <v>1531</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>200</v>
       </c>
       <c r="N249" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O249" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P249" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20302,11 +20302,11 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N250" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O250" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P250" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>500</v>
+        <v>781</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20444,29 +20444,29 @@
         </is>
       </c>
       <c r="M251" t="n">
+        <v>200</v>
+      </c>
+      <c r="N251" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O251" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P251" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S251" t="n">
         <v>500</v>
-      </c>
-      <c r="N251" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O251" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P251" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q251" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R251" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S251" t="n">
-        <v>438</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N252" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="O252" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P252" t="n">
-        <v>26750</v>
+        <v>8000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1672</v>
+        <v>500</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N253" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O253" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P253" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N254" t="n">
-        <v>17000</v>
+        <v>26500</v>
       </c>
       <c r="O254" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="P254" t="n">
-        <v>17500</v>
+        <v>26750</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1094</v>
+        <v>1672</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N255" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O255" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P255" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N256" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O256" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P256" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1250</v>
+        <v>1094</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N257" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O257" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P257" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>594</v>
+        <v>1531</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N258" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O258" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P258" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="N259" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O259" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P259" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1406</v>
+        <v>594</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N260" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O260" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P260" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N261" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O261" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P261" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>781</v>
+        <v>1406</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N262" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O262" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P262" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>562</v>
+        <v>1188</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -21407,13 +21407,13 @@
         <v>800</v>
       </c>
       <c r="N263" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O263" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P263" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1531</v>
+        <v>781</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N264" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O264" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P264" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21502,11 +21502,11 @@
       </c>
       <c r="R264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1250</v>
+        <v>562</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N265" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O265" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P265" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21582,11 +21582,11 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N266" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="O266" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P266" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21662,11 +21662,11 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S266" t="n">
-        <v>406</v>
+        <v>1250</v>
       </c>
       <c r="T266" t="n">
         <v>16</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N267" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O267" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P267" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1281</v>
+        <v>500</v>
       </c>
       <c r="T267" t="n">
         <v>16</v>
@@ -21767,68 +21767,228 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E268" t="n">
+        <v>10</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G268" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M268" t="n">
+        <v>500</v>
+      </c>
+      <c r="N268" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O268" t="n">
+        <v>6500</v>
+      </c>
+      <c r="P268" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S268" t="n">
+        <v>406</v>
+      </c>
+      <c r="T268" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>4</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E268" t="n">
-        <v>10</v>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G268" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I268" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="E269" t="n">
+        <v>10</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G269" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M269" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N269" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O269" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P269" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S269" t="n">
+        <v>1281</v>
+      </c>
+      <c r="T269" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>4</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E270" t="n">
+        <v>10</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G270" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
         <is>
           <t>2a plateado</t>
         </is>
       </c>
-      <c r="M268" t="n">
+      <c r="M270" t="n">
         <v>400</v>
       </c>
-      <c r="N268" t="n">
+      <c r="N270" t="n">
         <v>17000</v>
       </c>
-      <c r="O268" t="n">
+      <c r="O270" t="n">
         <v>17000</v>
       </c>
-      <c r="P268" t="n">
+      <c r="P270" t="n">
         <v>17000</v>
       </c>
-      <c r="Q268" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R268" t="inlineStr">
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S268" t="n">
+      <c r="S270" t="n">
         <v>1062</v>
       </c>
-      <c r="T268" t="n">
+      <c r="T270" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T270"/>
+  <dimension ref="A1:T271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16040,36 +16040,36 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N196" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="O196" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P196" t="n">
-        <v>23500</v>
+        <v>9000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T196" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197">
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N197" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O197" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P197" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1188</v>
+        <v>1469</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N198" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O198" t="n">
         <v>19000</v>
       </c>
       <c r="P198" t="n">
-        <v>18500</v>
+        <v>19000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16222,11 +16222,11 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1156</v>
+        <v>1188</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="N199" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="O199" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P199" t="n">
-        <v>14000</v>
+        <v>18500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>875</v>
+        <v>1156</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="N200" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O200" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P200" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>500</v>
+        <v>875</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="N201" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O201" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P201" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N202" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O202" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P202" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N203" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O203" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P203" t="n">
-        <v>21500</v>
+        <v>7000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1344</v>
+        <v>438</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N204" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O204" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P204" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1125</v>
+        <v>1344</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N205" t="n">
-        <v>24500</v>
+        <v>18000</v>
       </c>
       <c r="O205" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P205" t="n">
-        <v>24750</v>
+        <v>18000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1547</v>
+        <v>1125</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N206" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O206" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P206" t="n">
-        <v>20000</v>
+        <v>24750</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1250</v>
+        <v>1547</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16920,36 +16920,36 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N207" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O207" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P207" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>556</v>
+        <v>1250</v>
       </c>
       <c r="T207" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208">
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N208" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O208" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P208" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17080,36 +17080,36 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N209" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="O209" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="P209" t="n">
-        <v>27000</v>
+        <v>9000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1688</v>
+        <v>500</v>
       </c>
       <c r="T209" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210">
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M210" t="n">
         <v>200</v>
       </c>
       <c r="N210" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="O210" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="P210" t="n">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1625</v>
+        <v>1688</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N211" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="O211" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="P211" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1375</v>
+        <v>1625</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N212" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O212" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="P212" t="n">
-        <v>24250</v>
+        <v>22000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1516</v>
+        <v>1375</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N213" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O213" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P213" t="n">
-        <v>20000</v>
+        <v>24250</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1250</v>
+        <v>1516</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N214" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O214" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P214" t="n">
-        <v>25500</v>
+        <v>20000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1594</v>
+        <v>1250</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N215" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="O215" t="n">
-        <v>12500</v>
+        <v>26000</v>
       </c>
       <c r="P215" t="n">
-        <v>12250</v>
+        <v>25500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>766</v>
+        <v>1594</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N216" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O216" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P216" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17662,11 +17662,11 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>859</v>
+        <v>766</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N217" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O217" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P217" t="n">
-        <v>11500</v>
+        <v>13750</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>719</v>
+        <v>859</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N218" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O218" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P218" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,11 +17880,11 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N219" t="n">
         <v>8000</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="N220" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O220" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="P220" t="n">
-        <v>23250</v>
+        <v>8000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17982,11 +17982,11 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1453</v>
+        <v>500</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N221" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="O221" t="n">
-        <v>12000</v>
+        <v>23500</v>
       </c>
       <c r="P221" t="n">
-        <v>11500</v>
+        <v>23250</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18062,11 +18062,11 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>719</v>
+        <v>1453</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N222" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O222" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P222" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N223" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O223" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P223" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N224" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O224" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P224" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="N225" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O225" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P225" t="n">
-        <v>8533</v>
+        <v>19000</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>533</v>
+        <v>1188</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="N226" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O226" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="P226" t="n">
-        <v>11500</v>
+        <v>8533</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>719</v>
+        <v>533</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44273</v>
+        <v>44363</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N227" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O227" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P227" t="n">
-        <v>24000</v>
+        <v>11500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1500</v>
+        <v>719</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="N228" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O228" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="P228" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="O229" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P229" t="n">
-        <v>10500</v>
+        <v>8000</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>656</v>
+        <v>500</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N230" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O230" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P230" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>500</v>
+        <v>656</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N231" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O231" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P231" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N232" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O232" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P232" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1531</v>
+        <v>1344</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N233" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O233" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P233" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N234" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O234" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P234" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>844</v>
+        <v>1250</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N235" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O235" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P235" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N236" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="O236" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P236" t="n">
-        <v>12250</v>
+        <v>11000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>766</v>
+        <v>688</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O237" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P237" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N238" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O238" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P238" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N239" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O239" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P239" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N240" t="n">
         <v>11000</v>
       </c>
       <c r="O240" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P240" t="n">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N241" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O241" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P241" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N242" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O242" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P242" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N243" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O243" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P243" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1125</v>
+        <v>1344</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N244" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="O244" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P244" t="n">
-        <v>23500</v>
+        <v>18000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19902,11 +19902,11 @@
       </c>
       <c r="R244" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1469</v>
+        <v>1125</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N245" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="O245" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P245" t="n">
-        <v>19000</v>
+        <v>23500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1188</v>
+        <v>1469</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N246" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="O246" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P246" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>844</v>
+        <v>1188</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N247" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O247" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P247" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N248" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="O248" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="P248" t="n">
-        <v>24500</v>
+        <v>11000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1531</v>
+        <v>688</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N249" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O249" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P249" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N250" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O250" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P250" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>781</v>
+        <v>1250</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N251" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O251" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P251" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>500</v>
+        <v>781</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20520,11 +20520,11 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N252" t="n">
         <v>8000</v>
@@ -20600,33 +20600,33 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M253" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N253" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O253" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P253" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S253" t="n">
         <v>500</v>
-      </c>
-      <c r="N253" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O253" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P253" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q253" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R253" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S253" t="n">
-        <v>438</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N254" t="n">
-        <v>26500</v>
+        <v>7000</v>
       </c>
       <c r="O254" t="n">
-        <v>27000</v>
+        <v>7000</v>
       </c>
       <c r="P254" t="n">
-        <v>26750</v>
+        <v>7000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1672</v>
+        <v>438</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N255" t="n">
-        <v>21000</v>
+        <v>26500</v>
       </c>
       <c r="O255" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="P255" t="n">
-        <v>21000</v>
+        <v>26750</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1312</v>
+        <v>1672</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N256" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O256" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P256" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20862,11 +20862,11 @@
       </c>
       <c r="R256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1094</v>
+        <v>1312</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="N257" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O257" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P257" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N258" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O258" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P258" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N259" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O259" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P259" t="n">
-        <v>9500</v>
+        <v>20000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21102,11 +21102,11 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>594</v>
+        <v>1250</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N260" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="O260" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P260" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>438</v>
+        <v>594</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="N261" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O261" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P261" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1406</v>
+        <v>438</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N262" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O262" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P262" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1188</v>
+        <v>1406</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N263" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="O263" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P263" t="n">
-        <v>12500</v>
+        <v>19000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>781</v>
+        <v>1188</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N264" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="O264" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="P264" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>562</v>
+        <v>781</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N265" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="O265" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P265" t="n">
-        <v>24500</v>
+        <v>9000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21582,11 +21582,11 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1531</v>
+        <v>562</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N266" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O266" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P266" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T266" t="n">
         <v>16</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N267" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O267" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P267" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21742,11 +21742,11 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T267" t="n">
         <v>16</v>
@@ -21800,33 +21800,33 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M268" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N268" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O268" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P268" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S268" t="n">
         <v>500</v>
-      </c>
-      <c r="N268" t="n">
-        <v>6500</v>
-      </c>
-      <c r="O268" t="n">
-        <v>6500</v>
-      </c>
-      <c r="P268" t="n">
-        <v>6500</v>
-      </c>
-      <c r="Q268" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R268" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S268" t="n">
-        <v>406</v>
       </c>
       <c r="T268" t="n">
         <v>16</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="N269" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="O269" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="P269" t="n">
-        <v>20500</v>
+        <v>6500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1281</v>
+        <v>406</v>
       </c>
       <c r="T269" t="n">
         <v>16</v>
@@ -21960,35 +21960,115 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M270" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N270" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O270" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P270" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S270" t="n">
+        <v>1281</v>
+      </c>
+      <c r="T270" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>4</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E271" t="n">
+        <v>10</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
           <t>2a plateado</t>
         </is>
       </c>
-      <c r="M270" t="n">
+      <c r="M271" t="n">
         <v>400</v>
       </c>
-      <c r="N270" t="n">
+      <c r="N271" t="n">
         <v>17000</v>
       </c>
-      <c r="O270" t="n">
+      <c r="O271" t="n">
         <v>17000</v>
       </c>
-      <c r="P270" t="n">
+      <c r="P271" t="n">
         <v>17000</v>
       </c>
-      <c r="Q270" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R270" t="inlineStr">
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S270" t="n">
+      <c r="S271" t="n">
         <v>1062</v>
       </c>
-      <c r="T270" t="n">
+      <c r="T271" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T271"/>
+  <dimension ref="A1:T273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -8120,36 +8120,36 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="N97" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O97" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P97" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1375</v>
+        <v>500</v>
       </c>
       <c r="T97" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44385</v>
+        <v>44469</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -8200,36 +8200,36 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N98" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="O98" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="P98" t="n">
-        <v>9500</v>
+        <v>8000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>594</v>
+        <v>444</v>
       </c>
       <c r="T98" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="N99" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O99" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P99" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>438</v>
+        <v>1375</v>
       </c>
       <c r="T99" t="n">
         <v>16</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44417</v>
+        <v>44385</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N100" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O100" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P100" t="n">
-        <v>8000</v>
+        <v>9500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="T100" t="n">
         <v>16</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44417</v>
+        <v>44385</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N101" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="O101" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="P101" t="n">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="T101" t="n">
         <v>16</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N102" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O102" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P102" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T102" t="n">
         <v>16</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N103" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="O103" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="P103" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>938</v>
+        <v>406</v>
       </c>
       <c r="T103" t="n">
         <v>16</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -8684,16 +8684,16 @@
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N104" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O104" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P104" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8702,11 +8702,11 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S104" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T104" t="n">
         <v>16</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
@@ -8764,16 +8764,16 @@
         </is>
       </c>
       <c r="M105" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N105" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O105" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P105" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8782,11 +8782,11 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S105" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T105" t="n">
         <v>16</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -8844,16 +8844,16 @@
         </is>
       </c>
       <c r="M106" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N106" t="n">
-        <v>26500</v>
+        <v>24000</v>
       </c>
       <c r="O106" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P106" t="n">
-        <v>26750</v>
+        <v>24500</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8862,11 +8862,11 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1672</v>
+        <v>1531</v>
       </c>
       <c r="T106" t="n">
         <v>16</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -8924,16 +8924,16 @@
         </is>
       </c>
       <c r="M107" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N107" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O107" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P107" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8942,11 +8942,11 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1312</v>
+        <v>1250</v>
       </c>
       <c r="T107" t="n">
         <v>16</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -9004,16 +9004,16 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N108" t="n">
-        <v>24000</v>
+        <v>26500</v>
       </c>
       <c r="O108" t="n">
-        <v>24500</v>
+        <v>27000</v>
       </c>
       <c r="P108" t="n">
-        <v>24250</v>
+        <v>26750</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9022,11 +9022,11 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1516</v>
+        <v>1672</v>
       </c>
       <c r="T108" t="n">
         <v>16</v>
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44334</v>
+        <v>44253</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N109" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O109" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P109" t="n">
-        <v>17500</v>
+        <v>21000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1094</v>
+        <v>1312</v>
       </c>
       <c r="T109" t="n">
         <v>16</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N110" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O110" t="n">
-        <v>15000</v>
+        <v>24500</v>
       </c>
       <c r="P110" t="n">
-        <v>15000</v>
+        <v>24250</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>938</v>
+        <v>1516</v>
       </c>
       <c r="T110" t="n">
         <v>16</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44250</v>
+        <v>44334</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -9244,16 +9244,16 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N111" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O111" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="P111" t="n">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1594</v>
+        <v>1094</v>
       </c>
       <c r="T111" t="n">
         <v>16</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44250</v>
+        <v>44334</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -9324,16 +9324,16 @@
         </is>
       </c>
       <c r="M112" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N112" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O112" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P112" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1312</v>
+        <v>938</v>
       </c>
       <c r="T112" t="n">
         <v>16</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44467</v>
+        <v>44250</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -9400,36 +9400,36 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N113" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O113" t="n">
-        <v>9000</v>
+        <v>26000</v>
       </c>
       <c r="P113" t="n">
-        <v>9000</v>
+        <v>25500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S113" t="n">
-        <v>500</v>
+        <v>1594</v>
       </c>
       <c r="T113" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44467</v>
+        <v>44250</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -9480,36 +9480,36 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N114" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O114" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P114" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>444</v>
+        <v>1312</v>
       </c>
       <c r="T114" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44342</v>
+        <v>44467</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -9560,36 +9560,36 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N115" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="O115" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="P115" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T115" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116">
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44225</v>
+        <v>44467</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -9640,24 +9640,24 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N116" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O116" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P116" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R116" t="inlineStr">
@@ -9666,10 +9666,10 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>1531</v>
+        <v>444</v>
       </c>
       <c r="T116" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44225</v>
+        <v>44342</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="N117" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O117" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P117" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9742,11 +9742,11 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1250</v>
+        <v>1094</v>
       </c>
       <c r="T117" t="n">
         <v>16</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N118" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P118" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9822,11 +9822,11 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T118" t="n">
         <v>16</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44327</v>
+        <v>44225</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N119" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O119" t="n">
         <v>20000</v>
       </c>
       <c r="P119" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1219</v>
+        <v>1250</v>
       </c>
       <c r="T119" t="n">
         <v>16</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44327</v>
+        <v>44434</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -9960,33 +9960,33 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M120" t="n">
+        <v>400</v>
+      </c>
+      <c r="N120" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O120" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P120" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S120" t="n">
         <v>500</v>
-      </c>
-      <c r="N120" t="n">
-        <v>17000</v>
-      </c>
-      <c r="O120" t="n">
-        <v>17000</v>
-      </c>
-      <c r="P120" t="n">
-        <v>17000</v>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S120" t="n">
-        <v>1062</v>
       </c>
       <c r="T120" t="n">
         <v>16</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N121" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O121" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P121" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1344</v>
+        <v>1219</v>
       </c>
       <c r="T121" t="n">
         <v>16</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44321</v>
+        <v>44327</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N122" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O122" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P122" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1188</v>
+        <v>1062</v>
       </c>
       <c r="T122" t="n">
         <v>16</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44399</v>
+        <v>44321</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N123" t="n">
-        <v>8500</v>
+        <v>21000</v>
       </c>
       <c r="O123" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P123" t="n">
-        <v>8750</v>
+        <v>21500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>547</v>
+        <v>1344</v>
       </c>
       <c r="T123" t="n">
         <v>16</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44452</v>
+        <v>44321</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>200</v>
       </c>
       <c r="N124" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="O124" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="P124" t="n">
-        <v>8500</v>
+        <v>19000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>531</v>
+        <v>1188</v>
       </c>
       <c r="T124" t="n">
         <v>16</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N125" t="n">
-        <v>7500</v>
+        <v>8500</v>
       </c>
       <c r="O125" t="n">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="P125" t="n">
-        <v>7500</v>
+        <v>8750</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="T125" t="n">
         <v>16</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N126" t="n">
-        <v>23000</v>
+        <v>8500</v>
       </c>
       <c r="O126" t="n">
-        <v>23500</v>
+        <v>8500</v>
       </c>
       <c r="P126" t="n">
-        <v>23250</v>
+        <v>8500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10462,11 +10462,11 @@
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1453</v>
+        <v>531</v>
       </c>
       <c r="T126" t="n">
         <v>16</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M127" t="n">
         <v>200</v>
       </c>
       <c r="N127" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="O127" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="P127" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10542,11 +10542,11 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1188</v>
+        <v>469</v>
       </c>
       <c r="T127" t="n">
         <v>16</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -10604,16 +10604,16 @@
         </is>
       </c>
       <c r="M128" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="N128" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>23500</v>
       </c>
       <c r="P128" t="n">
-        <v>9500</v>
+        <v>23250</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10622,11 +10622,11 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>594</v>
+        <v>1453</v>
       </c>
       <c r="T128" t="n">
         <v>16</v>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44383</v>
+        <v>44218</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -10684,16 +10684,16 @@
         </is>
       </c>
       <c r="M129" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N129" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O129" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="P129" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10702,11 +10702,11 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>438</v>
+        <v>1188</v>
       </c>
       <c r="T129" t="n">
         <v>16</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44223</v>
+        <v>44383</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N130" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O130" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10782,11 +10782,11 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1406</v>
+        <v>594</v>
       </c>
       <c r="T130" t="n">
         <v>16</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44405</v>
+        <v>44383</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -10840,11 +10840,11 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="N131" t="n">
         <v>7000</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44246</v>
+        <v>44223</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N132" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O132" t="n">
         <v>23000</v>
       </c>
-      <c r="O132" t="n">
-        <v>24000</v>
-      </c>
       <c r="P132" t="n">
-        <v>23500</v>
+        <v>22500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1469</v>
+        <v>1406</v>
       </c>
       <c r="T132" t="n">
         <v>16</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44246</v>
+        <v>44405</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="N133" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O133" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P133" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11022,11 +11022,11 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1250</v>
+        <v>438</v>
       </c>
       <c r="T133" t="n">
         <v>16</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M134" t="n">
         <v>800</v>
       </c>
       <c r="N134" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="O134" t="n">
-        <v>12500</v>
+        <v>24000</v>
       </c>
       <c r="P134" t="n">
-        <v>12250</v>
+        <v>23500</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11102,11 +11102,11 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S134" t="n">
-        <v>766</v>
+        <v>1469</v>
       </c>
       <c r="T134" t="n">
         <v>16</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M135" t="n">
         <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O135" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P135" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11182,11 +11182,11 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T135" t="n">
         <v>16</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -11244,16 +11244,16 @@
         </is>
       </c>
       <c r="M136" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N136" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O136" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P136" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T136" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -11324,16 +11324,16 @@
         </is>
       </c>
       <c r="M137" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N137" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="O137" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P137" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="T137" t="n">
         <v>16</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44307</v>
+        <v>44407</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N138" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O138" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P138" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44193</v>
+        <v>44407</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N139" t="n">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="O139" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P139" t="n">
-        <v>19500</v>
+        <v>6500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1219</v>
+        <v>406</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44336</v>
+        <v>44307</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -11564,16 +11564,16 @@
         </is>
       </c>
       <c r="M140" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N140" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O140" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P140" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1094</v>
+        <v>1344</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N141" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O141" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P141" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>938</v>
+        <v>1219</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N142" t="n">
         <v>17000</v>
       </c>
       <c r="O142" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P142" t="n">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1062</v>
+        <v>1094</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44274</v>
+        <v>44336</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N143" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="O143" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P143" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1500</v>
+        <v>938</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44426</v>
+        <v>44341</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N144" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O144" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P144" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>500</v>
+        <v>1062</v>
       </c>
       <c r="T144" t="n">
         <v>16</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44328</v>
+        <v>44274</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N145" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O145" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P145" t="n">
-        <v>19500</v>
+        <v>24000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1219</v>
+        <v>1500</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44328</v>
+        <v>44426</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N146" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O146" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="P146" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1062</v>
+        <v>500</v>
       </c>
       <c r="T146" t="n">
         <v>16</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N147" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O147" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P147" t="n">
-        <v>8500</v>
+        <v>19500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>531</v>
+        <v>1219</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44400</v>
+        <v>44328</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N148" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="O148" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="P148" t="n">
-        <v>7500</v>
+        <v>17000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>469</v>
+        <v>1062</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12280,21 +12280,21 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="N149" t="n">
         <v>8000</v>
       </c>
       <c r="O149" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P149" t="n">
         <v>8500</v>
       </c>
-      <c r="P149" t="n">
-        <v>8250</v>
-      </c>
       <c r="Q149" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44442</v>
+        <v>44400</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N150" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="O150" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="P150" t="n">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N151" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O151" t="n">
-        <v>7000</v>
+        <v>8500</v>
       </c>
       <c r="P151" t="n">
-        <v>7000</v>
+        <v>8250</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>438</v>
+        <v>516</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M152" t="n">
         <v>1000</v>
       </c>
       <c r="N152" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O152" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P152" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44309</v>
+        <v>44442</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N153" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O153" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P153" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T153" t="n">
         <v>16</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N154" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O154" t="n">
         <v>24000</v>
       </c>
-      <c r="O154" t="n">
-        <v>25000</v>
-      </c>
       <c r="P154" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12702,11 +12702,11 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1531</v>
+        <v>1469</v>
       </c>
       <c r="T154" t="n">
         <v>16</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44208</v>
+        <v>44309</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="N155" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O155" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P155" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12782,11 +12782,11 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T155" t="n">
         <v>16</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N156" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="O156" t="n">
-        <v>8500</v>
+        <v>25000</v>
       </c>
       <c r="P156" t="n">
-        <v>8500</v>
+        <v>24500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12862,11 +12862,11 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S156" t="n">
-        <v>531</v>
+        <v>1531</v>
       </c>
       <c r="T156" t="n">
         <v>16</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N157" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="O157" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="P157" t="n">
-        <v>7500</v>
+        <v>20000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12942,11 +12942,11 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S157" t="n">
-        <v>469</v>
+        <v>1250</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M158" t="n">
         <v>400</v>
       </c>
       <c r="N158" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="O158" t="n">
-        <v>25000</v>
+        <v>8500</v>
       </c>
       <c r="P158" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>1531</v>
+        <v>531</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -13080,20 +13080,20 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N159" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O159" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P159" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1250</v>
+        <v>469</v>
       </c>
       <c r="T159" t="n">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -13167,13 +13167,13 @@
         <v>400</v>
       </c>
       <c r="N160" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O160" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P160" t="n">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>844</v>
+        <v>1531</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N161" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O161" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P161" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>688</v>
+        <v>1250</v>
       </c>
       <c r="T161" t="n">
         <v>16</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44370</v>
+        <v>44354</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N162" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O162" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P162" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T162" t="n">
         <v>16</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44285</v>
+        <v>44354</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N163" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O163" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P163" t="n">
-        <v>21500</v>
+        <v>11000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1344</v>
+        <v>688</v>
       </c>
       <c r="T163" t="n">
         <v>16</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44167</v>
+        <v>44370</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="N164" t="n">
+        <v>11000</v>
+      </c>
+      <c r="O164" t="n">
         <v>12000</v>
       </c>
-      <c r="O164" t="n">
-        <v>12500</v>
-      </c>
       <c r="P164" t="n">
-        <v>12250</v>
+        <v>11500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>766</v>
+        <v>719</v>
       </c>
       <c r="T164" t="n">
         <v>16</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44167</v>
+        <v>44285</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N165" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="O165" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P165" t="n">
-        <v>13750</v>
+        <v>21500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13582,11 +13582,11 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S165" t="n">
-        <v>859</v>
+        <v>1344</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="N166" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O166" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="P166" t="n">
-        <v>24500</v>
+        <v>12250</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13662,11 +13662,11 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1531</v>
+        <v>766</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N167" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="O167" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P167" t="n">
-        <v>20000</v>
+        <v>13750</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13742,11 +13742,11 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1250</v>
+        <v>859</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N168" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O168" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P168" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13822,11 +13822,11 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>969</v>
+        <v>1531</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O169" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P169" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13964,16 +13964,16 @@
         </is>
       </c>
       <c r="M170" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N170" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O170" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P170" t="n">
-        <v>23500</v>
+        <v>15500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1469</v>
+        <v>969</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N171" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O171" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P171" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1188</v>
+        <v>750</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N172" t="n">
-        <v>24500</v>
+        <v>23000</v>
       </c>
       <c r="O172" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="P172" t="n">
-        <v>24750</v>
+        <v>23500</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1547</v>
+        <v>1469</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44350</v>
+        <v>44217</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N173" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O173" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P173" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14222,11 +14222,11 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S173" t="n">
-        <v>906</v>
+        <v>1188</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N174" t="n">
-        <v>12000</v>
+        <v>24500</v>
       </c>
       <c r="O174" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P174" t="n">
-        <v>12000</v>
+        <v>24750</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>750</v>
+        <v>1547</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N175" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O175" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P175" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>500</v>
+        <v>906</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44418</v>
+        <v>44350</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N176" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="O176" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P176" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>438</v>
+        <v>750</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14524,32 +14524,32 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N177" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O177" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P177" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="T177" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178">
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44460</v>
+        <v>44418</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14604,32 +14604,32 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N178" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="O178" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="P178" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="T178" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14684,32 +14684,32 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N179" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O179" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P179" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>500</v>
+        <v>722</v>
       </c>
       <c r="T179" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14764,32 +14764,32 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N180" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="O180" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="P180" t="n">
-        <v>6500</v>
+        <v>9500</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="T180" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14844,7 +14844,7 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N181" t="n">
         <v>8000</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14924,7 +14924,7 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N182" t="n">
         <v>6500</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N183" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="O183" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P183" t="n">
-        <v>14750</v>
+        <v>8000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>922</v>
+        <v>500</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44466</v>
+        <v>44427</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15080,36 +15080,36 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="N184" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="O184" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="P184" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S184" t="n">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="T184" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185">
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44249</v>
+        <v>44172</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N185" t="n">
-        <v>23500</v>
+        <v>14500</v>
       </c>
       <c r="O185" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="P185" t="n">
-        <v>23750</v>
+        <v>14750</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1484</v>
+        <v>922</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44265</v>
+        <v>44466</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,36 +15240,36 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N186" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O186" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="P186" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1562</v>
+        <v>500</v>
       </c>
       <c r="T186" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44265</v>
+        <v>44249</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N187" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="O187" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="P187" t="n">
-        <v>24500</v>
+        <v>23750</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15342,11 +15342,11 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1531</v>
+        <v>1484</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M188" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N188" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O188" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P188" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N189" t="n">
-        <v>17000</v>
+        <v>24500</v>
       </c>
       <c r="O189" t="n">
-        <v>18000</v>
+        <v>24500</v>
       </c>
       <c r="P189" t="n">
-        <v>17500</v>
+        <v>24500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1094</v>
+        <v>1531</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44343</v>
+        <v>44265</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N190" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O190" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P190" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>938</v>
+        <v>1250</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15647,13 +15647,13 @@
         <v>800</v>
       </c>
       <c r="N191" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O191" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P191" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15662,11 +15662,11 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15727,13 +15727,13 @@
         <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O192" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P192" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1250</v>
+        <v>938</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44447</v>
+        <v>44201</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="N193" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="O193" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P193" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15822,11 +15822,11 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S193" t="n">
-        <v>469</v>
+        <v>1531</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44260</v>
+        <v>44201</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N194" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="O194" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P194" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1562</v>
+        <v>1250</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44267</v>
+        <v>44447</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="N195" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="O195" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="P195" t="n">
-        <v>24000</v>
+        <v>7500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1500</v>
+        <v>469</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44468</v>
+        <v>44260</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16040,36 +16040,36 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N196" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="O196" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P196" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S196" t="n">
-        <v>500</v>
+        <v>1562</v>
       </c>
       <c r="T196" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197">
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N197" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O197" t="n">
         <v>24000</v>
       </c>
       <c r="P197" t="n">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1469</v>
+        <v>1500</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44312</v>
+        <v>44468</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16200,36 +16200,36 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N198" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O198" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P198" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T198" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N199" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="O199" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="P199" t="n">
-        <v>18500</v>
+        <v>23500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16302,11 +16302,11 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1156</v>
+        <v>1469</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="N200" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="O200" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P200" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16382,11 +16382,11 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S200" t="n">
-        <v>875</v>
+        <v>1188</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="N201" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O201" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P201" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16462,11 +16462,11 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S201" t="n">
-        <v>500</v>
+        <v>1156</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44386</v>
+        <v>44187</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N202" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O202" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P202" t="n">
-        <v>9500</v>
+        <v>14000</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>594</v>
+        <v>875</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16600,33 +16600,33 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M203" t="n">
+        <v>1500</v>
+      </c>
+      <c r="N203" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O203" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P203" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S203" t="n">
         <v>500</v>
-      </c>
-      <c r="N203" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O203" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P203" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q203" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R203" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S203" t="n">
-        <v>438</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N204" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O204" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P204" t="n">
-        <v>21500</v>
+        <v>9500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1344</v>
+        <v>594</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N205" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O205" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P205" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1125</v>
+        <v>438</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16847,13 +16847,13 @@
         <v>600</v>
       </c>
       <c r="N206" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="O206" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P206" t="n">
-        <v>24750</v>
+        <v>21500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1547</v>
+        <v>1344</v>
       </c>
       <c r="T206" t="n">
         <v>16</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16927,13 +16927,13 @@
         <v>300</v>
       </c>
       <c r="N207" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O207" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P207" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1250</v>
+        <v>1125</v>
       </c>
       <c r="T207" t="n">
         <v>16</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17000,36 +17000,36 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N208" t="n">
-        <v>10000</v>
+        <v>24500</v>
       </c>
       <c r="O208" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P208" t="n">
-        <v>10000</v>
+        <v>24750</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R208" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S208" t="n">
-        <v>556</v>
+        <v>1547</v>
       </c>
       <c r="T208" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17080,36 +17080,36 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N209" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="O209" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="P209" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T209" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17164,32 +17164,32 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N210" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="O210" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="P210" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1688</v>
+        <v>556</v>
       </c>
       <c r="T210" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17240,36 +17240,36 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N211" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="O211" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="P211" t="n">
-        <v>26000</v>
+        <v>9000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1625</v>
+        <v>500</v>
       </c>
       <c r="T211" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212">
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N212" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O212" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P212" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1375</v>
+        <v>1688</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N213" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="O213" t="n">
-        <v>24500</v>
+        <v>26000</v>
       </c>
       <c r="P213" t="n">
-        <v>24250</v>
+        <v>26000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1516</v>
+        <v>1625</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44243</v>
+        <v>44196</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N214" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O214" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P214" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N215" t="n">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="O215" t="n">
-        <v>26000</v>
+        <v>24500</v>
       </c>
       <c r="P215" t="n">
-        <v>25500</v>
+        <v>24250</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1594</v>
+        <v>1516</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44168</v>
+        <v>44243</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N216" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O216" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P216" t="n">
-        <v>12250</v>
+        <v>20000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17662,11 +17662,11 @@
       </c>
       <c r="R216" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S216" t="n">
-        <v>766</v>
+        <v>1250</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N217" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O217" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P217" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>859</v>
+        <v>1594</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N218" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O218" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P218" t="n">
-        <v>11500</v>
+        <v>12250</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>719</v>
+        <v>766</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N219" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="O219" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P219" t="n">
-        <v>8000</v>
+        <v>13750</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17902,11 +17902,11 @@
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S219" t="n">
-        <v>500</v>
+        <v>859</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="N220" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O220" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P220" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N221" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O221" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="P221" t="n">
-        <v>23250</v>
+        <v>8000</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18062,11 +18062,11 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1453</v>
+        <v>500</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44371</v>
+        <v>44433</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="N222" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O222" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P222" t="n">
-        <v>11500</v>
+        <v>8000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>719</v>
+        <v>500</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N223" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O223" t="n">
-        <v>8000</v>
+        <v>23500</v>
       </c>
       <c r="P223" t="n">
-        <v>8000</v>
+        <v>23250</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>500</v>
+        <v>1453</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N224" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O224" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P224" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18364,29 +18364,29 @@
         </is>
       </c>
       <c r="M225" t="n">
+        <v>200</v>
+      </c>
+      <c r="N225" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O225" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P225" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S225" t="n">
         <v>500</v>
-      </c>
-      <c r="N225" t="n">
-        <v>19000</v>
-      </c>
-      <c r="O225" t="n">
-        <v>19000</v>
-      </c>
-      <c r="P225" t="n">
-        <v>19000</v>
-      </c>
-      <c r="Q225" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R225" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S225" t="n">
-        <v>1188</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N226" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O226" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P226" t="n">
-        <v>8533</v>
+        <v>21500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>533</v>
+        <v>1344</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44363</v>
+        <v>44316</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N227" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O227" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P227" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>719</v>
+        <v>1188</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44273</v>
+        <v>44397</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="N228" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O228" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P228" t="n">
-        <v>24000</v>
+        <v>8533</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1500</v>
+        <v>533</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44438</v>
+        <v>44363</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M229" t="n">
         <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O229" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="P229" t="n">
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>500</v>
+        <v>719</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44372</v>
+        <v>44273</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N230" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="O230" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="P230" t="n">
-        <v>10500</v>
+        <v>24000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>656</v>
+        <v>1500</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M231" t="n">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N232" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O232" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P232" t="n">
-        <v>21500</v>
+        <v>10500</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1344</v>
+        <v>656</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N233" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O233" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P233" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M234" t="n">
         <v>200</v>
       </c>
       <c r="N234" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O234" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P234" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1250</v>
+        <v>1344</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19167,13 +19167,13 @@
         <v>400</v>
       </c>
       <c r="N235" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O235" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P235" t="n">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>844</v>
+        <v>1531</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19247,13 +19247,13 @@
         <v>200</v>
       </c>
       <c r="N236" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O236" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P236" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>688</v>
+        <v>1250</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N237" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O237" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P237" t="n">
-        <v>12250</v>
+        <v>13500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>766</v>
+        <v>844</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N238" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O238" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P238" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N239" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O239" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P239" t="n">
-        <v>13500</v>
+        <v>12250</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N240" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O240" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P240" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N241" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P241" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N242" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O242" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P242" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N243" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O243" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P243" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N244" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O244" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P244" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19967,13 +19967,13 @@
         <v>800</v>
       </c>
       <c r="N245" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O245" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P245" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19982,11 +19982,11 @@
       </c>
       <c r="R245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1469</v>
+        <v>1344</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20047,13 +20047,13 @@
         <v>300</v>
       </c>
       <c r="N246" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O246" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P246" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20062,11 +20062,11 @@
       </c>
       <c r="R246" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N247" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O247" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P247" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>844</v>
+        <v>1469</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N248" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O248" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P248" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>688</v>
+        <v>1188</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N249" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O249" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P249" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20302,11 +20302,11 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1531</v>
+        <v>844</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20367,13 +20367,13 @@
         <v>200</v>
       </c>
       <c r="N250" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O250" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P250" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1250</v>
+        <v>688</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N251" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O251" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P251" t="n">
-        <v>12500</v>
+        <v>24500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>781</v>
+        <v>1531</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>200</v>
       </c>
       <c r="N252" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O252" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P252" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N253" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O253" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P253" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>500</v>
+        <v>781</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20684,29 +20684,29 @@
         </is>
       </c>
       <c r="M254" t="n">
+        <v>200</v>
+      </c>
+      <c r="N254" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O254" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P254" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S254" t="n">
         <v>500</v>
-      </c>
-      <c r="N254" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O254" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P254" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q254" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R254" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S254" t="n">
-        <v>438</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N255" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="O255" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P255" t="n">
-        <v>26750</v>
+        <v>8000</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1672</v>
+        <v>500</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N256" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O256" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P256" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N257" t="n">
-        <v>17000</v>
+        <v>26500</v>
       </c>
       <c r="O257" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="P257" t="n">
-        <v>17500</v>
+        <v>26750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1094</v>
+        <v>1672</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N258" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O258" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P258" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21022,11 +21022,11 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N259" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O259" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P259" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1250</v>
+        <v>1094</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N260" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O260" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P260" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21182,11 +21182,11 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S260" t="n">
-        <v>594</v>
+        <v>1531</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N261" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O261" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P261" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21262,11 +21262,11 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="N262" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O262" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P262" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1406</v>
+        <v>594</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N263" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O263" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P263" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N264" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O264" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P264" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>781</v>
+        <v>1406</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N265" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O265" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P265" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>562</v>
+        <v>1188</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -21647,13 +21647,13 @@
         <v>800</v>
       </c>
       <c r="N266" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O266" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P266" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21662,11 +21662,11 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1531</v>
+        <v>781</v>
       </c>
       <c r="T266" t="n">
         <v>16</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N267" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O267" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P267" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21742,11 +21742,11 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1250</v>
+        <v>562</v>
       </c>
       <c r="T267" t="n">
         <v>16</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N268" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O268" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P268" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21822,11 +21822,11 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T268" t="n">
         <v>16</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N269" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="O269" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P269" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21902,11 +21902,11 @@
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>406</v>
+        <v>1250</v>
       </c>
       <c r="T269" t="n">
         <v>16</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N270" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O270" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P270" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1281</v>
+        <v>500</v>
       </c>
       <c r="T270" t="n">
         <v>16</v>
@@ -22007,68 +22007,228 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E271" t="n">
+        <v>10</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G271" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M271" t="n">
+        <v>500</v>
+      </c>
+      <c r="N271" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O271" t="n">
+        <v>6500</v>
+      </c>
+      <c r="P271" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S271" t="n">
+        <v>406</v>
+      </c>
+      <c r="T271" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>4</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E271" t="n">
-        <v>10</v>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G271" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I271" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J271" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L271" t="inlineStr">
+      <c r="E272" t="n">
+        <v>10</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G272" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M272" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N272" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O272" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P272" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S272" t="n">
+        <v>1281</v>
+      </c>
+      <c r="T272" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>4</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E273" t="n">
+        <v>10</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>2a plateado</t>
         </is>
       </c>
-      <c r="M271" t="n">
+      <c r="M273" t="n">
         <v>400</v>
       </c>
-      <c r="N271" t="n">
+      <c r="N273" t="n">
         <v>17000</v>
       </c>
-      <c r="O271" t="n">
+      <c r="O273" t="n">
         <v>17000</v>
       </c>
-      <c r="P271" t="n">
+      <c r="P273" t="n">
         <v>17000</v>
       </c>
-      <c r="Q271" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R271" t="inlineStr">
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S271" t="n">
+      <c r="S273" t="n">
         <v>1062</v>
       </c>
-      <c r="T271" t="n">
+      <c r="T273" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T273"/>
+  <dimension ref="A1:T275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18844,32 +18844,32 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N231" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O231" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P231" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S231" t="n">
         <v>500</v>
       </c>
       <c r="T231" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232">
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44372</v>
+        <v>44474</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18920,36 +18920,36 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N232" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="O232" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="P232" t="n">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S232" t="n">
-        <v>656</v>
+        <v>389</v>
       </c>
       <c r="T232" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19000,7 +19000,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M233" t="n">
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N234" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O234" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P234" t="n">
-        <v>21500</v>
+        <v>10500</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1344</v>
+        <v>656</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N235" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O235" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P235" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M236" t="n">
         <v>200</v>
       </c>
       <c r="N236" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="O236" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P236" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1250</v>
+        <v>1344</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19327,13 +19327,13 @@
         <v>400</v>
       </c>
       <c r="N237" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="O237" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="P237" t="n">
-        <v>13500</v>
+        <v>24500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>844</v>
+        <v>1531</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19407,13 +19407,13 @@
         <v>200</v>
       </c>
       <c r="N238" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="O238" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="P238" t="n">
-        <v>11000</v>
+        <v>20000</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>688</v>
+        <v>1250</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N239" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="O239" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P239" t="n">
-        <v>12250</v>
+        <v>13500</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>766</v>
+        <v>844</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N240" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O240" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P240" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T240" t="n">
         <v>16</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N241" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O241" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P241" t="n">
-        <v>13500</v>
+        <v>12250</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N242" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O242" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P242" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N243" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O243" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P243" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>719</v>
+        <v>844</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N244" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="O244" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="P244" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>500</v>
+        <v>688</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N245" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="O245" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P245" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1344</v>
+        <v>719</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N246" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="O246" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P246" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1125</v>
+        <v>500</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20127,13 +20127,13 @@
         <v>800</v>
       </c>
       <c r="N247" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="O247" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P247" t="n">
-        <v>23500</v>
+        <v>21500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20142,11 +20142,11 @@
       </c>
       <c r="R247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1469</v>
+        <v>1344</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20207,13 +20207,13 @@
         <v>300</v>
       </c>
       <c r="N248" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O248" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="P248" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1188</v>
+        <v>1125</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N249" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="O249" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P249" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20302,11 +20302,11 @@
       </c>
       <c r="R249" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S249" t="n">
-        <v>844</v>
+        <v>1469</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44357</v>
+        <v>44215</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N250" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O250" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P250" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>688</v>
+        <v>1188</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N251" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O251" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P251" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20462,11 +20462,11 @@
       </c>
       <c r="R251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1531</v>
+        <v>844</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20527,13 +20527,13 @@
         <v>200</v>
       </c>
       <c r="N252" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O252" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P252" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1250</v>
+        <v>688</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N253" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O253" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="P253" t="n">
-        <v>12500</v>
+        <v>24500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20622,11 +20622,11 @@
       </c>
       <c r="R253" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S253" t="n">
-        <v>781</v>
+        <v>1531</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M254" t="n">
         <v>200</v>
       </c>
       <c r="N254" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O254" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P254" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N255" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O255" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="P255" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>500</v>
+        <v>781</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44411</v>
+        <v>44162</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20844,29 +20844,29 @@
         </is>
       </c>
       <c r="M256" t="n">
+        <v>200</v>
+      </c>
+      <c r="N256" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O256" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P256" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S256" t="n">
         <v>500</v>
-      </c>
-      <c r="N256" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O256" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P256" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q256" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R256" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S256" t="n">
-        <v>438</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N257" t="n">
-        <v>26500</v>
+        <v>8000</v>
       </c>
       <c r="O257" t="n">
-        <v>27000</v>
+        <v>8000</v>
       </c>
       <c r="P257" t="n">
-        <v>26750</v>
+        <v>8000</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1672</v>
+        <v>500</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N258" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O258" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P258" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N259" t="n">
-        <v>17000</v>
+        <v>26500</v>
       </c>
       <c r="O259" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="P259" t="n">
-        <v>17500</v>
+        <v>26750</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21102,11 +21102,11 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1094</v>
+        <v>1672</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44239</v>
+        <v>44257</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N260" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O260" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P260" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21182,11 +21182,11 @@
       </c>
       <c r="R260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N261" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O261" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P261" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1250</v>
+        <v>1094</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N262" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O262" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P262" t="n">
-        <v>9500</v>
+        <v>24500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21342,11 +21342,11 @@
       </c>
       <c r="R262" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S262" t="n">
-        <v>594</v>
+        <v>1531</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N263" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O263" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P263" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21422,11 +21422,11 @@
       </c>
       <c r="R263" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S263" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="N264" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="O264" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="P264" t="n">
-        <v>22500</v>
+        <v>9500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1406</v>
+        <v>594</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N265" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O265" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P265" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N266" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O266" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P266" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>781</v>
+        <v>1406</v>
       </c>
       <c r="T266" t="n">
         <v>16</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N267" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="O267" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P267" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>562</v>
+        <v>1188</v>
       </c>
       <c r="T267" t="n">
         <v>16</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -21807,13 +21807,13 @@
         <v>800</v>
       </c>
       <c r="N268" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O268" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P268" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21822,11 +21822,11 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1531</v>
+        <v>781</v>
       </c>
       <c r="T268" t="n">
         <v>16</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N269" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O269" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="P269" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21902,11 +21902,11 @@
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1250</v>
+        <v>562</v>
       </c>
       <c r="T269" t="n">
         <v>16</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N270" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O270" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P270" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21982,11 +21982,11 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T270" t="n">
         <v>16</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N271" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="O271" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="P271" t="n">
-        <v>6500</v>
+        <v>20000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22062,11 +22062,11 @@
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>406</v>
+        <v>1250</v>
       </c>
       <c r="T271" t="n">
         <v>16</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N272" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O272" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="P272" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1281</v>
+        <v>500</v>
       </c>
       <c r="T272" t="n">
         <v>16</v>
@@ -22167,68 +22167,228 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E273" t="n">
+        <v>10</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G273" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>2a amarillo</t>
+        </is>
+      </c>
+      <c r="M273" t="n">
+        <v>500</v>
+      </c>
+      <c r="N273" t="n">
+        <v>6500</v>
+      </c>
+      <c r="O273" t="n">
+        <v>6500</v>
+      </c>
+      <c r="P273" t="n">
+        <v>6500</v>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S273" t="n">
+        <v>406</v>
+      </c>
+      <c r="T273" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>4</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E273" t="n">
-        <v>10</v>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G273" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I273" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="E274" t="n">
+        <v>10</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G274" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M274" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N274" t="n">
+        <v>20000</v>
+      </c>
+      <c r="O274" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P274" t="n">
+        <v>20500</v>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S274" t="n">
+        <v>1281</v>
+      </c>
+      <c r="T274" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>4</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E275" t="n">
+        <v>10</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G275" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
         <is>
           <t>2a plateado</t>
         </is>
       </c>
-      <c r="M273" t="n">
+      <c r="M275" t="n">
         <v>400</v>
       </c>
-      <c r="N273" t="n">
+      <c r="N275" t="n">
         <v>17000</v>
       </c>
-      <c r="O273" t="n">
+      <c r="O275" t="n">
         <v>17000</v>
       </c>
-      <c r="P273" t="n">
+      <c r="P275" t="n">
         <v>17000</v>
       </c>
-      <c r="Q273" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R273" t="inlineStr">
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S273" t="n">
+      <c r="S275" t="n">
         <v>1062</v>
       </c>
-      <c r="T273" t="n">
+      <c r="T275" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T277"/>
+  <dimension ref="A1:T279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N238" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O238" t="n">
         <v>9000</v>
       </c>
       <c r="P238" t="n">
-        <v>9000</v>
+        <v>8750</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="T238" t="n">
         <v>18</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19480,36 +19480,36 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N239" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O239" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P239" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S239" t="n">
-        <v>594</v>
+        <v>389</v>
       </c>
       <c r="T239" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19560,36 +19560,36 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M240" t="n">
+        <v>300</v>
+      </c>
+      <c r="N240" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O240" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P240" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S240" t="n">
         <v>500</v>
       </c>
-      <c r="N240" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O240" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P240" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q240" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R240" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S240" t="n">
-        <v>438</v>
-      </c>
       <c r="T240" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N241" t="n">
-        <v>26500</v>
+        <v>9000</v>
       </c>
       <c r="O241" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="P241" t="n">
-        <v>26750</v>
+        <v>9500</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1672</v>
+        <v>594</v>
       </c>
       <c r="T241" t="n">
         <v>16</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N242" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O242" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P242" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T242" t="n">
         <v>16</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N243" t="n">
-        <v>11000</v>
+        <v>26500</v>
       </c>
       <c r="O243" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="P243" t="n">
-        <v>11500</v>
+        <v>26750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>719</v>
+        <v>1672</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N244" t="n">
         <v>21000</v>
       </c>
       <c r="O244" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P244" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1344</v>
+        <v>1312</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M245" t="n">
         <v>300</v>
       </c>
       <c r="N245" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O245" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P245" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1125</v>
+        <v>719</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N246" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O246" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P246" t="n">
-        <v>11500</v>
+        <v>21500</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>719</v>
+        <v>1344</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20127,13 +20127,13 @@
         <v>300</v>
       </c>
       <c r="N247" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O247" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P247" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N248" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O248" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P248" t="n">
-        <v>14750</v>
+        <v>11500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20222,11 +20222,11 @@
       </c>
       <c r="R248" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S248" t="n">
-        <v>922</v>
+        <v>719</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N249" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O249" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P249" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N250" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O250" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P250" t="n">
-        <v>11000</v>
+        <v>14750</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>688</v>
+        <v>922</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N251" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O251" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P251" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1219</v>
+        <v>844</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N252" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O252" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P252" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1062</v>
+        <v>688</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20607,13 +20607,13 @@
         <v>400</v>
       </c>
       <c r="N253" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O253" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P253" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1344</v>
+        <v>1219</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N254" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O254" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P254" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1188</v>
+        <v>1062</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N255" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O255" t="n">
         <v>22000</v>
       </c>
-      <c r="O255" t="n">
-        <v>23000</v>
-      </c>
       <c r="P255" t="n">
-        <v>22500</v>
+        <v>21500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20782,11 +20782,11 @@
       </c>
       <c r="R255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1406</v>
+        <v>1344</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="N256" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O256" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P256" t="n">
-        <v>8533</v>
+        <v>19000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>533</v>
+        <v>1188</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44414</v>
+        <v>44223</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N257" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O257" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P257" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>500</v>
+        <v>1406</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N258" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O258" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P258" t="n">
-        <v>6500</v>
+        <v>8533</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>406</v>
+        <v>533</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N259" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O259" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P259" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N260" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="O260" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="P260" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1312</v>
+        <v>406</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O261" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="P261" t="n">
-        <v>8250</v>
+        <v>23500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>516</v>
+        <v>1469</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N262" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O262" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P262" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N263" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O263" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="P263" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>406</v>
+        <v>516</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -21480,11 +21480,11 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N264" t="n">
         <v>8000</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N265" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="O265" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="P265" t="n">
-        <v>18500</v>
+        <v>6500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21582,11 +21582,11 @@
       </c>
       <c r="R265" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1156</v>
+        <v>406</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="N266" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O266" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P266" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21662,11 +21662,11 @@
       </c>
       <c r="R266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S266" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T266" t="n">
         <v>16</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -21720,36 +21720,36 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N267" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O267" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P267" t="n">
-        <v>9000</v>
+        <v>18500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>500</v>
+        <v>1156</v>
       </c>
       <c r="T267" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="268">
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N268" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O268" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="P268" t="n">
-        <v>25500</v>
+        <v>14000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21822,11 +21822,11 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1594</v>
+        <v>875</v>
       </c>
       <c r="T268" t="n">
         <v>16</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -21880,36 +21880,36 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N269" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O269" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P269" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1312</v>
+        <v>500</v>
       </c>
       <c r="T269" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N270" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="O270" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="P270" t="n">
-        <v>8000</v>
+        <v>25500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>500</v>
+        <v>1594</v>
       </c>
       <c r="T270" t="n">
         <v>16</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N271" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O271" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P271" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22062,11 +22062,11 @@
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T271" t="n">
         <v>16</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M272" t="n">
         <v>300</v>
       </c>
       <c r="N272" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O272" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P272" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T272" t="n">
         <v>16</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N273" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O273" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P273" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1219</v>
+        <v>1531</v>
       </c>
       <c r="T273" t="n">
         <v>16</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N274" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O274" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P274" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22302,11 +22302,11 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1344</v>
+        <v>1250</v>
       </c>
       <c r="T274" t="n">
         <v>16</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N275" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O275" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P275" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22382,11 +22382,11 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1469</v>
+        <v>1219</v>
       </c>
       <c r="T275" t="n">
         <v>16</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O276" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P276" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T276" t="n">
         <v>16</v>
@@ -22487,68 +22487,228 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E277" t="n">
+        <v>10</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G277" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M277" t="n">
+        <v>400</v>
+      </c>
+      <c r="N277" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O277" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P277" t="n">
+        <v>23500</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S277" t="n">
+        <v>1469</v>
+      </c>
+      <c r="T277" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>4</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E278" t="n">
+        <v>10</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G278" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M278" t="n">
+        <v>200</v>
+      </c>
+      <c r="N278" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O278" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P278" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S278" t="n">
+        <v>1188</v>
+      </c>
+      <c r="T278" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>4</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E277" t="n">
-        <v>10</v>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G277" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I277" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="E279" t="n">
+        <v>10</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
         <is>
           <t>1a amarillo</t>
         </is>
       </c>
-      <c r="M277" t="n">
+      <c r="M279" t="n">
         <v>1500</v>
       </c>
-      <c r="N277" t="n">
+      <c r="N279" t="n">
         <v>8000</v>
       </c>
-      <c r="O277" t="n">
+      <c r="O279" t="n">
         <v>8000</v>
       </c>
-      <c r="P277" t="n">
+      <c r="P279" t="n">
         <v>8000</v>
       </c>
-      <c r="Q277" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R277" t="inlineStr">
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S277" t="n">
+      <c r="S279" t="n">
         <v>500</v>
       </c>
-      <c r="T277" t="n">
+      <c r="T279" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T279"/>
+  <dimension ref="A1:T281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -9004,32 +9004,32 @@
         </is>
       </c>
       <c r="M108" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N108" t="n">
         <v>8000</v>
       </c>
       <c r="O108" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P108" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="T108" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N109" t="n">
         <v>7000</v>
@@ -9097,19 +9097,19 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="T109" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N110" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O110" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="P110" t="n">
-        <v>24250</v>
+        <v>8000</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9182,11 +9182,11 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>1516</v>
+        <v>500</v>
       </c>
       <c r="T110" t="n">
         <v>16</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44230</v>
+        <v>44424</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N111" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O111" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P111" t="n">
-        <v>24500</v>
+        <v>7000</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>1531</v>
+        <v>438</v>
       </c>
       <c r="T111" t="n">
         <v>16</v>
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N112" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O112" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P112" t="n">
-        <v>20000</v>
+        <v>24250</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1250</v>
+        <v>1516</v>
       </c>
       <c r="T112" t="n">
         <v>16</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44370</v>
+        <v>44230</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -9407,13 +9407,13 @@
         <v>300</v>
       </c>
       <c r="N113" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O113" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P113" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>719</v>
+        <v>1531</v>
       </c>
       <c r="T113" t="n">
         <v>16</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44449</v>
+        <v>44230</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N114" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O114" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P114" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T114" t="n">
         <v>16</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N115" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O115" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P115" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>438</v>
+        <v>719</v>
       </c>
       <c r="T115" t="n">
         <v>16</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N116" t="n">
         <v>8000</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -9724,7 +9724,7 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N117" t="n">
         <v>7000</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -9800,20 +9800,20 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N118" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O118" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P118" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
@@ -9826,7 +9826,7 @@
         </is>
       </c>
       <c r="S118" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T118" t="n">
         <v>16</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N119" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O119" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P119" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>938</v>
+        <v>438</v>
       </c>
       <c r="T119" t="n">
         <v>16</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -9964,16 +9964,16 @@
         </is>
       </c>
       <c r="M120" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N120" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O120" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="P120" t="n">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1594</v>
+        <v>1094</v>
       </c>
       <c r="T120" t="n">
         <v>16</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -10044,16 +10044,16 @@
         </is>
       </c>
       <c r="M121" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N121" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O121" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P121" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>1312</v>
+        <v>938</v>
       </c>
       <c r="T121" t="n">
         <v>16</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -10127,13 +10127,13 @@
         <v>600</v>
       </c>
       <c r="N122" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O122" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="P122" t="n">
-        <v>21500</v>
+        <v>25500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1344</v>
+        <v>1594</v>
       </c>
       <c r="T122" t="n">
         <v>16</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N123" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O123" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P123" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1125</v>
+        <v>1312</v>
       </c>
       <c r="T123" t="n">
         <v>16</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -10284,16 +10284,16 @@
         </is>
       </c>
       <c r="M124" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N124" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O124" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P124" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1094</v>
+        <v>1344</v>
       </c>
       <c r="T124" t="n">
         <v>16</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -10367,13 +10367,13 @@
         <v>300</v>
       </c>
       <c r="N125" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O125" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P125" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T125" t="n">
         <v>16</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -10440,36 +10440,36 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N126" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O126" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P126" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S126" t="n">
-        <v>556</v>
+        <v>1094</v>
       </c>
       <c r="T126" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -10520,36 +10520,36 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N127" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O127" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P127" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S127" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T127" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128">
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -10600,36 +10600,36 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N128" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O128" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P128" t="n">
-        <v>21500</v>
+        <v>10000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1344</v>
+        <v>556</v>
       </c>
       <c r="T128" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -10680,36 +10680,36 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N129" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O129" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P129" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T129" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -10764,16 +10764,16 @@
         </is>
       </c>
       <c r="M130" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N130" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O130" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P130" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1562</v>
+        <v>1344</v>
       </c>
       <c r="T130" t="n">
         <v>16</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="M131" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N131" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O131" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="P131" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T131" t="n">
         <v>16</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N132" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O132" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P132" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T132" t="n">
         <v>16</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N133" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="O133" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="P133" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T133" t="n">
         <v>16</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N134" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O134" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P134" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T134" t="n">
         <v>16</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N135" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O135" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P135" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11182,11 +11182,11 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1406</v>
+        <v>500</v>
       </c>
       <c r="T135" t="n">
         <v>16</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N136" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O136" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P136" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11262,11 +11262,11 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T136" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -11327,13 +11327,13 @@
         <v>600</v>
       </c>
       <c r="N137" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="O137" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P137" t="n">
-        <v>24750</v>
+        <v>22500</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1547</v>
+        <v>1406</v>
       </c>
       <c r="T137" t="n">
         <v>16</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -11407,13 +11407,13 @@
         <v>300</v>
       </c>
       <c r="N138" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O138" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P138" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11422,11 +11422,11 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11487,13 +11487,13 @@
         <v>600</v>
       </c>
       <c r="N139" t="n">
-        <v>23000</v>
+        <v>24500</v>
       </c>
       <c r="O139" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P139" t="n">
-        <v>23500</v>
+        <v>24750</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1469</v>
+        <v>1547</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -11567,13 +11567,13 @@
         <v>300</v>
       </c>
       <c r="N140" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O140" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P140" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1312</v>
+        <v>1250</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11644,16 +11644,16 @@
         </is>
       </c>
       <c r="M141" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N141" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O141" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P141" t="n">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1406</v>
+        <v>1469</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -11724,16 +11724,16 @@
         </is>
       </c>
       <c r="M142" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N142" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O142" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P142" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11742,11 +11742,11 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1188</v>
+        <v>1312</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N143" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O143" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P143" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11822,11 +11822,11 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1094</v>
+        <v>1406</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N144" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O144" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P144" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11902,11 +11902,11 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T144" t="n">
         <v>16</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N145" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="O145" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="P145" t="n">
-        <v>26500</v>
+        <v>17500</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11982,11 +11982,11 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1656</v>
+        <v>1094</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N146" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O146" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P146" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T146" t="n">
         <v>16</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N147" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="O147" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="P147" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12142,11 +12142,11 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1531</v>
+        <v>1656</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N148" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O148" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P148" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N149" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="O149" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P149" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>469</v>
+        <v>1531</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44421</v>
+        <v>44209</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N150" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O150" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P150" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N151" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O151" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P151" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44232</v>
+        <v>44421</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N152" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="O152" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="P152" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N153" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O153" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P153" t="n">
-        <v>21500</v>
+        <v>7000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1344</v>
+        <v>438</v>
       </c>
       <c r="T153" t="n">
         <v>16</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N154" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="O154" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="P154" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1188</v>
+        <v>1531</v>
       </c>
       <c r="T154" t="n">
         <v>16</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -12764,16 +12764,16 @@
         </is>
       </c>
       <c r="M155" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N155" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O155" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P155" t="n">
-        <v>13500</v>
+        <v>21500</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>844</v>
+        <v>1344</v>
       </c>
       <c r="T155" t="n">
         <v>16</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N156" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O156" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P156" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>688</v>
+        <v>1188</v>
       </c>
       <c r="T156" t="n">
         <v>16</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12920,21 +12920,21 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N157" t="n">
         <v>13000</v>
       </c>
       <c r="O157" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P157" t="n">
         <v>13500</v>
       </c>
-      <c r="P157" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q157" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -13000,20 +13000,20 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M158" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N158" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O158" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P158" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13022,11 +13022,11 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S158" t="n">
-        <v>922</v>
+        <v>688</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44467</v>
+        <v>44169</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -13084,32 +13084,32 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N159" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O159" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="P159" t="n">
-        <v>9000</v>
+        <v>13250</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S159" t="n">
-        <v>500</v>
+        <v>828</v>
       </c>
       <c r="T159" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44467</v>
+        <v>44169</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -13160,36 +13160,36 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N160" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="O160" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P160" t="n">
-        <v>8000</v>
+        <v>14750</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>444</v>
+        <v>922</v>
       </c>
       <c r="T160" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -13244,32 +13244,32 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N161" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O161" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P161" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S161" t="n">
         <v>500</v>
       </c>
       <c r="T161" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -13324,32 +13324,32 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N162" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O162" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P162" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="T162" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N163" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O163" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P163" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T163" t="n">
         <v>16</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N164" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="O164" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="P164" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1188</v>
+        <v>406</v>
       </c>
       <c r="T164" t="n">
         <v>16</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44273</v>
+        <v>44319</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N165" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O165" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P165" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1500</v>
+        <v>1344</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44411</v>
+        <v>44319</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N166" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O166" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P166" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N167" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O167" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="P167" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>438</v>
+        <v>1500</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N168" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="O168" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P168" t="n">
-        <v>24750</v>
+        <v>8000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13822,11 +13822,11 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S168" t="n">
-        <v>1547</v>
+        <v>500</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N169" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O169" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P169" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13902,11 +13902,11 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1250</v>
+        <v>438</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13967,13 +13967,13 @@
         <v>800</v>
       </c>
       <c r="N170" t="n">
-        <v>23000</v>
+        <v>24500</v>
       </c>
       <c r="O170" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P170" t="n">
-        <v>23500</v>
+        <v>24750</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1469</v>
+        <v>1547</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14047,13 +14047,13 @@
         <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O171" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P171" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N172" t="n">
-        <v>24500</v>
+        <v>23000</v>
       </c>
       <c r="O172" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="P172" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14142,11 +14142,11 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1531</v>
+        <v>1469</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O173" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P173" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N174" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O174" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P174" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N175" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O175" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P175" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14382,11 +14382,11 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S175" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N176" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O176" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P176" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14524,7 +14524,7 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
         <v>8000</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44469</v>
+        <v>44413</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14600,36 +14600,36 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N178" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O178" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P178" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T178" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14680,11 +14680,11 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N179" t="n">
         <v>8000</v>
@@ -14697,19 +14697,19 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S179" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T179" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14764,32 +14764,32 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N180" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O180" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="P180" t="n">
-        <v>12250</v>
+        <v>9000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>766</v>
+        <v>500</v>
       </c>
       <c r="T180" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14840,36 +14840,36 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O181" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P181" t="n">
-        <v>13750</v>
+        <v>8000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>859</v>
+        <v>444</v>
       </c>
       <c r="T181" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N182" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O182" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P182" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T182" t="n">
         <v>16</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N183" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="O183" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P183" t="n">
-        <v>22500</v>
+        <v>13750</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15022,11 +15022,11 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1406</v>
+        <v>859</v>
       </c>
       <c r="T183" t="n">
         <v>16</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N184" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O184" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P184" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N185" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O185" t="n">
-        <v>12500</v>
+        <v>23000</v>
       </c>
       <c r="P185" t="n">
-        <v>12250</v>
+        <v>22500</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>766</v>
+        <v>1406</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M186" t="n">
         <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O186" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P186" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M187" t="n">
         <v>800</v>
       </c>
       <c r="N187" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O187" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P187" t="n">
-        <v>13500</v>
+        <v>12250</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O188" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P188" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N189" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O189" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P189" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1531</v>
+        <v>844</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N190" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O190" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P190" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1250</v>
+        <v>688</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N191" t="n">
         <v>24000</v>
       </c>
       <c r="O191" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P191" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1500</v>
+        <v>1531</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44229</v>
+        <v>44214</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N192" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O192" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P192" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15742,11 +15742,11 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1531</v>
+        <v>1250</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N193" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O193" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P193" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15822,11 +15822,11 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N194" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O194" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P194" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>969</v>
+        <v>1531</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N195" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O195" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P195" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15982,11 +15982,11 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S195" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N196" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O196" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P196" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>500</v>
+        <v>969</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N197" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O197" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P197" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>406</v>
+        <v>750</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N198" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O198" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P198" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>781</v>
+        <v>500</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N199" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O199" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P199" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>562</v>
+        <v>406</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N200" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O200" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P200" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1094</v>
+        <v>781</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N201" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O201" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P201" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>938</v>
+        <v>562</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N202" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O202" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P202" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16542,11 +16542,11 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M203" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="N203" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O203" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P203" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16680,36 +16680,36 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N204" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="O204" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P204" t="n">
-        <v>8750</v>
+        <v>24500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>486</v>
+        <v>1531</v>
       </c>
       <c r="T204" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205">
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16760,36 +16760,36 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N205" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O205" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P205" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S205" t="n">
-        <v>389</v>
+        <v>1375</v>
       </c>
       <c r="T205" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="206">
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N206" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O206" t="n">
         <v>9000</v>
       </c>
       <c r="P206" t="n">
-        <v>9000</v>
+        <v>8750</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="T206" t="n">
         <v>18</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16924,7 +16924,7 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N207" t="n">
         <v>7000</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17000,36 +17000,36 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M208" t="n">
+        <v>800</v>
+      </c>
+      <c r="N208" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O208" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P208" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S208" t="n">
         <v>500</v>
       </c>
-      <c r="N208" t="n">
-        <v>25000</v>
-      </c>
-      <c r="O208" t="n">
-        <v>26000</v>
-      </c>
-      <c r="P208" t="n">
-        <v>25500</v>
-      </c>
-      <c r="Q208" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R208" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S208" t="n">
-        <v>1594</v>
-      </c>
       <c r="T208" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17080,36 +17080,36 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N209" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O209" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P209" t="n">
-        <v>24500</v>
+        <v>7000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1531</v>
+        <v>389</v>
       </c>
       <c r="T209" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210">
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N210" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O210" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P210" t="n">
-        <v>20000</v>
+        <v>25500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17182,11 +17182,11 @@
       </c>
       <c r="R210" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1250</v>
+        <v>1594</v>
       </c>
       <c r="T210" t="n">
         <v>16</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N211" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O211" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P211" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17262,11 +17262,11 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>719</v>
+        <v>1531</v>
       </c>
       <c r="T211" t="n">
         <v>16</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17327,13 +17327,13 @@
         <v>300</v>
       </c>
       <c r="N212" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O212" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P212" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S212" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N213" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O213" t="n">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="P213" t="n">
-        <v>17250</v>
+        <v>11500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1078</v>
+        <v>719</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O214" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P214" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>906</v>
+        <v>500</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N215" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O215" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="P215" t="n">
-        <v>10500</v>
+        <v>17250</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>656</v>
+        <v>1078</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N216" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O216" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P216" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>500</v>
+        <v>906</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N217" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O217" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P217" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>906</v>
+        <v>656</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N218" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O218" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P218" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N219" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O219" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P219" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>531</v>
+        <v>906</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M220" t="n">
         <v>200</v>
       </c>
       <c r="N220" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O220" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P220" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>469</v>
+        <v>750</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N221" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="O221" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="P221" t="n">
-        <v>24250</v>
+        <v>8500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18062,11 +18062,11 @@
       </c>
       <c r="R221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1516</v>
+        <v>531</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N222" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O222" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P222" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18142,11 +18142,11 @@
       </c>
       <c r="R222" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1250</v>
+        <v>469</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N223" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O223" t="n">
-        <v>10000</v>
+        <v>24500</v>
       </c>
       <c r="P223" t="n">
-        <v>9500</v>
+        <v>24250</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>594</v>
+        <v>1516</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N224" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O224" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P224" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18302,11 +18302,11 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N225" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O225" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P225" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M226" t="n">
         <v>200</v>
       </c>
       <c r="N226" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O226" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P226" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N227" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="O227" t="n">
-        <v>25000</v>
+        <v>8500</v>
       </c>
       <c r="P227" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18542,11 +18542,11 @@
       </c>
       <c r="R227" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1531</v>
+        <v>531</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O228" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P228" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18622,11 +18622,11 @@
       </c>
       <c r="R228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1250</v>
+        <v>469</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>3050</v>
+        <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O229" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P229" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18702,11 +18702,11 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N230" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O230" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P230" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18782,11 +18782,11 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>3050</v>
       </c>
       <c r="N231" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O231" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P231" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18862,11 +18862,11 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N232" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O232" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P232" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N233" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O233" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P233" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19022,11 +19022,11 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1344</v>
+        <v>1531</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="N234" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O234" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="P234" t="n">
-        <v>12250</v>
+        <v>8000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>766</v>
+        <v>500</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N235" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O235" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P235" t="n">
-        <v>8000</v>
+        <v>21500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>500</v>
+        <v>1344</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N236" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P236" t="n">
-        <v>17500</v>
+        <v>12250</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1094</v>
+        <v>766</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O237" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P237" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19400,36 +19400,36 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N238" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="O238" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P238" t="n">
-        <v>8750</v>
+        <v>17500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R238" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S238" t="n">
-        <v>486</v>
+        <v>1094</v>
       </c>
       <c r="T238" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19480,36 +19480,36 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N239" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O239" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P239" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S239" t="n">
-        <v>389</v>
+        <v>938</v>
       </c>
       <c r="T239" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240">
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N240" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O240" t="n">
         <v>9000</v>
       </c>
       <c r="P240" t="n">
-        <v>9000</v>
+        <v>8750</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="T240" t="n">
         <v>18</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19640,36 +19640,36 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N241" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O241" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P241" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>594</v>
+        <v>389</v>
       </c>
       <c r="T241" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19720,36 +19720,36 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M242" t="n">
+        <v>300</v>
+      </c>
+      <c r="N242" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O242" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P242" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S242" t="n">
         <v>500</v>
       </c>
-      <c r="N242" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O242" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P242" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q242" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R242" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S242" t="n">
-        <v>438</v>
-      </c>
       <c r="T242" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N243" t="n">
-        <v>26500</v>
+        <v>9000</v>
       </c>
       <c r="O243" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="P243" t="n">
-        <v>26750</v>
+        <v>9500</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1672</v>
+        <v>594</v>
       </c>
       <c r="T243" t="n">
         <v>16</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N244" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O244" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P244" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T244" t="n">
         <v>16</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N245" t="n">
-        <v>11000</v>
+        <v>26500</v>
       </c>
       <c r="O245" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="P245" t="n">
-        <v>11500</v>
+        <v>26750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>719</v>
+        <v>1672</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N246" t="n">
         <v>21000</v>
       </c>
       <c r="O246" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P246" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1344</v>
+        <v>1312</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M247" t="n">
         <v>300</v>
       </c>
       <c r="N247" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O247" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P247" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1125</v>
+        <v>719</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N248" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O248" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P248" t="n">
-        <v>11500</v>
+        <v>21500</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>719</v>
+        <v>1344</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20287,13 +20287,13 @@
         <v>300</v>
       </c>
       <c r="N249" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O249" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P249" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N250" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O250" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P250" t="n">
-        <v>14750</v>
+        <v>11500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20382,11 +20382,11 @@
       </c>
       <c r="R250" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S250" t="n">
-        <v>922</v>
+        <v>719</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N251" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O251" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P251" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N252" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O252" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P252" t="n">
-        <v>11000</v>
+        <v>14750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>688</v>
+        <v>922</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N253" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O253" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P253" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1219</v>
+        <v>844</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N254" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O254" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P254" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1062</v>
+        <v>688</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20767,13 +20767,13 @@
         <v>400</v>
       </c>
       <c r="N255" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O255" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P255" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1344</v>
+        <v>1219</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N256" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O256" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P256" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1188</v>
+        <v>1062</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N257" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O257" t="n">
         <v>22000</v>
       </c>
-      <c r="O257" t="n">
-        <v>23000</v>
-      </c>
       <c r="P257" t="n">
-        <v>22500</v>
+        <v>21500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20942,11 +20942,11 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1406</v>
+        <v>1344</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="N258" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O258" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P258" t="n">
-        <v>8533</v>
+        <v>19000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>533</v>
+        <v>1188</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44414</v>
+        <v>44223</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N259" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O259" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P259" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21102,11 +21102,11 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>500</v>
+        <v>1406</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N260" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O260" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P260" t="n">
-        <v>6500</v>
+        <v>8533</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>406</v>
+        <v>533</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N261" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O261" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P261" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N262" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="O262" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="P262" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1312</v>
+        <v>406</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="N263" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O263" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="P263" t="n">
-        <v>8250</v>
+        <v>23500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>516</v>
+        <v>1469</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N264" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O264" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P264" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N265" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O265" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="P265" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>406</v>
+        <v>516</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -21640,11 +21640,11 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N266" t="n">
         <v>8000</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N267" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="O267" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="P267" t="n">
-        <v>18500</v>
+        <v>6500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21742,11 +21742,11 @@
       </c>
       <c r="R267" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1156</v>
+        <v>406</v>
       </c>
       <c r="T267" t="n">
         <v>16</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="N268" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O268" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P268" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21822,11 +21822,11 @@
       </c>
       <c r="R268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S268" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T268" t="n">
         <v>16</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -21880,36 +21880,36 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N269" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O269" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P269" t="n">
-        <v>9000</v>
+        <v>18500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>500</v>
+        <v>1156</v>
       </c>
       <c r="T269" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270">
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N270" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O270" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="P270" t="n">
-        <v>25500</v>
+        <v>14000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21982,11 +21982,11 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1594</v>
+        <v>875</v>
       </c>
       <c r="T270" t="n">
         <v>16</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -22040,36 +22040,36 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N271" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O271" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P271" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1312</v>
+        <v>500</v>
       </c>
       <c r="T271" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N272" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="O272" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="P272" t="n">
-        <v>8000</v>
+        <v>25500</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>500</v>
+        <v>1594</v>
       </c>
       <c r="T272" t="n">
         <v>16</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N273" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O273" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P273" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22222,11 +22222,11 @@
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T273" t="n">
         <v>16</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>300</v>
       </c>
       <c r="N274" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O274" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P274" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22302,11 +22302,11 @@
       </c>
       <c r="R274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T274" t="n">
         <v>16</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N275" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O275" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P275" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1219</v>
+        <v>1531</v>
       </c>
       <c r="T275" t="n">
         <v>16</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N276" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O276" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P276" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22462,11 +22462,11 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1344</v>
+        <v>1250</v>
       </c>
       <c r="T276" t="n">
         <v>16</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N277" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O277" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P277" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22542,11 +22542,11 @@
       </c>
       <c r="R277" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1469</v>
+        <v>1219</v>
       </c>
       <c r="T277" t="n">
         <v>16</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M278" t="n">
         <v>200</v>
       </c>
       <c r="N278" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O278" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P278" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T278" t="n">
         <v>16</v>
@@ -22647,68 +22647,228 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E279" t="n">
+        <v>10</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G279" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M279" t="n">
+        <v>400</v>
+      </c>
+      <c r="N279" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O279" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P279" t="n">
+        <v>23500</v>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S279" t="n">
+        <v>1469</v>
+      </c>
+      <c r="T279" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>4</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E280" t="n">
+        <v>10</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G280" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M280" t="n">
+        <v>200</v>
+      </c>
+      <c r="N280" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O280" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P280" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S280" t="n">
+        <v>1188</v>
+      </c>
+      <c r="T280" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>4</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E279" t="n">
-        <v>10</v>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G279" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I279" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="E281" t="n">
+        <v>10</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
         <is>
           <t>1a amarillo</t>
         </is>
       </c>
-      <c r="M279" t="n">
+      <c r="M281" t="n">
         <v>1500</v>
       </c>
-      <c r="N279" t="n">
+      <c r="N281" t="n">
         <v>8000</v>
       </c>
-      <c r="O279" t="n">
+      <c r="O281" t="n">
         <v>8000</v>
       </c>
-      <c r="P279" t="n">
+      <c r="P281" t="n">
         <v>8000</v>
       </c>
-      <c r="Q279" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R279" t="inlineStr">
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S279" t="n">
+      <c r="S281" t="n">
         <v>500</v>
       </c>
-      <c r="T279" t="n">
+      <c r="T281" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T281"/>
+  <dimension ref="A1:T283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5287,7 +5287,7 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44217</v>
+        <v>44481</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -5320,36 +5320,36 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N62" t="n">
-        <v>23000</v>
+        <v>8500</v>
       </c>
       <c r="O62" t="n">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="P62" t="n">
-        <v>23500</v>
+        <v>8750</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1469</v>
+        <v>486</v>
       </c>
       <c r="T62" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44217</v>
+        <v>44481</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -5400,36 +5400,36 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="N63" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O63" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P63" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S63" t="n">
-        <v>1188</v>
+        <v>389</v>
       </c>
       <c r="T63" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -5447,7 +5447,7 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44365</v>
+        <v>44217</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -5484,16 +5484,16 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N64" t="n">
-        <v>11000</v>
+        <v>23000</v>
       </c>
       <c r="O64" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="P64" t="n">
-        <v>11500</v>
+        <v>23500</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -5502,11 +5502,11 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S64" t="n">
-        <v>719</v>
+        <v>1469</v>
       </c>
       <c r="T64" t="n">
         <v>16</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44365</v>
+        <v>44217</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -5564,16 +5564,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N65" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O65" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P65" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
@@ -5582,11 +5582,11 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S65" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T65" t="n">
         <v>16</v>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44340</v>
+        <v>44365</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N66" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O66" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P66" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1094</v>
+        <v>719</v>
       </c>
       <c r="T66" t="n">
         <v>16</v>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44340</v>
+        <v>44365</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -5724,16 +5724,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N67" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O67" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P67" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="S67" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T67" t="n">
         <v>16</v>
@@ -5767,7 +5767,7 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44238</v>
+        <v>44340</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -5804,16 +5804,16 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N68" t="n">
-        <v>24500</v>
+        <v>17000</v>
       </c>
       <c r="O68" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P68" t="n">
-        <v>24750</v>
+        <v>17500</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1547</v>
+        <v>1094</v>
       </c>
       <c r="T68" t="n">
         <v>16</v>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44405</v>
+        <v>44340</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -5880,20 +5880,20 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="N69" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O69" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P69" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>438</v>
+        <v>938</v>
       </c>
       <c r="T69" t="n">
         <v>16</v>
@@ -5927,7 +5927,7 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44376</v>
+        <v>44238</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="N70" t="n">
-        <v>9000</v>
+        <v>24500</v>
       </c>
       <c r="O70" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="P70" t="n">
-        <v>9500</v>
+        <v>24750</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="S70" t="n">
-        <v>594</v>
+        <v>1547</v>
       </c>
       <c r="T70" t="n">
         <v>16</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44376</v>
+        <v>44405</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -6040,11 +6040,11 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N71" t="n">
         <v>7000</v>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -6120,20 +6120,20 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N72" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O72" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P72" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T72" t="n">
         <v>16</v>
@@ -6167,7 +6167,7 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -6200,20 +6200,20 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N73" t="n">
         <v>7000</v>
       </c>
       <c r="O73" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P73" t="n">
-        <v>7250</v>
+        <v>7000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="S73" t="n">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="T73" t="n">
         <v>16</v>
@@ -6247,7 +6247,7 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44222</v>
+        <v>44446</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N74" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O74" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="P74" t="n">
-        <v>22500</v>
+        <v>8500</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S74" t="n">
-        <v>1406</v>
+        <v>531</v>
       </c>
       <c r="T74" t="n">
         <v>16</v>
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44222</v>
+        <v>44446</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -6360,20 +6360,20 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N75" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O75" t="n">
-        <v>19000</v>
+        <v>7500</v>
       </c>
       <c r="P75" t="n">
-        <v>19000</v>
+        <v>7250</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -6382,11 +6382,11 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S75" t="n">
-        <v>1188</v>
+        <v>453</v>
       </c>
       <c r="T75" t="n">
         <v>16</v>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44379</v>
+        <v>44222</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -6444,16 +6444,16 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="N76" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="O76" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="P76" t="n">
-        <v>9500</v>
+        <v>22500</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -6462,11 +6462,11 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S76" t="n">
-        <v>594</v>
+        <v>1406</v>
       </c>
       <c r="T76" t="n">
         <v>16</v>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44379</v>
+        <v>44222</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -6524,16 +6524,16 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N77" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="O77" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="P77" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S77" t="n">
-        <v>438</v>
+        <v>1188</v>
       </c>
       <c r="T77" t="n">
         <v>16</v>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44260</v>
+        <v>44379</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -6604,16 +6604,16 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="N78" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="O78" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="P78" t="n">
-        <v>25000</v>
+        <v>9500</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1562</v>
+        <v>594</v>
       </c>
       <c r="T78" t="n">
         <v>16</v>
@@ -6647,7 +6647,7 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44211</v>
+        <v>44379</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -6680,20 +6680,20 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N79" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O79" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P79" t="n">
-        <v>24500</v>
+        <v>7000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
@@ -6702,11 +6702,11 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S79" t="n">
-        <v>1531</v>
+        <v>438</v>
       </c>
       <c r="T79" t="n">
         <v>16</v>
@@ -6727,7 +6727,7 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44211</v>
+        <v>44260</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -6760,20 +6760,20 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N80" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O80" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P80" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -6782,11 +6782,11 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S80" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T80" t="n">
         <v>16</v>
@@ -6807,7 +6807,7 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -6844,16 +6844,16 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N81" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O81" t="n">
         <v>25000</v>
       </c>
-      <c r="O81" t="n">
-        <v>26000</v>
-      </c>
       <c r="P81" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S81" t="n">
-        <v>1594</v>
+        <v>1531</v>
       </c>
       <c r="T81" t="n">
         <v>16</v>
@@ -6887,7 +6887,7 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44272</v>
+        <v>44211</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -6924,16 +6924,16 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N82" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O82" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P82" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -6942,11 +6942,11 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S82" t="n">
-        <v>1312</v>
+        <v>1250</v>
       </c>
       <c r="T82" t="n">
         <v>16</v>
@@ -6967,7 +6967,7 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44218</v>
+        <v>44272</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -7004,16 +7004,16 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="N83" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="O83" t="n">
-        <v>23500</v>
+        <v>26000</v>
       </c>
       <c r="P83" t="n">
-        <v>23250</v>
+        <v>25500</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -7022,11 +7022,11 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S83" t="n">
-        <v>1453</v>
+        <v>1594</v>
       </c>
       <c r="T83" t="n">
         <v>16</v>
@@ -7047,7 +7047,7 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44218</v>
+        <v>44272</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -7084,16 +7084,16 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N84" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O84" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P84" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -7102,11 +7102,11 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S84" t="n">
-        <v>1188</v>
+        <v>1312</v>
       </c>
       <c r="T84" t="n">
         <v>16</v>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -7164,16 +7164,16 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="N85" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="O85" t="n">
-        <v>25000</v>
+        <v>23500</v>
       </c>
       <c r="P85" t="n">
-        <v>24500</v>
+        <v>23250</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="S85" t="n">
-        <v>1531</v>
+        <v>1453</v>
       </c>
       <c r="T85" t="n">
         <v>16</v>
@@ -7207,7 +7207,7 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44210</v>
+        <v>44218</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -7247,13 +7247,13 @@
         <v>200</v>
       </c>
       <c r="N86" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O86" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P86" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="S86" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T86" t="n">
         <v>16</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44257</v>
+        <v>44210</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -7324,16 +7324,16 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N87" t="n">
-        <v>26500</v>
+        <v>24000</v>
       </c>
       <c r="O87" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="P87" t="n">
-        <v>26750</v>
+        <v>24500</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -7342,11 +7342,11 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S87" t="n">
-        <v>1672</v>
+        <v>1531</v>
       </c>
       <c r="T87" t="n">
         <v>16</v>
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44257</v>
+        <v>44210</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -7404,16 +7404,16 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N88" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O88" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P88" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
@@ -7422,11 +7422,11 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S88" t="n">
-        <v>1312</v>
+        <v>1250</v>
       </c>
       <c r="T88" t="n">
         <v>16</v>
@@ -7447,7 +7447,7 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44417</v>
+        <v>44257</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -7480,20 +7480,20 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N89" t="n">
-        <v>8000</v>
+        <v>26500</v>
       </c>
       <c r="O89" t="n">
-        <v>8000</v>
+        <v>27000</v>
       </c>
       <c r="P89" t="n">
-        <v>8000</v>
+        <v>26750</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         </is>
       </c>
       <c r="S89" t="n">
-        <v>500</v>
+        <v>1672</v>
       </c>
       <c r="T89" t="n">
         <v>16</v>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44417</v>
+        <v>44257</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -7560,20 +7560,20 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N90" t="n">
-        <v>6500</v>
+        <v>21000</v>
       </c>
       <c r="O90" t="n">
-        <v>6500</v>
+        <v>21000</v>
       </c>
       <c r="P90" t="n">
-        <v>6500</v>
+        <v>21000</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="S90" t="n">
-        <v>406</v>
+        <v>1312</v>
       </c>
       <c r="T90" t="n">
         <v>16</v>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44246</v>
+        <v>44417</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -7640,20 +7640,20 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N91" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O91" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P91" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -7662,11 +7662,11 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S91" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T91" t="n">
         <v>16</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44246</v>
+        <v>44417</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N92" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="O92" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="P92" t="n">
-        <v>20000</v>
+        <v>6500</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7742,11 +7742,11 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S92" t="n">
-        <v>1250</v>
+        <v>406</v>
       </c>
       <c r="T92" t="n">
         <v>16</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44295</v>
+        <v>44246</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -7807,13 +7807,13 @@
         <v>800</v>
       </c>
       <c r="N93" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O93" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P93" t="n">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7822,11 +7822,11 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S93" t="n">
-        <v>1406</v>
+        <v>1469</v>
       </c>
       <c r="T93" t="n">
         <v>16</v>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44295</v>
+        <v>44246</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -7887,13 +7887,13 @@
         <v>300</v>
       </c>
       <c r="N94" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O94" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P94" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7902,11 +7902,11 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T94" t="n">
         <v>16</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44225</v>
+        <v>44295</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -7967,13 +7967,13 @@
         <v>800</v>
       </c>
       <c r="N95" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O95" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P95" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7982,11 +7982,11 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S95" t="n">
-        <v>1531</v>
+        <v>1406</v>
       </c>
       <c r="T95" t="n">
         <v>16</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44225</v>
+        <v>44295</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -8044,16 +8044,16 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="N96" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O96" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P96" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -8062,11 +8062,11 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S96" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T96" t="n">
         <v>16</v>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44399</v>
+        <v>44225</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N97" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="O97" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P97" t="n">
-        <v>8750</v>
+        <v>24500</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8142,11 +8142,11 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S97" t="n">
-        <v>547</v>
+        <v>1531</v>
       </c>
       <c r="T97" t="n">
         <v>16</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44327</v>
+        <v>44225</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="N98" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O98" t="n">
         <v>20000</v>
       </c>
       <c r="P98" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8222,11 +8222,11 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S98" t="n">
-        <v>1219</v>
+        <v>1250</v>
       </c>
       <c r="T98" t="n">
         <v>16</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44327</v>
+        <v>44399</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>500</v>
       </c>
       <c r="N99" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="O99" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="P99" t="n">
-        <v>17000</v>
+        <v>8750</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>1062</v>
+        <v>547</v>
       </c>
       <c r="T99" t="n">
         <v>16</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44364</v>
+        <v>44327</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -8364,16 +8364,16 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N100" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O100" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P100" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>719</v>
+        <v>1219</v>
       </c>
       <c r="T100" t="n">
         <v>16</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44364</v>
+        <v>44327</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -8444,16 +8444,16 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N101" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="O101" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="P101" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>500</v>
+        <v>1062</v>
       </c>
       <c r="T101" t="n">
         <v>16</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44355</v>
+        <v>44364</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -8524,16 +8524,16 @@
         </is>
       </c>
       <c r="M102" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N102" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O102" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P102" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>844</v>
+        <v>719</v>
       </c>
       <c r="T102" t="n">
         <v>16</v>
@@ -8567,7 +8567,7 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44355</v>
+        <v>44364</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -8607,13 +8607,13 @@
         <v>300</v>
       </c>
       <c r="N103" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O103" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P103" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T103" t="n">
         <v>16</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44418</v>
+        <v>44355</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N104" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="O104" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="P104" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>500</v>
+        <v>844</v>
       </c>
       <c r="T104" t="n">
         <v>16</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44418</v>
+        <v>44355</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N105" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O105" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="P105" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>438</v>
+        <v>688</v>
       </c>
       <c r="T105" t="n">
         <v>16</v>
@@ -8807,7 +8807,7 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44278</v>
+        <v>44418</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N106" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O106" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P106" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T106" t="n">
         <v>16</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44278</v>
+        <v>44418</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M107" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="N107" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="O107" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P107" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>1125</v>
+        <v>438</v>
       </c>
       <c r="T107" t="n">
         <v>16</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44477</v>
+        <v>44278</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -9000,36 +9000,36 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N108" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O108" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="P108" t="n">
-        <v>8500</v>
+        <v>21500</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S108" t="n">
-        <v>472</v>
+        <v>1344</v>
       </c>
       <c r="T108" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
@@ -9047,7 +9047,7 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44477</v>
+        <v>44278</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -9080,36 +9080,36 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N109" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="O109" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="P109" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S109" t="n">
-        <v>389</v>
+        <v>1125</v>
       </c>
       <c r="T109" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -9164,32 +9164,32 @@
         </is>
       </c>
       <c r="M110" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N110" t="n">
         <v>8000</v>
       </c>
       <c r="O110" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P110" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S110" t="n">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="T110" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="M111" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N111" t="n">
         <v>7000</v>
@@ -9257,19 +9257,19 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S111" t="n">
-        <v>438</v>
+        <v>389</v>
       </c>
       <c r="T111" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -9287,7 +9287,7 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N112" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O112" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="P112" t="n">
-        <v>24250</v>
+        <v>8000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9342,11 +9342,11 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1516</v>
+        <v>500</v>
       </c>
       <c r="T112" t="n">
         <v>16</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44230</v>
+        <v>44424</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N113" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O113" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P113" t="n">
-        <v>24500</v>
+        <v>7000</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>1531</v>
+        <v>438</v>
       </c>
       <c r="T113" t="n">
         <v>16</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44230</v>
+        <v>44245</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M114" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="N114" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O114" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P114" t="n">
-        <v>20000</v>
+        <v>24250</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9502,11 +9502,11 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S114" t="n">
-        <v>1250</v>
+        <v>1516</v>
       </c>
       <c r="T114" t="n">
         <v>16</v>
@@ -9527,7 +9527,7 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44370</v>
+        <v>44230</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -9567,13 +9567,13 @@
         <v>300</v>
       </c>
       <c r="N115" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O115" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P115" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>719</v>
+        <v>1531</v>
       </c>
       <c r="T115" t="n">
         <v>16</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44449</v>
+        <v>44230</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -9640,20 +9640,20 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N116" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O116" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P116" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T116" t="n">
         <v>16</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -9720,20 +9720,20 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M117" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N117" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="O117" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P117" t="n">
-        <v>7000</v>
+        <v>11500</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>438</v>
+        <v>719</v>
       </c>
       <c r="T117" t="n">
         <v>16</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N118" t="n">
         <v>8000</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="M119" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N119" t="n">
         <v>7000</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N120" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="O120" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="P120" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1094</v>
+        <v>500</v>
       </c>
       <c r="T120" t="n">
         <v>16</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N121" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="O121" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="P121" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>938</v>
+        <v>438</v>
       </c>
       <c r="T121" t="n">
         <v>16</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -10124,16 +10124,16 @@
         </is>
       </c>
       <c r="M122" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N122" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="O122" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="P122" t="n">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1594</v>
+        <v>1094</v>
       </c>
       <c r="T122" t="n">
         <v>16</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -10204,16 +10204,16 @@
         </is>
       </c>
       <c r="M123" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N123" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="O123" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P123" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1312</v>
+        <v>938</v>
       </c>
       <c r="T123" t="n">
         <v>16</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -10287,13 +10287,13 @@
         <v>600</v>
       </c>
       <c r="N124" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O124" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="P124" t="n">
-        <v>21500</v>
+        <v>25500</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1344</v>
+        <v>1594</v>
       </c>
       <c r="T124" t="n">
         <v>16</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -10364,16 +10364,16 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N125" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O125" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P125" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1125</v>
+        <v>1312</v>
       </c>
       <c r="T125" t="n">
         <v>16</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -10444,16 +10444,16 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N126" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="O126" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P126" t="n">
-        <v>17500</v>
+        <v>21500</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1094</v>
+        <v>1344</v>
       </c>
       <c r="T126" t="n">
         <v>16</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -10527,13 +10527,13 @@
         <v>300</v>
       </c>
       <c r="N127" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O127" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P127" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>938</v>
+        <v>1125</v>
       </c>
       <c r="T127" t="n">
         <v>16</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -10600,36 +10600,36 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N128" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O128" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P128" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S128" t="n">
-        <v>556</v>
+        <v>1094</v>
       </c>
       <c r="T128" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -10680,36 +10680,36 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N129" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="O129" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="P129" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S129" t="n">
-        <v>500</v>
+        <v>938</v>
       </c>
       <c r="T129" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130">
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -10760,36 +10760,36 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N130" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="O130" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="P130" t="n">
-        <v>21500</v>
+        <v>10000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>1344</v>
+        <v>556</v>
       </c>
       <c r="T130" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -10840,36 +10840,36 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N131" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="O131" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="P131" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T131" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -10924,16 +10924,16 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="N132" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O132" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P132" t="n">
-        <v>25000</v>
+        <v>21500</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1562</v>
+        <v>1344</v>
       </c>
       <c r="T132" t="n">
         <v>16</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -11004,16 +11004,16 @@
         </is>
       </c>
       <c r="M133" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N133" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O133" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="P133" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T133" t="n">
         <v>16</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N134" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O134" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P134" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1250</v>
+        <v>1562</v>
       </c>
       <c r="T134" t="n">
         <v>16</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="N135" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="O135" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="P135" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T135" t="n">
         <v>16</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="N136" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O136" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P136" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T136" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N137" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="O137" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="P137" t="n">
-        <v>22500</v>
+        <v>8000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11342,11 +11342,11 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S137" t="n">
-        <v>1406</v>
+        <v>500</v>
       </c>
       <c r="T137" t="n">
         <v>16</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N138" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="O138" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="P138" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11422,11 +11422,11 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1188</v>
+        <v>438</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11487,13 +11487,13 @@
         <v>600</v>
       </c>
       <c r="N139" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="O139" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P139" t="n">
-        <v>24750</v>
+        <v>22500</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1547</v>
+        <v>1406</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -11567,13 +11567,13 @@
         <v>300</v>
       </c>
       <c r="N140" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="O140" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="P140" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11582,11 +11582,11 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1250</v>
+        <v>1188</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11647,13 +11647,13 @@
         <v>600</v>
       </c>
       <c r="N141" t="n">
-        <v>23000</v>
+        <v>24500</v>
       </c>
       <c r="O141" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P141" t="n">
-        <v>23500</v>
+        <v>24750</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1469</v>
+        <v>1547</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -11727,13 +11727,13 @@
         <v>300</v>
       </c>
       <c r="N142" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O142" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="P142" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1312</v>
+        <v>1250</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11804,16 +11804,16 @@
         </is>
       </c>
       <c r="M143" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N143" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="O143" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="P143" t="n">
-        <v>22500</v>
+        <v>23500</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11822,11 +11822,11 @@
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1406</v>
+        <v>1469</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11847,7 +11847,7 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -11884,16 +11884,16 @@
         </is>
       </c>
       <c r="M144" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N144" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O144" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="P144" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11902,11 +11902,11 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1188</v>
+        <v>1312</v>
       </c>
       <c r="T144" t="n">
         <v>16</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N145" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O145" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P145" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11982,11 +11982,11 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1094</v>
+        <v>1406</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -12044,16 +12044,16 @@
         </is>
       </c>
       <c r="M146" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N146" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O146" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P146" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12062,11 +12062,11 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S146" t="n">
-        <v>938</v>
+        <v>1188</v>
       </c>
       <c r="T146" t="n">
         <v>16</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12124,16 +12124,16 @@
         </is>
       </c>
       <c r="M147" t="n">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="N147" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="O147" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="P147" t="n">
-        <v>26500</v>
+        <v>17500</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12142,11 +12142,11 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1656</v>
+        <v>1094</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N148" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O148" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P148" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12222,11 +12222,11 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S148" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12284,16 +12284,16 @@
         </is>
       </c>
       <c r="M149" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N149" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="O149" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="P149" t="n">
-        <v>24500</v>
+        <v>26500</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12302,11 +12302,11 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1531</v>
+        <v>1656</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N150" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="O150" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="P150" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12382,11 +12382,11 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1250</v>
+        <v>1375</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M151" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="N151" t="n">
-        <v>7500</v>
+        <v>24000</v>
       </c>
       <c r="O151" t="n">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="P151" t="n">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>469</v>
+        <v>1531</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44421</v>
+        <v>44209</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="N152" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O152" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P152" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44421</v>
+        <v>44447</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N153" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="O153" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="P153" t="n">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="T153" t="n">
         <v>16</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44232</v>
+        <v>44421</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N154" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="O154" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="P154" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T154" t="n">
         <v>16</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44316</v>
+        <v>44421</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N155" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O155" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="P155" t="n">
-        <v>21500</v>
+        <v>7000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1344</v>
+        <v>438</v>
       </c>
       <c r="T155" t="n">
         <v>16</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="N156" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="O156" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="P156" t="n">
-        <v>19000</v>
+        <v>24500</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1188</v>
+        <v>1531</v>
       </c>
       <c r="T156" t="n">
         <v>16</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N157" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="O157" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P157" t="n">
-        <v>13500</v>
+        <v>21500</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>844</v>
+        <v>1344</v>
       </c>
       <c r="T157" t="n">
         <v>16</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44356</v>
+        <v>44316</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N158" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="O158" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="P158" t="n">
-        <v>11000</v>
+        <v>19000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>688</v>
+        <v>1188</v>
       </c>
       <c r="T158" t="n">
         <v>16</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -13080,21 +13080,21 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M159" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N159" t="n">
         <v>13000</v>
       </c>
       <c r="O159" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P159" t="n">
         <v>13500</v>
       </c>
-      <c r="P159" t="n">
-        <v>13250</v>
-      </c>
       <c r="Q159" t="inlineStr">
         <is>
           <t>$/malla 16 kilos</t>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="T159" t="n">
         <v>16</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44169</v>
+        <v>44356</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M160" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N160" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O160" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P160" t="n">
-        <v>14750</v>
+        <v>11000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13182,11 +13182,11 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S160" t="n">
-        <v>922</v>
+        <v>688</v>
       </c>
       <c r="T160" t="n">
         <v>16</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44467</v>
+        <v>44169</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -13244,32 +13244,32 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="N161" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="O161" t="n">
-        <v>9000</v>
+        <v>13500</v>
       </c>
       <c r="P161" t="n">
-        <v>9000</v>
+        <v>13250</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S161" t="n">
-        <v>500</v>
+        <v>828</v>
       </c>
       <c r="T161" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44467</v>
+        <v>44169</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -13320,36 +13320,36 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M162" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N162" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="O162" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P162" t="n">
-        <v>8000</v>
+        <v>14750</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S162" t="n">
-        <v>444</v>
+        <v>922</v>
       </c>
       <c r="T162" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -13404,32 +13404,32 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="N163" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="O163" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P163" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S163" t="n">
         <v>500</v>
       </c>
       <c r="T163" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44427</v>
+        <v>44467</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -13484,32 +13484,32 @@
         </is>
       </c>
       <c r="M164" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N164" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O164" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="P164" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S164" t="n">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="T164" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="O165" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="P165" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T165" t="n">
         <v>16</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N166" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="O166" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="P166" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1188</v>
+        <v>406</v>
       </c>
       <c r="T166" t="n">
         <v>16</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44273</v>
+        <v>44319</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -13724,16 +13724,16 @@
         </is>
       </c>
       <c r="M167" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="N167" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O167" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="P167" t="n">
-        <v>24000</v>
+        <v>21500</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1500</v>
+        <v>1344</v>
       </c>
       <c r="T167" t="n">
         <v>16</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44411</v>
+        <v>44319</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N168" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O168" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P168" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T168" t="n">
         <v>16</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44411</v>
+        <v>44273</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="N169" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="O169" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="P169" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>438</v>
+        <v>1500</v>
       </c>
       <c r="T169" t="n">
         <v>16</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N170" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="O170" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P170" t="n">
-        <v>24750</v>
+        <v>8000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13982,11 +13982,11 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1547</v>
+        <v>500</v>
       </c>
       <c r="T170" t="n">
         <v>16</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44236</v>
+        <v>44411</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M171" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N171" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="O171" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="P171" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14062,11 +14062,11 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1250</v>
+        <v>438</v>
       </c>
       <c r="T171" t="n">
         <v>16</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -14127,13 +14127,13 @@
         <v>800</v>
       </c>
       <c r="N172" t="n">
-        <v>23000</v>
+        <v>24500</v>
       </c>
       <c r="O172" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P172" t="n">
-        <v>23500</v>
+        <v>24750</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1469</v>
+        <v>1547</v>
       </c>
       <c r="T172" t="n">
         <v>16</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -14207,13 +14207,13 @@
         <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O173" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="P173" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1188</v>
+        <v>1250</v>
       </c>
       <c r="T173" t="n">
         <v>16</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -14284,16 +14284,16 @@
         </is>
       </c>
       <c r="M174" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N174" t="n">
-        <v>24500</v>
+        <v>23000</v>
       </c>
       <c r="O174" t="n">
-        <v>24500</v>
+        <v>24000</v>
       </c>
       <c r="P174" t="n">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14302,11 +14302,11 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1531</v>
+        <v>1469</v>
       </c>
       <c r="T174" t="n">
         <v>16</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44203</v>
+        <v>44215</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N175" t="n">
-        <v>24000</v>
+        <v>19000</v>
       </c>
       <c r="O175" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P175" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>1531</v>
+        <v>1188</v>
       </c>
       <c r="T175" t="n">
         <v>16</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N176" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O176" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P176" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T176" t="n">
         <v>16</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N177" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O177" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P177" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14542,11 +14542,11 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S177" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T177" t="n">
         <v>16</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O178" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P178" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14622,11 +14622,11 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S178" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T178" t="n">
         <v>16</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44426</v>
+        <v>44413</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -14684,7 +14684,7 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N179" t="n">
         <v>8000</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44469</v>
+        <v>44413</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -14760,36 +14760,36 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M180" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N180" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O180" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P180" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S180" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T180" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="181">
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44469</v>
+        <v>44426</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -14840,11 +14840,11 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="N181" t="n">
         <v>8000</v>
@@ -14857,19 +14857,19 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S181" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="T181" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="182">
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -14924,32 +14924,32 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N182" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="O182" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="P182" t="n">
-        <v>12250</v>
+        <v>9000</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S182" t="n">
-        <v>766</v>
+        <v>500</v>
       </c>
       <c r="T182" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -15000,36 +15000,36 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M183" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N183" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="O183" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P183" t="n">
-        <v>13750</v>
+        <v>8000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S183" t="n">
-        <v>859</v>
+        <v>444</v>
       </c>
       <c r="T183" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N184" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="O184" t="n">
-        <v>8000</v>
+        <v>12500</v>
       </c>
       <c r="P184" t="n">
-        <v>8000</v>
+        <v>12250</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>500</v>
+        <v>766</v>
       </c>
       <c r="T184" t="n">
         <v>16</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44292</v>
+        <v>44168</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N185" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="O185" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P185" t="n">
-        <v>22500</v>
+        <v>13750</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15182,11 +15182,11 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="S185" t="n">
-        <v>1406</v>
+        <v>859</v>
       </c>
       <c r="T185" t="n">
         <v>16</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44292</v>
+        <v>44434</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N186" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="O186" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="P186" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1188</v>
+        <v>500</v>
       </c>
       <c r="T186" t="n">
         <v>16</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N187" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O187" t="n">
-        <v>12500</v>
+        <v>23000</v>
       </c>
       <c r="P187" t="n">
-        <v>12250</v>
+        <v>22500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>766</v>
+        <v>1406</v>
       </c>
       <c r="T187" t="n">
         <v>16</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44161</v>
+        <v>44292</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O188" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="P188" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>500</v>
+        <v>1188</v>
       </c>
       <c r="T188" t="n">
         <v>16</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M189" t="n">
         <v>800</v>
       </c>
       <c r="N189" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="O189" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P189" t="n">
-        <v>13500</v>
+        <v>12250</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="T189" t="n">
         <v>16</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M190" t="n">
         <v>300</v>
       </c>
       <c r="N190" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="O190" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="P190" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>688</v>
+        <v>500</v>
       </c>
       <c r="T190" t="n">
         <v>16</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N191" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="O191" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P191" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1531</v>
+        <v>844</v>
       </c>
       <c r="T191" t="n">
         <v>16</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="O192" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P192" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1250</v>
+        <v>688</v>
       </c>
       <c r="T192" t="n">
         <v>16</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44274</v>
+        <v>44214</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="N193" t="n">
         <v>24000</v>
       </c>
       <c r="O193" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P193" t="n">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1500</v>
+        <v>1531</v>
       </c>
       <c r="T193" t="n">
         <v>16</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44229</v>
+        <v>44214</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="N194" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="O194" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P194" t="n">
-        <v>24500</v>
+        <v>20000</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15902,11 +15902,11 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1531</v>
+        <v>1250</v>
       </c>
       <c r="T194" t="n">
         <v>16</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44229</v>
+        <v>44274</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N195" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O195" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="P195" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15982,11 +15982,11 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="T195" t="n">
         <v>16</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N196" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="O196" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P196" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16062,11 +16062,11 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S196" t="n">
-        <v>969</v>
+        <v>1531</v>
       </c>
       <c r="T196" t="n">
         <v>16</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N197" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O197" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P197" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16142,11 +16142,11 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S197" t="n">
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="T197" t="n">
         <v>16</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N198" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O198" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="P198" t="n">
-        <v>8000</v>
+        <v>15500</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>500</v>
+        <v>969</v>
       </c>
       <c r="T198" t="n">
         <v>16</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="N199" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O199" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="P199" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>406</v>
+        <v>750</v>
       </c>
       <c r="T199" t="n">
         <v>16</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="N200" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O200" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="P200" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>781</v>
+        <v>500</v>
       </c>
       <c r="T200" t="n">
         <v>16</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M201" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="N201" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="O201" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="P201" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>562</v>
+        <v>406</v>
       </c>
       <c r="T201" t="n">
         <v>16</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N202" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O202" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P202" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>1094</v>
+        <v>781</v>
       </c>
       <c r="T202" t="n">
         <v>16</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44335</v>
+        <v>44358</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N203" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="O203" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="P203" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>938</v>
+        <v>562</v>
       </c>
       <c r="T203" t="n">
         <v>16</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44231</v>
+        <v>44335</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N204" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="O204" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="P204" t="n">
-        <v>24500</v>
+        <v>17500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16702,11 +16702,11 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1531</v>
+        <v>1094</v>
       </c>
       <c r="T204" t="n">
         <v>16</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44320</v>
+        <v>44335</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="N205" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O205" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="P205" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1375</v>
+        <v>938</v>
       </c>
       <c r="T205" t="n">
         <v>16</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44475</v>
+        <v>44231</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -16840,36 +16840,36 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N206" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="O206" t="n">
-        <v>9000</v>
+        <v>25000</v>
       </c>
       <c r="P206" t="n">
-        <v>8750</v>
+        <v>24500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S206" t="n">
-        <v>486</v>
+        <v>1531</v>
       </c>
       <c r="T206" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44475</v>
+        <v>44320</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -16920,36 +16920,36 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N207" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="O207" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="P207" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S207" t="n">
-        <v>389</v>
+        <v>1375</v>
       </c>
       <c r="T207" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208">
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N208" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O208" t="n">
         <v>9000</v>
       </c>
       <c r="P208" t="n">
-        <v>9000</v>
+        <v>8750</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="T208" t="n">
         <v>18</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N209" t="n">
         <v>7000</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -17160,36 +17160,36 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M210" t="n">
+        <v>800</v>
+      </c>
+      <c r="N210" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O210" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P210" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S210" t="n">
         <v>500</v>
       </c>
-      <c r="N210" t="n">
-        <v>25000</v>
-      </c>
-      <c r="O210" t="n">
-        <v>26000</v>
-      </c>
-      <c r="P210" t="n">
-        <v>25500</v>
-      </c>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S210" t="n">
-        <v>1594</v>
-      </c>
       <c r="T210" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211">
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44204</v>
+        <v>44474</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -17240,36 +17240,36 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N211" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="O211" t="n">
-        <v>25000</v>
+        <v>7000</v>
       </c>
       <c r="P211" t="n">
-        <v>24500</v>
+        <v>7000</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1531</v>
+        <v>389</v>
       </c>
       <c r="T211" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212">
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N212" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="O212" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P212" t="n">
-        <v>20000</v>
+        <v>25500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17342,11 +17342,11 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1250</v>
+        <v>1594</v>
       </c>
       <c r="T212" t="n">
         <v>16</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="N213" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="O213" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="P213" t="n">
-        <v>11500</v>
+        <v>24500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17422,11 +17422,11 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S213" t="n">
-        <v>719</v>
+        <v>1531</v>
       </c>
       <c r="T213" t="n">
         <v>16</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -17487,13 +17487,13 @@
         <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O214" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P214" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17502,11 +17502,11 @@
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S214" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T214" t="n">
         <v>16</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N215" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O215" t="n">
-        <v>17500</v>
+        <v>12000</v>
       </c>
       <c r="P215" t="n">
-        <v>17250</v>
+        <v>11500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17582,11 +17582,11 @@
       </c>
       <c r="R215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1078</v>
+        <v>719</v>
       </c>
       <c r="T215" t="n">
         <v>16</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44349</v>
+        <v>44362</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N216" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O216" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P216" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>906</v>
+        <v>500</v>
       </c>
       <c r="T216" t="n">
         <v>16</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="N217" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O217" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="P217" t="n">
-        <v>10500</v>
+        <v>17250</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17742,11 +17742,11 @@
       </c>
       <c r="R217" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S217" t="n">
-        <v>656</v>
+        <v>1078</v>
       </c>
       <c r="T217" t="n">
         <v>16</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44372</v>
+        <v>44349</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N218" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="O218" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P218" t="n">
-        <v>8000</v>
+        <v>14500</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>500</v>
+        <v>906</v>
       </c>
       <c r="T218" t="n">
         <v>16</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N219" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="O219" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P219" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>906</v>
+        <v>656</v>
       </c>
       <c r="T219" t="n">
         <v>16</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N220" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O220" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="P220" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="T220" t="n">
         <v>16</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N221" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="O221" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="P221" t="n">
-        <v>8500</v>
+        <v>14500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>531</v>
+        <v>906</v>
       </c>
       <c r="T221" t="n">
         <v>16</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M222" t="n">
         <v>200</v>
       </c>
       <c r="N222" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="O222" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="P222" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>469</v>
+        <v>750</v>
       </c>
       <c r="T222" t="n">
         <v>16</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="N223" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="O223" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="P223" t="n">
-        <v>24250</v>
+        <v>8500</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18222,11 +18222,11 @@
       </c>
       <c r="R223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1516</v>
+        <v>531</v>
       </c>
       <c r="T223" t="n">
         <v>16</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44243</v>
+        <v>44448</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N224" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O224" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P224" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18302,11 +18302,11 @@
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1250</v>
+        <v>469</v>
       </c>
       <c r="T224" t="n">
         <v>16</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N225" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="O225" t="n">
-        <v>10000</v>
+        <v>24500</v>
       </c>
       <c r="P225" t="n">
-        <v>9500</v>
+        <v>24250</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18382,11 +18382,11 @@
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S225" t="n">
-        <v>594</v>
+        <v>1516</v>
       </c>
       <c r="T225" t="n">
         <v>16</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44385</v>
+        <v>44243</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N226" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O226" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P226" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18462,11 +18462,11 @@
       </c>
       <c r="R226" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S226" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T226" t="n">
         <v>16</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N227" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="O227" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="P227" t="n">
-        <v>8500</v>
+        <v>9500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>531</v>
+        <v>594</v>
       </c>
       <c r="T227" t="n">
         <v>16</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M228" t="n">
         <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="O228" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="P228" t="n">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="T228" t="n">
         <v>16</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N229" t="n">
-        <v>24000</v>
+        <v>8500</v>
       </c>
       <c r="O229" t="n">
-        <v>25000</v>
+        <v>8500</v>
       </c>
       <c r="P229" t="n">
-        <v>24500</v>
+        <v>8500</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18702,11 +18702,11 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1531</v>
+        <v>531</v>
       </c>
       <c r="T229" t="n">
         <v>16</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44202</v>
+        <v>44452</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N230" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="O230" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="P230" t="n">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18782,11 +18782,11 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1250</v>
+        <v>469</v>
       </c>
       <c r="T230" t="n">
         <v>16</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>3050</v>
+        <v>300</v>
       </c>
       <c r="N231" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="O231" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="P231" t="n">
-        <v>8000</v>
+        <v>24500</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18862,11 +18862,11 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S231" t="n">
-        <v>500</v>
+        <v>1531</v>
       </c>
       <c r="T231" t="n">
         <v>16</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44435</v>
+        <v>44202</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N232" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="O232" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="P232" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18942,11 +18942,11 @@
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S232" t="n">
-        <v>438</v>
+        <v>1250</v>
       </c>
       <c r="T232" t="n">
         <v>16</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44242</v>
+        <v>44435</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>300</v>
+        <v>3050</v>
       </c>
       <c r="N233" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="O233" t="n">
-        <v>25000</v>
+        <v>8000</v>
       </c>
       <c r="P233" t="n">
-        <v>24500</v>
+        <v>8000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19022,11 +19022,11 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1531</v>
+        <v>500</v>
       </c>
       <c r="T233" t="n">
         <v>16</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44433</v>
+        <v>44435</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="N234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P234" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T234" t="n">
         <v>16</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44307</v>
+        <v>44242</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N235" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O235" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P235" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19182,11 +19182,11 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1344</v>
+        <v>1531</v>
       </c>
       <c r="T235" t="n">
         <v>16</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44159</v>
+        <v>44433</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
       <c r="N236" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="O236" t="n">
-        <v>12500</v>
+        <v>8000</v>
       </c>
       <c r="P236" t="n">
-        <v>12250</v>
+        <v>8000</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>766</v>
+        <v>500</v>
       </c>
       <c r="T236" t="n">
         <v>16</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44159</v>
+        <v>44307</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N237" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O237" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="P237" t="n">
-        <v>8000</v>
+        <v>21500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>500</v>
+        <v>1344</v>
       </c>
       <c r="T237" t="n">
         <v>16</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="N238" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="O238" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="P238" t="n">
-        <v>17500</v>
+        <v>12250</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1094</v>
+        <v>766</v>
       </c>
       <c r="T238" t="n">
         <v>16</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N239" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="O239" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="P239" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>938</v>
+        <v>500</v>
       </c>
       <c r="T239" t="n">
         <v>16</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -19560,36 +19560,36 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="N240" t="n">
-        <v>8500</v>
+        <v>17000</v>
       </c>
       <c r="O240" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="P240" t="n">
-        <v>8750</v>
+        <v>17500</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R240" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S240" t="n">
-        <v>486</v>
+        <v>1094</v>
       </c>
       <c r="T240" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241">
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -19640,36 +19640,36 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N241" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="O241" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="P241" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R241" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S241" t="n">
-        <v>389</v>
+        <v>938</v>
       </c>
       <c r="T241" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242">
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="N242" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="O242" t="n">
         <v>9000</v>
       </c>
       <c r="P242" t="n">
-        <v>9000</v>
+        <v>8750</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="T242" t="n">
         <v>18</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -19800,36 +19800,36 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="O243" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P243" t="n">
-        <v>9500</v>
+        <v>7000</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R243" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S243" t="n">
-        <v>594</v>
+        <v>389</v>
       </c>
       <c r="T243" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244">
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -19880,36 +19880,36 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M244" t="n">
+        <v>300</v>
+      </c>
+      <c r="N244" t="n">
+        <v>9000</v>
+      </c>
+      <c r="O244" t="n">
+        <v>9000</v>
+      </c>
+      <c r="P244" t="n">
+        <v>9000</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>$/malla 18 kilos</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S244" t="n">
         <v>500</v>
       </c>
-      <c r="N244" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O244" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P244" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q244" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R244" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S244" t="n">
-        <v>438</v>
-      </c>
       <c r="T244" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245">
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N245" t="n">
-        <v>26500</v>
+        <v>9000</v>
       </c>
       <c r="O245" t="n">
-        <v>27000</v>
+        <v>10000</v>
       </c>
       <c r="P245" t="n">
-        <v>26750</v>
+        <v>9500</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1672</v>
+        <v>594</v>
       </c>
       <c r="T245" t="n">
         <v>16</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N246" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="O246" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="P246" t="n">
-        <v>21000</v>
+        <v>7000</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1312</v>
+        <v>438</v>
       </c>
       <c r="T246" t="n">
         <v>16</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N247" t="n">
-        <v>11000</v>
+        <v>26500</v>
       </c>
       <c r="O247" t="n">
-        <v>12000</v>
+        <v>27000</v>
       </c>
       <c r="P247" t="n">
-        <v>11500</v>
+        <v>26750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>719</v>
+        <v>1672</v>
       </c>
       <c r="T247" t="n">
         <v>16</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N248" t="n">
         <v>21000</v>
       </c>
       <c r="O248" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P248" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1344</v>
+        <v>1312</v>
       </c>
       <c r="T248" t="n">
         <v>16</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>300</v>
       </c>
       <c r="N249" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="O249" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P249" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1125</v>
+        <v>719</v>
       </c>
       <c r="T249" t="n">
         <v>16</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N250" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="O250" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="P250" t="n">
-        <v>11500</v>
+        <v>21500</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>719</v>
+        <v>1344</v>
       </c>
       <c r="T250" t="n">
         <v>16</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -20447,13 +20447,13 @@
         <v>300</v>
       </c>
       <c r="N251" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="O251" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="P251" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="T251" t="n">
         <v>16</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N252" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="O252" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P252" t="n">
-        <v>14750</v>
+        <v>11500</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20542,11 +20542,11 @@
       </c>
       <c r="R252" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S252" t="n">
-        <v>922</v>
+        <v>719</v>
       </c>
       <c r="T252" t="n">
         <v>16</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44357</v>
+        <v>44369</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N253" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="O253" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P253" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>844</v>
+        <v>500</v>
       </c>
       <c r="T253" t="n">
         <v>16</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N254" t="n">
-        <v>11000</v>
+        <v>14500</v>
       </c>
       <c r="O254" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P254" t="n">
-        <v>11000</v>
+        <v>14750</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20702,11 +20702,11 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S254" t="n">
-        <v>688</v>
+        <v>922</v>
       </c>
       <c r="T254" t="n">
         <v>16</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="N255" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="O255" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P255" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1219</v>
+        <v>844</v>
       </c>
       <c r="T255" t="n">
         <v>16</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N256" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="O256" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P256" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1062</v>
+        <v>688</v>
       </c>
       <c r="T256" t="n">
         <v>16</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -20927,13 +20927,13 @@
         <v>400</v>
       </c>
       <c r="N257" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="O257" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P257" t="n">
-        <v>21500</v>
+        <v>19500</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1344</v>
+        <v>1219</v>
       </c>
       <c r="T257" t="n">
         <v>16</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N258" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O258" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P258" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1188</v>
+        <v>1062</v>
       </c>
       <c r="T258" t="n">
         <v>16</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N259" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O259" t="n">
         <v>22000</v>
       </c>
-      <c r="O259" t="n">
-        <v>23000</v>
-      </c>
       <c r="P259" t="n">
-        <v>22500</v>
+        <v>21500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21102,11 +21102,11 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1406</v>
+        <v>1344</v>
       </c>
       <c r="T259" t="n">
         <v>16</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44397</v>
+        <v>44321</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="N260" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="O260" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P260" t="n">
-        <v>8533</v>
+        <v>19000</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>533</v>
+        <v>1188</v>
       </c>
       <c r="T260" t="n">
         <v>16</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44414</v>
+        <v>44223</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N261" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="O261" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="P261" t="n">
-        <v>8000</v>
+        <v>22500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21262,11 +21262,11 @@
       </c>
       <c r="R261" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S261" t="n">
-        <v>500</v>
+        <v>1406</v>
       </c>
       <c r="T261" t="n">
         <v>16</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N262" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O262" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="P262" t="n">
-        <v>6500</v>
+        <v>8533</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>406</v>
+        <v>533</v>
       </c>
       <c r="T262" t="n">
         <v>16</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="N263" t="n">
-        <v>23000</v>
+        <v>8000</v>
       </c>
       <c r="O263" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="P263" t="n">
-        <v>23500</v>
+        <v>8000</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1469</v>
+        <v>500</v>
       </c>
       <c r="T263" t="n">
         <v>16</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N264" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="O264" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="P264" t="n">
-        <v>21000</v>
+        <v>6500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1312</v>
+        <v>406</v>
       </c>
       <c r="T264" t="n">
         <v>16</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>1400</v>
+        <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="O265" t="n">
-        <v>8500</v>
+        <v>24000</v>
       </c>
       <c r="P265" t="n">
-        <v>8250</v>
+        <v>23500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>516</v>
+        <v>1469</v>
       </c>
       <c r="T265" t="n">
         <v>16</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N266" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="O266" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="P266" t="n">
-        <v>8000</v>
+        <v>21000</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>500</v>
+        <v>1312</v>
       </c>
       <c r="T266" t="n">
         <v>16</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="N267" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="O267" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="P267" t="n">
-        <v>6500</v>
+        <v>8250</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>406</v>
+        <v>516</v>
       </c>
       <c r="T267" t="n">
         <v>16</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -21800,11 +21800,11 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="N268" t="n">
         <v>8000</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="N269" t="n">
-        <v>18000</v>
+        <v>6500</v>
       </c>
       <c r="O269" t="n">
-        <v>19000</v>
+        <v>6500</v>
       </c>
       <c r="P269" t="n">
-        <v>18500</v>
+        <v>6500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21902,11 +21902,11 @@
       </c>
       <c r="R269" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1156</v>
+        <v>406</v>
       </c>
       <c r="T269" t="n">
         <v>16</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="N270" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="O270" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="P270" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21982,11 +21982,11 @@
       </c>
       <c r="R270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S270" t="n">
-        <v>875</v>
+        <v>500</v>
       </c>
       <c r="T270" t="n">
         <v>16</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -22040,36 +22040,36 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="N271" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="O271" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="P271" t="n">
-        <v>9000</v>
+        <v>18500</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R271" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S271" t="n">
-        <v>500</v>
+        <v>1156</v>
       </c>
       <c r="T271" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="272">
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44250</v>
+        <v>44187</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="N272" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O272" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="P272" t="n">
-        <v>25500</v>
+        <v>14000</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22142,11 +22142,11 @@
       </c>
       <c r="R272" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1594</v>
+        <v>875</v>
       </c>
       <c r="T272" t="n">
         <v>16</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -22200,36 +22200,36 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N273" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O273" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P273" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R273" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1312</v>
+        <v>500</v>
       </c>
       <c r="T273" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274">
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="N274" t="n">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="O274" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="P274" t="n">
-        <v>8000</v>
+        <v>25500</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>500</v>
+        <v>1594</v>
       </c>
       <c r="T274" t="n">
         <v>16</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="N275" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O275" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="P275" t="n">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22382,11 +22382,11 @@
       </c>
       <c r="R275" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1531</v>
+        <v>1312</v>
       </c>
       <c r="T275" t="n">
         <v>16</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>300</v>
       </c>
       <c r="N276" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="O276" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="P276" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22462,11 +22462,11 @@
       </c>
       <c r="R276" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="T276" t="n">
         <v>16</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="N277" t="n">
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="O277" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P277" t="n">
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1219</v>
+        <v>1531</v>
       </c>
       <c r="T277" t="n">
         <v>16</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44286</v>
+        <v>44201</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N278" t="n">
-        <v>21000</v>
+        <v>20000</v>
       </c>
       <c r="O278" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="P278" t="n">
-        <v>21500</v>
+        <v>20000</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22622,11 +22622,11 @@
       </c>
       <c r="R278" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1344</v>
+        <v>1250</v>
       </c>
       <c r="T278" t="n">
         <v>16</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="N279" t="n">
-        <v>23000</v>
+        <v>19000</v>
       </c>
       <c r="O279" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P279" t="n">
-        <v>23500</v>
+        <v>19500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22702,11 +22702,11 @@
       </c>
       <c r="R279" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1469</v>
+        <v>1219</v>
       </c>
       <c r="T279" t="n">
         <v>16</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M280" t="n">
         <v>200</v>
       </c>
       <c r="N280" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O280" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P280" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T280" t="n">
         <v>16</v>
@@ -22807,68 +22807,228 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E281" t="n">
+        <v>10</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G281" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>1a plateado</t>
+        </is>
+      </c>
+      <c r="M281" t="n">
+        <v>400</v>
+      </c>
+      <c r="N281" t="n">
+        <v>23000</v>
+      </c>
+      <c r="O281" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P281" t="n">
+        <v>23500</v>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S281" t="n">
+        <v>1469</v>
+      </c>
+      <c r="T281" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>4</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E282" t="n">
+        <v>10</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>2a plateado</t>
+        </is>
+      </c>
+      <c r="M282" t="n">
+        <v>200</v>
+      </c>
+      <c r="N282" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O282" t="n">
+        <v>19000</v>
+      </c>
+      <c r="P282" t="n">
+        <v>19000</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S282" t="n">
+        <v>1188</v>
+      </c>
+      <c r="T282" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>4</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Feria Lagunitas de Puerto Montt</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E281" t="n">
-        <v>10</v>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G281" t="n">
-        <v>100102</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>Cítricos</t>
-        </is>
-      </c>
-      <c r="I281" t="n">
-        <v>100102003</v>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>Limón</t>
-        </is>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="E283" t="n">
+        <v>10</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>100102</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Cítricos</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>100102003</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>Limón</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
         <is>
           <t>1a amarillo</t>
         </is>
       </c>
-      <c r="M281" t="n">
+      <c r="M283" t="n">
         <v>1500</v>
       </c>
-      <c r="N281" t="n">
+      <c r="N283" t="n">
         <v>8000</v>
       </c>
-      <c r="O281" t="n">
+      <c r="O283" t="n">
         <v>8000</v>
       </c>
-      <c r="P281" t="n">
+      <c r="P283" t="n">
         <v>8000</v>
       </c>
-      <c r="Q281" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R281" t="inlineStr">
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
         <is>
           <t>Región de O'Higgins</t>
         </is>
       </c>
-      <c r="S281" t="n">
+      <c r="S283" t="n">
         <v>500</v>
       </c>
-      <c r="T281" t="n">
+      <c r="T283" t="n">
         <v>16</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Feria Lagunitas de Puerto Montt - Limón.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T283"/>
+  <dimension ref="A1:T284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44449</v>
+        <v>44482</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -9804,32 +9804,32 @@
         </is>
       </c>
       <c r="M118" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="N118" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="O118" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="P118" t="n">
-        <v>8000</v>
+        <v>8750</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S118" t="n">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="T118" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -9880,33 +9880,33 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M119" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N119" t="n">
+        <v>8000</v>
+      </c>
+      <c r="O119" t="n">
+        <v>8000</v>
+      </c>
+      <c r="P119" t="n">
+        <v>8000</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>$/malla 16 kilos</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S119" t="n">
         <v>500</v>
-      </c>
-      <c r="N119" t="n">
-        <v>7000</v>
-      </c>
-      <c r="O119" t="n">
-        <v>7000</v>
-      </c>
-      <c r="P119" t="n">
-        <v>7000</v>
-      </c>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>$/malla 16 kilos</t>
-        </is>
-      </c>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>Región de O'Higgins</t>
-        </is>
-      </c>
-      <c r="S119" t="n">
-        <v>438</v>
       </c>
       <c r="T119" t="n">
         <v>16</v>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44412</v>
+        <v>44449</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N120" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="O120" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="P120" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>500</v>
+        <v>438</v>
       </c>
       <c r="T120" t="n">
         <v>16</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N121" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O121" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P121" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T121" t="n">
         <v>16</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44336</v>
+        <v>44412</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N122" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="O122" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="P122" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1094</v>
+        <v>438</v>
       </c>
       <c r="T122" t="n">
         <v>16</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N123" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O123" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P123" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T123" t="n">
         <v>16</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N124" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O124" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P124" t="n">
-        <v>25500</v>
+        <v>15000</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>1594</v>
+        <v>938</v>
       </c>
       <c r="T124" t="n">
         <v>16</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="N125" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O125" t="n">
-        <v>21000</v>
+        <v>26000</v>
       </c>
       <c r="P125" t="n">
-        <v>21000</v>
+        <v>25500</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1312</v>
+        <v>1594</v>
       </c>
       <c r="T125" t="n">
         <v>16</v>
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N126" t="n">
         <v>21000</v>
       </c>
       <c r="O126" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P126" t="n">
-        <v>21500</v>
+        <v>21000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1344</v>
+        <v>1312</v>
       </c>
       <c r="T126" t="n">
         <v>16</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N127" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="O127" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P127" t="n">
-        <v>18000</v>
+        <v>21500</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1125</v>
+        <v>1344</v>
       </c>
       <c r="T127" t="n">
         <v>16</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="N128" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O128" t="n">
         <v>18000</v>
       </c>
       <c r="P128" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>1094</v>
+        <v>1125</v>
       </c>
       <c r="T128" t="n">
         <v>16</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N129" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O129" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P129" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T129" t="n">
         <v>16</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -10760,36 +10760,36 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="N130" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O130" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P130" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>$/malla 18 kilos</t>
+          <t>$/malla 16 kilos</t>
         </is>
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>Provincia de Melipilla</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S130" t="n">
-        <v>556</v>
+        <v>938</v>
       </c>
       <c r="T130" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="N131" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="O131" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="P131" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="T131" t="n">
         <v>18</v>
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -10920,36 +10920,36 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M132" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N132" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="O132" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="P132" t="n">
-        <v>21500</v>
+        <v>9000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>$/malla 16 kilos</t>
+          <t>$/malla 18 kilos</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Melipilla</t>
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1344</v>
+        <v>500</v>
       </c>
       <c r="T132" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M133" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N133" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="O133" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P133" t="n">
-        <v>19000</v>
+        <v>21500</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>1188</v>
+        <v>1344</v>
       </c>
       <c r="T133" t="n">
         <v>16</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44265</v>
+        <v>44322</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N134" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="O134" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P134" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1562</v>
+        <v>1188</v>
       </c>
       <c r="T134" t="n">
         <v>16</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M135" t="n">
         <v>150</v>
       </c>
       <c r="N135" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="O135" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="P135" t="n">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1531</v>
+        <v>1562</v>
       </c>
       <c r="T135" t="n">
         <v>16</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>3a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N136" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O136" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="P136" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T136" t="n">
         <v>16</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44428</v>
+        <v>44265</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>1a amarillo</t>
+          <t>3a plateado</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N137" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="O137" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="P137" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>500</v>
+        <v>1250</v>
       </c>
       <c r="T137" t="n">
         <v>16</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>2a amarillo</t>
+          <t>1a amarillo</t>
         </is>
       </c>
       <c r="M138" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N138" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="O138" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="P138" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="T138" t="n">
         <v>16</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a amarillo</t>
         </is>
       </c>
       <c r="M139" t="n">
         <v>600</v>
       </c>
       <c r="N139" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="O139" t="n">
-        <v>23000</v>
+        <v>7000</v>
       </c>
       <c r="P139" t="n">
-        <v>22500</v>
+        <v>7000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11502,11 +11502,11 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S139" t="n">
-        <v>1406</v>
+        <v>438</v>
       </c>
       <c r="T139" t="n">
         <v>16</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N140" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O140" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P140" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1188</v>
+        <v>1406</v>
       </c>
       <c r="T140" t="n">
         <v>16</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N141" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O141" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="P141" t="n">
-        <v>24750</v>
+        <v>19000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11662,11 +11662,11 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1547</v>
+        <v>1188</v>
       </c>
       <c r="T141" t="n">
         <v>16</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N142" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="O142" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P142" t="n">
-        <v>20000</v>
+        <v>24750</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>1250</v>
+        <v>1547</v>
       </c>
       <c r="T142" t="n">
         <v>16</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="N143" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="O143" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="P143" t="n">
-        <v>23500</v>
+        <v>20000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>1469</v>
+        <v>1250</v>
       </c>
       <c r="T143" t="n">
         <v>16</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N144" t="n">
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="O144" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P144" t="n">
-        <v>21000</v>
+        <v>23500</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>1312</v>
+        <v>1469</v>
       </c>
       <c r="T144" t="n">
         <v>16</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N145" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="O145" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P145" t="n">
-        <v>22500</v>
+        <v>21000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11982,11 +11982,11 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S145" t="n">
-        <v>1406</v>
+        <v>1312</v>
       </c>
       <c r="T145" t="n">
         <v>16</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N146" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="O146" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P146" t="n">
-        <v>19000</v>
+        <v>22500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>1188</v>
+        <v>1406</v>
       </c>
       <c r="T146" t="n">
         <v>16</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="N147" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O147" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P147" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12142,11 +12142,11 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1094</v>
+        <v>1188</v>
       </c>
       <c r="T147" t="n">
         <v>16</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N148" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="O148" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P148" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>938</v>
+        <v>1094</v>
       </c>
       <c r="T148" t="n">
         <v>16</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="N149" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="O149" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P149" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12302,11 +12302,11 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1656</v>
+        <v>938</v>
       </c>
       <c r="T149" t="n">
         <v>16</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="N150" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="O150" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="P150" t="n">
-        <v>22000</v>
+        <v>26500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>1375</v>
+        <v>1656</v>
       </c>
       <c r="T150" t="n">
         <v>16</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44209</v>
+        <v>44195</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>1a plateado</t>
+          <t>2a plateado</t>
         </is>
       </c>
       <c r="M151" t="n">
         <v>400</v>
       </c>
       <c r="N151" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O151" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P151" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12462,11 +12462,11 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1531</v>
+        <v>1375</v>
       </c>
       <c r="T151" t="n">
         <v>16</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>2a plateado</t>
+          <t>1a plateado</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N152" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="O152" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="P152" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1250</v>
+        <v>1531</v>
       </c>
       <c r="T152" t="n">
         <v>16</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44447</v>
+        <v>44209</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153"